--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\VisionAI_Audio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14F2F5A-9166-4394-A954-FD5904CE9A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9028B961-ECFE-4E9F-84D4-9B8CF7353281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dailytasklist" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="Server" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">dailytasklist!$A$1:$D$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">dailytasklist!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>DAILY TASKS</t>
   </si>
@@ -78,15 +78,28 @@
   <si>
     <t>✅ Complete</t>
   </si>
+  <si>
+    <t>Create repository structure according to task 2</t>
+  </si>
+  <si>
+    <t>Find 20 audio samples for urdu and english</t>
+  </si>
+  <si>
+    <t>Create model comparison.py and write code for faster_whisper to get metrics in json file</t>
+  </si>
+  <si>
+    <t>🏃 In progress</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;Reorder&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +245,28 @@
       <color rgb="FF1F2328"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.14993743705557422"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="3" tint="0.14996795556505021"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -436,7 +471,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -466,8 +501,52 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="21" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -524,9 +603,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -567,6 +643,7 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,31 +655,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="37">
     <cellStyle name="Flag Column" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Flag Column 2" xfId="26" xr:uid="{F20ACDAB-C74A-471D-B5C8-5F16B0DEEA7C}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="29" xr:uid="{6A640033-24D4-400A-B98B-024B590023FF}"/>
     <cellStyle name="Heading 1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Heading 1 2 2" xfId="21" xr:uid="{26E62A39-2321-4364-9F7F-ED20A99DB544}"/>
     <cellStyle name="Heading 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="22" xr:uid="{D6CC6D4F-AE4C-4EF1-908E-B422E932729C}"/>
     <cellStyle name="Heading 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading 3 2 2" xfId="23" xr:uid="{A3FC86F9-77C0-421E-B455-9196A482AEE2}"/>
     <cellStyle name="Heading 4 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 4 2 2" xfId="24" xr:uid="{AEBAF9C9-296C-44F4-A74D-247F9892E187}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink 2" xfId="28" xr:uid="{DA78F54D-8CDA-4C28-A17E-FC750D6305E0}"/>
     <cellStyle name="Linked Cell 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Linked Cell 2 2" xfId="27" xr:uid="{2AB1E936-FCF9-4A91-8A9D-232E2255AAC3}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="19" xr:uid="{58325907-33B9-4650-AAB2-DE54A818CBC2}"/>
     <cellStyle name="Style 1" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Style 1 2" xfId="35" xr:uid="{73E91087-FCEA-4172-8A77-8E28D88E238E}"/>
     <cellStyle name="Style 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Style 2 2" xfId="36" xr:uid="{794A9E42-7AF8-413F-9367-B8A27D70C3C2}"/>
     <cellStyle name="Table details center aligned" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Table details center aligned 2" xfId="32" xr:uid="{2063E1AB-0589-457F-A998-4537051973F3}"/>
     <cellStyle name="Table details left aligned" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Table details left aligned 2" xfId="31" xr:uid="{D76B090F-53D2-46BF-B99B-0E5D55B04C81}"/>
     <cellStyle name="Table details right aligned" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Table details right aligned 2" xfId="33" xr:uid="{7CAB9707-7F1B-46D0-852A-8F350C72ED8F}"/>
     <cellStyle name="Title 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Title 2 2" xfId="20" xr:uid="{53CDAF7F-03E4-4179-9940-5AD48AAC6CD0}"/>
     <cellStyle name="Total 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Total 2 2" xfId="25" xr:uid="{DBBDC393-A31F-4498-AEB8-280F0E750547}"/>
     <cellStyle name="Total counts" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Total counts 2" xfId="30" xr:uid="{36D6858A-585E-4B94-BE4B-47A00614403E}"/>
     <cellStyle name="zHide navigation link text" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="zHide navigation link text 2" xfId="34" xr:uid="{10844339-D8D4-4A31-B348-D6572B7296AC}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -990,10 +1090,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1130,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="33">
         <v>45938</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1046,7 +1146,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1159,7 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1072,7 +1172,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1084,47 +1184,65 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>45939</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="44">
+        <v>45945</v>
+      </c>
       <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="44">
+        <v>45945</v>
+      </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+    <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="44">
+        <v>45945</v>
+      </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -1136,28 +1254,28 @@
       <c r="A15" s="40"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
@@ -1169,13 +1287,13 @@
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
@@ -1187,13 +1305,13 @@
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -1215,12 +1333,15 @@
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
@@ -1228,10 +1349,9 @@
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
@@ -1246,8 +1366,8 @@
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
     </row>
@@ -1257,40 +1377,38 @@
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1301,12 +1419,12 @@
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
@@ -1318,44 +1436,44 @@
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
     </row>
@@ -1366,43 +1484,43 @@
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="35"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
@@ -1414,31 +1532,31 @@
       <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
       <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="16"/>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="35"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
@@ -1450,49 +1568,49 @@
       <c r="D65" s="16"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="16"/>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
+      <c r="A69" s="35"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="11"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
       <c r="D73" s="16"/>
@@ -1504,7 +1622,7 @@
       <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="16"/>
@@ -1516,37 +1634,37 @@
       <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="17"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="18"/>
       <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="34"/>
-      <c r="B79" s="7"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="35"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
@@ -1558,97 +1676,97 @@
       <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="16"/>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
+      <c r="A86" s="34"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
+      <c r="A87" s="35"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
       <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="16"/>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
+      <c r="A92" s="33"/>
       <c r="B92" s="11"/>
       <c r="C92" s="12"/>
       <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
+      <c r="A93" s="35"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="16"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
       <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="16"/>
     </row>
     <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="11"/>
       <c r="C96" s="12"/>
       <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="35"/>
+      <c r="A98" s="33"/>
       <c r="B98" s="11"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="16"/>
@@ -1660,19 +1778,19 @@
       <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
+      <c r="A102" s="33"/>
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="35"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="16"/>
@@ -1684,37 +1802,37 @@
       <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="17"/>
       <c r="C107" s="18"/>
       <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
+      <c r="A108" s="35"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
+      <c r="A109" s="33"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="11"/>
       <c r="C110" s="12"/>
       <c r="D110" s="13"/>
@@ -1726,73 +1844,73 @@
       <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
+      <c r="A112" s="35"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="17"/>
       <c r="C113" s="18"/>
       <c r="D113" s="16"/>
     </row>
     <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="11"/>
       <c r="C114" s="12"/>
       <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="17"/>
       <c r="C115" s="18"/>
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="42"/>
+      <c r="A116" s="33"/>
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
       <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="17"/>
       <c r="C117" s="18"/>
       <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
+      <c r="A118" s="35"/>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
+      <c r="A119" s="33"/>
       <c r="B119" s="17"/>
       <c r="C119" s="18"/>
       <c r="D119" s="16"/>
     </row>
     <row r="120" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="11"/>
       <c r="C120" s="12"/>
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="34"/>
+      <c r="A121" s="35"/>
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
+      <c r="A122" s="33"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
       <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
       <c r="D123" s="16"/>
@@ -1804,37 +1922,37 @@
       <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
+      <c r="A125" s="35"/>
       <c r="B125" s="17"/>
       <c r="C125" s="18"/>
       <c r="D125" s="16"/>
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="13"/>
     </row>
     <row r="127" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="17"/>
       <c r="C127" s="18"/>
       <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
+      <c r="A128" s="35"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="13"/>
     </row>
     <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
+      <c r="A129" s="33"/>
       <c r="B129" s="17"/>
       <c r="C129" s="18"/>
       <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="11"/>
       <c r="C130" s="12"/>
       <c r="D130" s="13"/>
@@ -1846,1056 +1964,1094 @@
       <c r="D131" s="16"/>
     </row>
     <row r="132" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
+      <c r="A132" s="35"/>
       <c r="B132" s="11"/>
       <c r="C132" s="12"/>
       <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
+      <c r="A133" s="26"/>
       <c r="B133" s="17"/>
       <c r="C133" s="18"/>
       <c r="D133" s="16"/>
     </row>
     <row r="134" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
+      <c r="A134" s="33"/>
       <c r="B134" s="11"/>
       <c r="C134" s="12"/>
       <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
+      <c r="A135" s="35"/>
       <c r="B135" s="17"/>
       <c r="C135" s="18"/>
       <c r="D135" s="16"/>
     </row>
     <row r="136" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
+      <c r="A136" s="32"/>
       <c r="B136" s="11"/>
       <c r="C136" s="12"/>
       <c r="D136" s="13"/>
     </row>
     <row r="137" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="35"/>
+      <c r="A137" s="30"/>
       <c r="B137" s="17"/>
       <c r="C137" s="18"/>
       <c r="D137" s="16"/>
     </row>
     <row r="138" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="33"/>
+      <c r="A138" s="30"/>
       <c r="B138" s="11"/>
       <c r="C138" s="12"/>
       <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
+      <c r="A139" s="30"/>
       <c r="B139" s="17"/>
       <c r="C139" s="18"/>
       <c r="D139" s="16"/>
     </row>
     <row r="140" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
+      <c r="A140" s="30"/>
       <c r="B140" s="11"/>
       <c r="C140" s="12"/>
       <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
+      <c r="A141" s="30"/>
       <c r="B141" s="17"/>
       <c r="C141" s="18"/>
       <c r="D141" s="16"/>
     </row>
     <row r="142" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
+      <c r="A142" s="30"/>
       <c r="B142" s="11"/>
       <c r="C142" s="12"/>
       <c r="D142" s="13"/>
     </row>
     <row r="143" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="31"/>
+      <c r="A143" s="30"/>
       <c r="B143" s="17"/>
       <c r="C143" s="18"/>
       <c r="D143" s="16"/>
     </row>
     <row r="144" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="31"/>
+      <c r="A144" s="30"/>
       <c r="B144" s="11"/>
       <c r="C144" s="12"/>
       <c r="D144" s="13"/>
     </row>
     <row r="145" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="31"/>
+      <c r="A145" s="30"/>
       <c r="B145" s="17"/>
       <c r="C145" s="18"/>
       <c r="D145" s="16"/>
     </row>
     <row r="146" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="31"/>
+      <c r="A146" s="30"/>
       <c r="B146" s="11"/>
       <c r="C146" s="12"/>
       <c r="D146" s="13"/>
     </row>
     <row r="147" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
+      <c r="A147" s="30"/>
       <c r="B147" s="17"/>
       <c r="C147" s="18"/>
       <c r="D147" s="16"/>
     </row>
     <row r="148" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="31"/>
+      <c r="A148" s="30"/>
       <c r="B148" s="11"/>
       <c r="C148" s="12"/>
       <c r="D148" s="13"/>
     </row>
     <row r="149" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
+      <c r="A149" s="30"/>
       <c r="B149" s="17"/>
       <c r="C149" s="18"/>
       <c r="D149" s="16"/>
     </row>
     <row r="150" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="31"/>
+      <c r="A150" s="30"/>
       <c r="B150" s="11"/>
       <c r="C150" s="12"/>
       <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
+      <c r="A151" s="30"/>
       <c r="B151" s="17"/>
       <c r="C151" s="18"/>
       <c r="D151" s="16"/>
     </row>
     <row r="152" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
+      <c r="A152" s="30"/>
       <c r="B152" s="11"/>
       <c r="C152" s="12"/>
       <c r="D152" s="13"/>
     </row>
     <row r="153" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
+      <c r="A153" s="30"/>
       <c r="B153" s="17"/>
       <c r="C153" s="18"/>
       <c r="D153" s="16"/>
     </row>
     <row r="154" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="31"/>
+      <c r="A154" s="30"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12"/>
       <c r="D154" s="13"/>
     </row>
     <row r="155" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="31"/>
+      <c r="A155" s="30"/>
       <c r="B155" s="17"/>
       <c r="C155" s="18"/>
       <c r="D155" s="16"/>
     </row>
     <row r="156" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="31"/>
+      <c r="A156" s="30"/>
       <c r="B156" s="11"/>
       <c r="C156" s="12"/>
       <c r="D156" s="13"/>
     </row>
     <row r="157" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="31"/>
+      <c r="A157" s="30"/>
       <c r="B157" s="17"/>
       <c r="C157" s="18"/>
       <c r="D157" s="16"/>
     </row>
     <row r="158" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="31"/>
+      <c r="A158" s="30"/>
       <c r="B158" s="11"/>
       <c r="C158" s="12"/>
       <c r="D158" s="13"/>
     </row>
     <row r="159" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
+      <c r="A159" s="30"/>
       <c r="B159" s="17"/>
       <c r="C159" s="18"/>
       <c r="D159" s="16"/>
     </row>
     <row r="160" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="31"/>
+      <c r="A160" s="30"/>
       <c r="B160" s="11"/>
       <c r="C160" s="12"/>
       <c r="D160" s="13"/>
     </row>
     <row r="161" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="31"/>
+      <c r="A161" s="30"/>
       <c r="B161" s="17"/>
       <c r="C161" s="18"/>
       <c r="D161" s="16"/>
     </row>
     <row r="162" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="31"/>
+      <c r="A162" s="30"/>
       <c r="B162" s="11"/>
       <c r="C162" s="12"/>
       <c r="D162" s="13"/>
     </row>
     <row r="163" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="31"/>
+      <c r="A163" s="30"/>
       <c r="B163" s="17"/>
       <c r="C163" s="18"/>
       <c r="D163" s="16"/>
     </row>
     <row r="164" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="31"/>
+      <c r="A164" s="30"/>
       <c r="B164" s="11"/>
       <c r="C164" s="12"/>
       <c r="D164" s="13"/>
     </row>
     <row r="165" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="31"/>
+      <c r="A165" s="30"/>
       <c r="B165" s="17"/>
       <c r="C165" s="18"/>
       <c r="D165" s="16"/>
     </row>
     <row r="166" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="31"/>
+      <c r="A166" s="30"/>
       <c r="B166" s="11"/>
       <c r="C166" s="12"/>
       <c r="D166" s="13"/>
     </row>
     <row r="167" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="31"/>
+      <c r="A167" s="30"/>
       <c r="B167" s="17"/>
       <c r="C167" s="18"/>
       <c r="D167" s="16"/>
     </row>
     <row r="168" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="31"/>
+      <c r="A168" s="30"/>
       <c r="B168" s="11"/>
       <c r="C168" s="12"/>
       <c r="D168" s="13"/>
     </row>
     <row r="169" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="31"/>
+      <c r="A169" s="30"/>
       <c r="B169" s="17"/>
       <c r="C169" s="18"/>
       <c r="D169" s="16"/>
     </row>
     <row r="170" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="31"/>
+      <c r="A170" s="30"/>
       <c r="B170" s="11"/>
       <c r="C170" s="12"/>
       <c r="D170" s="13"/>
     </row>
     <row r="171" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="31"/>
+      <c r="A171" s="30"/>
       <c r="B171" s="17"/>
       <c r="C171" s="18"/>
       <c r="D171" s="16"/>
     </row>
     <row r="172" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
+      <c r="A172" s="30"/>
       <c r="B172" s="11"/>
       <c r="C172" s="12"/>
       <c r="D172" s="13"/>
     </row>
     <row r="173" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="31"/>
+      <c r="A173" s="30"/>
       <c r="B173" s="17"/>
       <c r="C173" s="18"/>
       <c r="D173" s="16"/>
     </row>
     <row r="174" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="31"/>
+      <c r="A174" s="30"/>
       <c r="B174" s="11"/>
       <c r="C174" s="12"/>
       <c r="D174" s="13"/>
     </row>
     <row r="175" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="31"/>
+      <c r="A175" s="30"/>
       <c r="B175" s="17"/>
       <c r="C175" s="18"/>
       <c r="D175" s="16"/>
     </row>
     <row r="176" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="31"/>
+      <c r="A176" s="30"/>
       <c r="B176" s="11"/>
       <c r="C176" s="12"/>
       <c r="D176" s="13"/>
     </row>
     <row r="177" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="31"/>
+      <c r="A177" s="30"/>
       <c r="B177" s="17"/>
       <c r="C177" s="18"/>
       <c r="D177" s="16"/>
     </row>
     <row r="178" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="31"/>
+      <c r="A178" s="30"/>
       <c r="B178" s="11"/>
       <c r="C178" s="12"/>
       <c r="D178" s="13"/>
     </row>
     <row r="179" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="31"/>
+      <c r="A179" s="30"/>
       <c r="B179" s="17"/>
       <c r="C179" s="18"/>
       <c r="D179" s="16"/>
     </row>
     <row r="180" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="31"/>
+      <c r="A180" s="30"/>
       <c r="B180" s="11"/>
       <c r="C180" s="12"/>
       <c r="D180" s="13"/>
     </row>
     <row r="181" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="31"/>
+      <c r="A181" s="30"/>
       <c r="B181" s="17"/>
       <c r="C181" s="18"/>
       <c r="D181" s="16"/>
     </row>
     <row r="182" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="31"/>
+      <c r="A182" s="30"/>
       <c r="B182" s="11"/>
       <c r="C182" s="12"/>
       <c r="D182" s="13"/>
     </row>
     <row r="183" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="31"/>
+      <c r="A183" s="30"/>
       <c r="B183" s="17"/>
       <c r="C183" s="18"/>
       <c r="D183" s="16"/>
     </row>
     <row r="184" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="31"/>
+      <c r="A184" s="30"/>
       <c r="B184" s="11"/>
       <c r="C184" s="12"/>
       <c r="D184" s="13"/>
     </row>
     <row r="185" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="31"/>
+      <c r="A185" s="30"/>
       <c r="B185" s="17"/>
       <c r="C185" s="18"/>
       <c r="D185" s="16"/>
     </row>
     <row r="186" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="31"/>
+      <c r="A186" s="30"/>
       <c r="B186" s="11"/>
       <c r="C186" s="12"/>
       <c r="D186" s="13"/>
     </row>
     <row r="187" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="31"/>
+      <c r="A187" s="30"/>
       <c r="B187" s="17"/>
       <c r="C187" s="18"/>
       <c r="D187" s="16"/>
     </row>
     <row r="188" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="31"/>
+      <c r="A188" s="30"/>
       <c r="B188" s="11"/>
       <c r="C188" s="12"/>
       <c r="D188" s="13"/>
     </row>
     <row r="189" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="31"/>
+      <c r="A189" s="30"/>
       <c r="B189" s="17"/>
       <c r="C189" s="18"/>
       <c r="D189" s="16"/>
     </row>
     <row r="190" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="31"/>
+      <c r="A190" s="30"/>
       <c r="B190" s="11"/>
       <c r="C190" s="12"/>
       <c r="D190" s="13"/>
     </row>
     <row r="191" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="31"/>
+      <c r="A191" s="30"/>
       <c r="B191" s="17"/>
       <c r="C191" s="18"/>
       <c r="D191" s="16"/>
     </row>
     <row r="192" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="31"/>
+      <c r="A192" s="30"/>
       <c r="B192" s="11"/>
       <c r="C192" s="12"/>
       <c r="D192" s="13"/>
     </row>
     <row r="193" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="31"/>
+      <c r="A193" s="30"/>
       <c r="B193" s="17"/>
       <c r="C193" s="18"/>
       <c r="D193" s="16"/>
     </row>
     <row r="194" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="31"/>
+      <c r="A194" s="30"/>
       <c r="B194" s="11"/>
       <c r="C194" s="12"/>
       <c r="D194" s="13"/>
     </row>
     <row r="195" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="31"/>
+      <c r="A195" s="30"/>
       <c r="B195" s="17"/>
       <c r="C195" s="18"/>
       <c r="D195" s="16"/>
     </row>
     <row r="196" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="31"/>
+      <c r="A196" s="30"/>
       <c r="B196" s="11"/>
       <c r="C196" s="12"/>
       <c r="D196" s="13"/>
     </row>
     <row r="197" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="31"/>
+      <c r="A197" s="30"/>
       <c r="B197" s="17"/>
       <c r="C197" s="18"/>
       <c r="D197" s="16"/>
     </row>
     <row r="198" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="31"/>
+      <c r="A198" s="30"/>
       <c r="B198" s="11"/>
       <c r="C198" s="12"/>
       <c r="D198" s="13"/>
     </row>
     <row r="199" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="31"/>
+      <c r="A199" s="30"/>
       <c r="B199" s="17"/>
       <c r="C199" s="18"/>
       <c r="D199" s="16"/>
     </row>
     <row r="200" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="31"/>
+      <c r="A200" s="30"/>
       <c r="B200" s="11"/>
       <c r="C200" s="12"/>
       <c r="D200" s="13"/>
     </row>
     <row r="201" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="31"/>
+      <c r="A201" s="30"/>
       <c r="B201" s="17"/>
       <c r="C201" s="18"/>
       <c r="D201" s="16"/>
     </row>
     <row r="202" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="31"/>
+      <c r="A202" s="30"/>
       <c r="B202" s="11"/>
       <c r="C202" s="12"/>
       <c r="D202" s="13"/>
     </row>
     <row r="203" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="31"/>
+      <c r="A203" s="30"/>
       <c r="B203" s="17"/>
       <c r="C203" s="18"/>
       <c r="D203" s="16"/>
     </row>
     <row r="204" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="31"/>
+      <c r="A204" s="30"/>
       <c r="B204" s="11"/>
       <c r="C204" s="12"/>
       <c r="D204" s="13"/>
     </row>
     <row r="205" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="31"/>
+      <c r="A205" s="30"/>
       <c r="B205" s="17"/>
       <c r="C205" s="18"/>
       <c r="D205" s="16"/>
     </row>
     <row r="206" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="31"/>
+      <c r="A206" s="30"/>
       <c r="B206" s="11"/>
       <c r="C206" s="12"/>
       <c r="D206" s="13"/>
     </row>
     <row r="207" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="31"/>
+      <c r="A207" s="30"/>
       <c r="B207" s="17"/>
       <c r="C207" s="18"/>
       <c r="D207" s="16"/>
     </row>
     <row r="208" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="31"/>
+      <c r="A208" s="30"/>
       <c r="B208" s="11"/>
       <c r="C208" s="12"/>
       <c r="D208" s="13"/>
     </row>
     <row r="209" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="31"/>
+      <c r="A209" s="30"/>
       <c r="B209" s="17"/>
       <c r="C209" s="18"/>
       <c r="D209" s="16"/>
     </row>
     <row r="210" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="31"/>
+      <c r="A210" s="30"/>
       <c r="B210" s="11"/>
       <c r="C210" s="12"/>
       <c r="D210" s="13"/>
     </row>
     <row r="211" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="31"/>
+      <c r="A211" s="30"/>
       <c r="B211" s="17"/>
       <c r="C211" s="18"/>
       <c r="D211" s="16"/>
     </row>
     <row r="212" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="31"/>
+      <c r="A212" s="30"/>
       <c r="B212" s="11"/>
       <c r="C212" s="12"/>
       <c r="D212" s="13"/>
     </row>
     <row r="213" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="31"/>
+      <c r="A213" s="30"/>
       <c r="B213" s="17"/>
       <c r="C213" s="18"/>
       <c r="D213" s="16"/>
     </row>
     <row r="214" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="31"/>
+      <c r="A214" s="30"/>
       <c r="B214" s="11"/>
       <c r="C214" s="12"/>
       <c r="D214" s="13"/>
     </row>
     <row r="215" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="31"/>
+      <c r="A215" s="30"/>
       <c r="B215" s="17"/>
       <c r="C215" s="18"/>
       <c r="D215" s="16"/>
     </row>
     <row r="216" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="31"/>
+      <c r="A216" s="30"/>
       <c r="B216" s="11"/>
       <c r="C216" s="12"/>
       <c r="D216" s="13"/>
     </row>
     <row r="217" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="31"/>
+      <c r="A217" s="30"/>
       <c r="B217" s="17"/>
       <c r="C217" s="18"/>
       <c r="D217" s="16"/>
     </row>
     <row r="218" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="31"/>
+      <c r="A218" s="30"/>
       <c r="B218" s="11"/>
       <c r="C218" s="12"/>
       <c r="D218" s="13"/>
     </row>
     <row r="219" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="31"/>
+      <c r="A219" s="30"/>
       <c r="B219" s="17"/>
       <c r="C219" s="18"/>
       <c r="D219" s="16"/>
     </row>
     <row r="220" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="31"/>
+      <c r="A220" s="30"/>
       <c r="B220" s="11"/>
       <c r="C220" s="12"/>
       <c r="D220" s="13"/>
     </row>
     <row r="221" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="31"/>
+      <c r="A221" s="30"/>
       <c r="B221" s="17"/>
       <c r="C221" s="18"/>
       <c r="D221" s="16"/>
     </row>
     <row r="222" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="31"/>
+      <c r="A222" s="30"/>
       <c r="B222" s="11"/>
       <c r="C222" s="12"/>
       <c r="D222" s="13"/>
     </row>
     <row r="223" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="31"/>
+      <c r="A223" s="30"/>
       <c r="B223" s="17"/>
       <c r="C223" s="18"/>
       <c r="D223" s="16"/>
     </row>
     <row r="224" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="31"/>
+      <c r="A224" s="30"/>
       <c r="B224" s="11"/>
       <c r="C224" s="12"/>
       <c r="D224" s="13"/>
     </row>
     <row r="225" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="31"/>
+      <c r="A225" s="30"/>
       <c r="B225" s="17"/>
       <c r="C225" s="18"/>
       <c r="D225" s="16"/>
     </row>
     <row r="226" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="31"/>
+      <c r="A226" s="30"/>
       <c r="B226" s="11"/>
       <c r="C226" s="12"/>
       <c r="D226" s="13"/>
     </row>
     <row r="227" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="31"/>
+      <c r="A227" s="30"/>
       <c r="B227" s="17"/>
       <c r="C227" s="18"/>
       <c r="D227" s="16"/>
     </row>
     <row r="228" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="31"/>
+      <c r="A228" s="30"/>
       <c r="B228" s="11"/>
       <c r="C228" s="12"/>
       <c r="D228" s="13"/>
     </row>
     <row r="229" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="31"/>
+      <c r="A229" s="30"/>
       <c r="B229" s="17"/>
       <c r="C229" s="18"/>
       <c r="D229" s="16"/>
     </row>
     <row r="230" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="31"/>
+      <c r="A230" s="30"/>
       <c r="B230" s="11"/>
       <c r="C230" s="12"/>
       <c r="D230" s="13"/>
     </row>
     <row r="231" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="31"/>
+      <c r="A231" s="30"/>
       <c r="B231" s="17"/>
       <c r="C231" s="18"/>
       <c r="D231" s="16"/>
     </row>
     <row r="232" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="31"/>
+      <c r="A232" s="30"/>
       <c r="B232" s="11"/>
       <c r="C232" s="12"/>
       <c r="D232" s="13"/>
     </row>
     <row r="233" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="31"/>
+      <c r="A233" s="30"/>
       <c r="B233" s="17"/>
       <c r="C233" s="18"/>
       <c r="D233" s="16"/>
     </row>
     <row r="234" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="31"/>
+      <c r="A234" s="30"/>
       <c r="B234" s="11"/>
       <c r="C234" s="12"/>
       <c r="D234" s="13"/>
     </row>
     <row r="235" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="31"/>
+      <c r="A235" s="30"/>
       <c r="B235" s="17"/>
       <c r="C235" s="18"/>
       <c r="D235" s="16"/>
     </row>
     <row r="236" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="31"/>
+      <c r="A236" s="30"/>
       <c r="B236" s="11"/>
       <c r="C236" s="12"/>
       <c r="D236" s="13"/>
     </row>
     <row r="237" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="31"/>
+      <c r="A237" s="30"/>
       <c r="B237" s="17"/>
       <c r="C237" s="18"/>
       <c r="D237" s="16"/>
     </row>
     <row r="238" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="31"/>
+      <c r="A238" s="30"/>
       <c r="B238" s="11"/>
       <c r="C238" s="12"/>
       <c r="D238" s="13"/>
     </row>
     <row r="239" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="31"/>
+      <c r="A239" s="30"/>
       <c r="B239" s="17"/>
       <c r="C239" s="18"/>
       <c r="D239" s="16"/>
     </row>
     <row r="240" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="31"/>
+      <c r="A240" s="30"/>
       <c r="B240" s="11"/>
       <c r="C240" s="12"/>
       <c r="D240" s="13"/>
     </row>
     <row r="241" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="31"/>
+      <c r="A241" s="30"/>
       <c r="B241" s="17"/>
       <c r="C241" s="18"/>
       <c r="D241" s="16"/>
     </row>
     <row r="242" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="31"/>
+      <c r="A242" s="30"/>
       <c r="B242" s="11"/>
       <c r="C242" s="12"/>
       <c r="D242" s="13"/>
     </row>
     <row r="243" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="31"/>
+      <c r="A243" s="30"/>
       <c r="B243" s="17"/>
       <c r="C243" s="18"/>
       <c r="D243" s="16"/>
     </row>
     <row r="244" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="31"/>
+      <c r="A244" s="30"/>
       <c r="B244" s="11"/>
       <c r="C244" s="12"/>
       <c r="D244" s="13"/>
     </row>
     <row r="245" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="31"/>
+      <c r="A245" s="30"/>
       <c r="B245" s="17"/>
       <c r="C245" s="18"/>
       <c r="D245" s="16"/>
     </row>
     <row r="246" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="31"/>
+      <c r="A246" s="30"/>
       <c r="B246" s="11"/>
       <c r="C246" s="12"/>
       <c r="D246" s="13"/>
     </row>
     <row r="247" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="31"/>
+      <c r="A247" s="30"/>
       <c r="B247" s="17"/>
       <c r="C247" s="18"/>
       <c r="D247" s="16"/>
     </row>
     <row r="248" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="31"/>
+      <c r="A248" s="30"/>
       <c r="B248" s="11"/>
       <c r="C248" s="12"/>
       <c r="D248" s="13"/>
     </row>
     <row r="249" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="31"/>
+      <c r="A249" s="30"/>
       <c r="B249" s="17"/>
       <c r="C249" s="18"/>
       <c r="D249" s="16"/>
     </row>
     <row r="250" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="31"/>
+      <c r="A250" s="30"/>
       <c r="B250" s="11"/>
       <c r="C250" s="12"/>
       <c r="D250" s="13"/>
     </row>
     <row r="251" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="31"/>
+      <c r="A251" s="30"/>
       <c r="B251" s="17"/>
       <c r="C251" s="18"/>
       <c r="D251" s="16"/>
     </row>
     <row r="252" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="31"/>
+      <c r="A252" s="30"/>
       <c r="B252" s="11"/>
       <c r="C252" s="12"/>
       <c r="D252" s="13"/>
     </row>
     <row r="253" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="31"/>
+      <c r="A253" s="30"/>
       <c r="B253" s="17"/>
       <c r="C253" s="18"/>
       <c r="D253" s="16"/>
     </row>
     <row r="254" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="31"/>
+      <c r="A254" s="30"/>
       <c r="B254" s="11"/>
       <c r="C254" s="12"/>
       <c r="D254" s="13"/>
     </row>
     <row r="255" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="31"/>
+      <c r="A255" s="30"/>
       <c r="B255" s="17"/>
       <c r="C255" s="18"/>
       <c r="D255" s="16"/>
     </row>
     <row r="256" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="31"/>
+      <c r="A256" s="30"/>
       <c r="B256" s="11"/>
       <c r="C256" s="12"/>
       <c r="D256" s="13"/>
     </row>
     <row r="257" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="31"/>
+      <c r="A257" s="30"/>
       <c r="B257" s="17"/>
       <c r="C257" s="18"/>
       <c r="D257" s="16"/>
     </row>
     <row r="258" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="31"/>
+      <c r="A258" s="30"/>
       <c r="B258" s="11"/>
       <c r="C258" s="12"/>
       <c r="D258" s="13"/>
     </row>
     <row r="259" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="31"/>
+      <c r="A259" s="30"/>
       <c r="B259" s="17"/>
       <c r="C259" s="18"/>
       <c r="D259" s="16"/>
     </row>
     <row r="260" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="31"/>
+      <c r="A260" s="30"/>
       <c r="B260" s="11"/>
       <c r="C260" s="12"/>
       <c r="D260" s="13"/>
     </row>
     <row r="261" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="31"/>
+      <c r="A261" s="30"/>
       <c r="B261" s="17"/>
       <c r="C261" s="18"/>
       <c r="D261" s="16"/>
     </row>
     <row r="262" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="31"/>
+      <c r="A262" s="30"/>
       <c r="B262" s="11"/>
       <c r="C262" s="12"/>
       <c r="D262" s="13"/>
     </row>
     <row r="263" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="31"/>
+      <c r="A263" s="30"/>
       <c r="B263" s="17"/>
       <c r="C263" s="18"/>
       <c r="D263" s="16"/>
     </row>
     <row r="264" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="31"/>
+      <c r="A264" s="30"/>
       <c r="B264" s="11"/>
       <c r="C264" s="12"/>
       <c r="D264" s="13"/>
     </row>
     <row r="265" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="31"/>
+      <c r="A265" s="30"/>
       <c r="B265" s="17"/>
       <c r="C265" s="18"/>
       <c r="D265" s="16"/>
     </row>
     <row r="266" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="31"/>
+      <c r="A266" s="30"/>
       <c r="B266" s="11"/>
       <c r="C266" s="12"/>
       <c r="D266" s="13"/>
     </row>
     <row r="267" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="31"/>
+      <c r="A267" s="30"/>
       <c r="B267" s="17"/>
       <c r="C267" s="18"/>
       <c r="D267" s="16"/>
     </row>
     <row r="268" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="31"/>
+      <c r="A268" s="30"/>
       <c r="B268" s="11"/>
       <c r="C268" s="12"/>
       <c r="D268" s="13"/>
     </row>
     <row r="269" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="31"/>
+      <c r="A269" s="30"/>
       <c r="B269" s="17"/>
       <c r="C269" s="18"/>
       <c r="D269" s="16"/>
     </row>
     <row r="270" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="31"/>
+      <c r="A270" s="30"/>
       <c r="B270" s="11"/>
       <c r="C270" s="12"/>
       <c r="D270" s="13"/>
     </row>
     <row r="271" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="31"/>
+      <c r="A271" s="30"/>
       <c r="B271" s="17"/>
       <c r="C271" s="18"/>
       <c r="D271" s="16"/>
     </row>
     <row r="272" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="31"/>
+      <c r="A272" s="30"/>
       <c r="B272" s="11"/>
       <c r="C272" s="12"/>
       <c r="D272" s="13"/>
     </row>
     <row r="273" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="31"/>
+      <c r="A273" s="30"/>
       <c r="B273" s="17"/>
       <c r="C273" s="18"/>
       <c r="D273" s="16"/>
     </row>
     <row r="274" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="31"/>
+      <c r="A274" s="30"/>
       <c r="B274" s="11"/>
       <c r="C274" s="12"/>
       <c r="D274" s="13"/>
     </row>
     <row r="275" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="31"/>
+      <c r="A275" s="30"/>
       <c r="B275" s="17"/>
       <c r="C275" s="18"/>
       <c r="D275" s="16"/>
     </row>
     <row r="276" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="31"/>
+      <c r="A276" s="30"/>
       <c r="B276" s="11"/>
       <c r="C276" s="12"/>
       <c r="D276" s="13"/>
     </row>
     <row r="277" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="31"/>
+      <c r="A277" s="30"/>
       <c r="B277" s="17"/>
       <c r="C277" s="18"/>
       <c r="D277" s="16"/>
     </row>
     <row r="278" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="31"/>
+      <c r="A278" s="30"/>
       <c r="B278" s="11"/>
       <c r="C278" s="12"/>
       <c r="D278" s="13"/>
     </row>
     <row r="279" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="31"/>
+      <c r="A279" s="30"/>
       <c r="B279" s="17"/>
       <c r="C279" s="18"/>
       <c r="D279" s="16"/>
     </row>
     <row r="280" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="31"/>
+      <c r="A280" s="30"/>
       <c r="B280" s="11"/>
       <c r="C280" s="12"/>
       <c r="D280" s="13"/>
     </row>
     <row r="281" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="31"/>
+      <c r="A281" s="30"/>
       <c r="B281" s="17"/>
       <c r="C281" s="18"/>
       <c r="D281" s="16"/>
     </row>
     <row r="282" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="31"/>
+      <c r="A282" s="30"/>
       <c r="B282" s="11"/>
       <c r="C282" s="12"/>
       <c r="D282" s="13"/>
     </row>
     <row r="283" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="31"/>
+      <c r="A283" s="30"/>
       <c r="B283" s="17"/>
       <c r="C283" s="18"/>
       <c r="D283" s="16"/>
     </row>
     <row r="284" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="31"/>
+      <c r="A284" s="30"/>
       <c r="B284" s="11"/>
       <c r="C284" s="12"/>
       <c r="D284" s="13"/>
     </row>
     <row r="285" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="31"/>
+      <c r="A285" s="30"/>
       <c r="B285" s="17"/>
       <c r="C285" s="18"/>
       <c r="D285" s="16"/>
     </row>
     <row r="286" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="31"/>
+      <c r="A286" s="30"/>
       <c r="B286" s="11"/>
       <c r="C286" s="12"/>
       <c r="D286" s="13"/>
     </row>
     <row r="287" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="31"/>
+      <c r="A287" s="30"/>
       <c r="B287" s="17"/>
       <c r="C287" s="18"/>
       <c r="D287" s="16"/>
     </row>
     <row r="288" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="31"/>
+      <c r="A288" s="30"/>
       <c r="B288" s="11"/>
       <c r="C288" s="12"/>
       <c r="D288" s="13"/>
     </row>
     <row r="289" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="31"/>
+      <c r="A289" s="30"/>
       <c r="B289" s="17"/>
       <c r="C289" s="18"/>
       <c r="D289" s="16"/>
     </row>
     <row r="290" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="31"/>
+      <c r="A290" s="30"/>
       <c r="B290" s="11"/>
       <c r="C290" s="12"/>
       <c r="D290" s="13"/>
     </row>
     <row r="291" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="31"/>
+      <c r="A291" s="30"/>
       <c r="B291" s="17"/>
       <c r="C291" s="18"/>
       <c r="D291" s="16"/>
     </row>
     <row r="292" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="31"/>
+      <c r="A292" s="30"/>
       <c r="B292" s="11"/>
       <c r="C292" s="12"/>
       <c r="D292" s="13"/>
     </row>
     <row r="293" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="31"/>
+      <c r="A293" s="30"/>
       <c r="B293" s="17"/>
       <c r="C293" s="18"/>
       <c r="D293" s="16"/>
     </row>
     <row r="294" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="31"/>
+      <c r="A294" s="30"/>
       <c r="B294" s="11"/>
       <c r="C294" s="12"/>
       <c r="D294" s="13"/>
     </row>
     <row r="295" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="31"/>
+      <c r="A295" s="30"/>
       <c r="B295" s="17"/>
       <c r="C295" s="18"/>
       <c r="D295" s="16"/>
     </row>
     <row r="296" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="31"/>
+      <c r="A296" s="30"/>
       <c r="B296" s="11"/>
       <c r="C296" s="12"/>
       <c r="D296" s="13"/>
     </row>
     <row r="297" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="31"/>
+      <c r="A297" s="30"/>
       <c r="B297" s="17"/>
       <c r="C297" s="18"/>
       <c r="D297" s="16"/>
     </row>
     <row r="298" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="31"/>
+      <c r="A298" s="30"/>
       <c r="B298" s="11"/>
       <c r="C298" s="12"/>
       <c r="D298" s="13"/>
     </row>
-    <row r="299" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="31"/>
-      <c r="B299" s="17"/>
-      <c r="C299" s="18"/>
-      <c r="D299" s="16"/>
-    </row>
-    <row r="300" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="31"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="12"/>
-      <c r="D300" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A100:A103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A87"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A70:A72"/>
   </mergeCells>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 C11:C22">
+    <cfRule type="iconSet" priority="288">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
     <cfRule type="iconSet" priority="275">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2905,18 +3061,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="iconSet" priority="282">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C24">
-    <cfRule type="iconSet" priority="287">
+  <conditionalFormatting sqref="C24">
+    <cfRule type="iconSet" priority="274">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -2926,16 +3072,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="iconSet" priority="274">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
     <cfRule type="iconSet" priority="273">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2945,7 +3081,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="iconSet" priority="278">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="iconSet" priority="267">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="iconSet" priority="268">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="269">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="270">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="265">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="271">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C38 C40:C48">
     <cfRule type="iconSet" priority="272">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2955,17 +3161,37 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C29">
-    <cfRule type="iconSet" priority="277">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C39">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="iconSet" priority="264">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C51">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
     <cfRule type="iconSet" priority="266">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2975,87 +3201,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="267">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="268">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="269">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="iconSet" priority="264">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="iconSet" priority="270">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36:C40 C42:C50">
-    <cfRule type="iconSet" priority="271">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="263">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C53">
+  <conditionalFormatting sqref="C53">
     <cfRule type="iconSet" priority="259">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3066,16 +3212,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="iconSet" priority="265">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
+    <cfRule type="iconSet" priority="257">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:C56">
+    <cfRule type="iconSet" priority="256">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
     <cfRule type="iconSet" priority="258">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3085,17 +3241,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="iconSet" priority="256">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C58">
+  <conditionalFormatting sqref="C58">
     <cfRule type="iconSet" priority="255">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3106,7 +3252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="iconSet" priority="257">
+    <cfRule type="iconSet" priority="254">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3116,7 +3262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="iconSet" priority="254">
+    <cfRule type="iconSet" priority="253">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3126,7 +3272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="iconSet" priority="253">
+    <cfRule type="iconSet" priority="250">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3136,7 +3282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="iconSet" priority="252">
+    <cfRule type="iconSet" priority="249">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3146,7 +3292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="iconSet" priority="249">
+    <cfRule type="iconSet" priority="248">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3156,7 +3302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="iconSet" priority="248">
+    <cfRule type="iconSet" priority="247">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3166,7 +3312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="iconSet" priority="247">
+    <cfRule type="iconSet" priority="246">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3176,7 +3322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66">
-    <cfRule type="iconSet" priority="246">
+    <cfRule type="iconSet" priority="245">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3186,7 +3332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="iconSet" priority="245">
+    <cfRule type="iconSet" priority="244">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3196,7 +3342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="iconSet" priority="244">
+    <cfRule type="iconSet" priority="243">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3206,7 +3352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="iconSet" priority="243">
+    <cfRule type="iconSet" priority="242">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3216,7 +3362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="242">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3226,7 +3372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="241">
+    <cfRule type="iconSet" priority="12">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3236,6 +3382,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="239">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3245,18 +3401,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="238">
+    <cfRule type="iconSet" priority="237">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3266,6 +3412,136 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="236">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="235">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="234">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="233">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="232">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="231">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="230">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="227">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="226">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="224">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3275,138 +3551,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="236">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="235">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="234">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="233">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="232">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="231">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="230">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="229">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="228">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="227">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="iconSet" priority="226">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="225">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="224">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C89">
-    <cfRule type="iconSet" priority="223">
+    <cfRule type="iconSet" priority="8">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3416,16 +3562,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="221">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:C92">
+    <cfRule type="iconSet" priority="220">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93">
+    <cfRule type="iconSet" priority="218">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3435,37 +3601,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="220">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C94">
-    <cfRule type="iconSet" priority="219">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="iconSet" priority="217">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
+  <conditionalFormatting sqref="C95:C96">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3475,8 +3611,18 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C97:C98">
-    <cfRule type="iconSet" priority="5">
+  <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="214">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="iconSet" priority="213">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3486,7 +3632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99">
-    <cfRule type="iconSet" priority="213">
+    <cfRule type="iconSet" priority="212">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3496,7 +3642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="iconSet" priority="212">
+    <cfRule type="iconSet" priority="211">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3506,7 +3652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="iconSet" priority="211">
+    <cfRule type="iconSet" priority="210">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3516,7 +3662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="iconSet" priority="210">
+    <cfRule type="iconSet" priority="209">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3526,7 +3672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="iconSet" priority="209">
+    <cfRule type="iconSet" priority="208">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3536,7 +3682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="iconSet" priority="208">
+    <cfRule type="iconSet" priority="207">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3546,7 +3692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="iconSet" priority="207">
+    <cfRule type="iconSet" priority="206">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3556,7 +3702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="iconSet" priority="206">
+    <cfRule type="iconSet" priority="205">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3566,7 +3712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="iconSet" priority="205">
+    <cfRule type="iconSet" priority="204">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3576,7 +3722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108">
-    <cfRule type="iconSet" priority="204">
+    <cfRule type="iconSet" priority="203">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3586,7 +3732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109">
-    <cfRule type="iconSet" priority="203">
+    <cfRule type="iconSet" priority="202">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3596,7 +3742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="iconSet" priority="202">
+    <cfRule type="iconSet" priority="201">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3606,7 +3752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="iconSet" priority="201">
+    <cfRule type="iconSet" priority="200">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3616,16 +3762,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="iconSet" priority="200">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
     <cfRule type="iconSet" priority="199">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3635,7 +3771,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
+  <conditionalFormatting sqref="C113:C115">
     <cfRule type="iconSet" priority="198">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3645,18 +3781,28 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C115:C117">
-    <cfRule type="iconSet" priority="197">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118:C119">
-    <cfRule type="iconSet" priority="194">
+  <conditionalFormatting sqref="C116:C117">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="192">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3666,7 +3812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="192">
+    <cfRule type="iconSet" priority="191">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3676,7 +3822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="iconSet" priority="191">
+    <cfRule type="iconSet" priority="190">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3686,7 +3832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="iconSet" priority="190">
+    <cfRule type="iconSet" priority="189">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3696,7 +3842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123">
-    <cfRule type="iconSet" priority="189">
+    <cfRule type="iconSet" priority="188">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3706,7 +3852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="iconSet" priority="188">
+    <cfRule type="iconSet" priority="187">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3716,7 +3862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125">
-    <cfRule type="iconSet" priority="187">
+    <cfRule type="iconSet" priority="186">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3726,7 +3872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126">
-    <cfRule type="iconSet" priority="186">
+    <cfRule type="iconSet" priority="185">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3736,7 +3882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="iconSet" priority="185">
+    <cfRule type="iconSet" priority="184">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3746,7 +3892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="iconSet" priority="184">
+    <cfRule type="iconSet" priority="183">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3756,7 +3902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="iconSet" priority="183">
+    <cfRule type="iconSet" priority="182">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3766,7 +3912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130">
-    <cfRule type="iconSet" priority="182">
+    <cfRule type="iconSet" priority="181">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3776,7 +3922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="iconSet" priority="181">
+    <cfRule type="iconSet" priority="180">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3786,7 +3932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132">
-    <cfRule type="iconSet" priority="180">
+    <cfRule type="iconSet" priority="179">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3796,7 +3942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133">
-    <cfRule type="iconSet" priority="179">
+    <cfRule type="iconSet" priority="178">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3806,7 +3952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134">
-    <cfRule type="iconSet" priority="178">
+    <cfRule type="iconSet" priority="177">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3816,7 +3962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="iconSet" priority="177">
+    <cfRule type="iconSet" priority="176">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3826,7 +3972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="iconSet" priority="176">
+    <cfRule type="iconSet" priority="175">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3836,7 +3982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C137">
-    <cfRule type="iconSet" priority="175">
+    <cfRule type="iconSet" priority="174">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3846,7 +3992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C138">
-    <cfRule type="iconSet" priority="174">
+    <cfRule type="iconSet" priority="173">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3856,7 +4002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C139">
-    <cfRule type="iconSet" priority="173">
+    <cfRule type="iconSet" priority="172">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3866,7 +4012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="iconSet" priority="172">
+    <cfRule type="iconSet" priority="171">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3876,7 +4022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141">
-    <cfRule type="iconSet" priority="171">
+    <cfRule type="iconSet" priority="170">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3886,7 +4032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="iconSet" priority="170">
+    <cfRule type="iconSet" priority="169">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3896,7 +4042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143">
-    <cfRule type="iconSet" priority="169">
+    <cfRule type="iconSet" priority="168">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3906,7 +4052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C144">
-    <cfRule type="iconSet" priority="168">
+    <cfRule type="iconSet" priority="167">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3916,7 +4062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145">
-    <cfRule type="iconSet" priority="167">
+    <cfRule type="iconSet" priority="166">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3926,7 +4072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="iconSet" priority="166">
+    <cfRule type="iconSet" priority="165">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3936,7 +4082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="iconSet" priority="165">
+    <cfRule type="iconSet" priority="164">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3946,7 +4092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="iconSet" priority="164">
+    <cfRule type="iconSet" priority="163">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3956,7 +4102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="iconSet" priority="163">
+    <cfRule type="iconSet" priority="162">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3966,7 +4112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="iconSet" priority="162">
+    <cfRule type="iconSet" priority="161">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3976,7 +4122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="iconSet" priority="161">
+    <cfRule type="iconSet" priority="160">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3986,7 +4132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="iconSet" priority="160">
+    <cfRule type="iconSet" priority="159">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3996,7 +4142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="iconSet" priority="159">
+    <cfRule type="iconSet" priority="158">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4006,7 +4152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="iconSet" priority="158">
+    <cfRule type="iconSet" priority="157">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4016,7 +4162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="iconSet" priority="157">
+    <cfRule type="iconSet" priority="156">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4026,7 +4172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="iconSet" priority="156">
+    <cfRule type="iconSet" priority="155">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4036,7 +4182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="iconSet" priority="155">
+    <cfRule type="iconSet" priority="154">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4046,7 +4192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="iconSet" priority="154">
+    <cfRule type="iconSet" priority="153">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4056,7 +4202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="iconSet" priority="153">
+    <cfRule type="iconSet" priority="152">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4066,7 +4212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="iconSet" priority="152">
+    <cfRule type="iconSet" priority="151">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4076,7 +4222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="iconSet" priority="151">
+    <cfRule type="iconSet" priority="150">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4086,7 +4232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="iconSet" priority="150">
+    <cfRule type="iconSet" priority="149">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4096,7 +4242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="iconSet" priority="149">
+    <cfRule type="iconSet" priority="148">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4106,7 +4252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="iconSet" priority="148">
+    <cfRule type="iconSet" priority="147">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4116,7 +4262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165">
-    <cfRule type="iconSet" priority="147">
+    <cfRule type="iconSet" priority="146">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4126,7 +4272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166">
-    <cfRule type="iconSet" priority="146">
+    <cfRule type="iconSet" priority="145">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4136,7 +4282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167">
-    <cfRule type="iconSet" priority="145">
+    <cfRule type="iconSet" priority="144">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4146,7 +4292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="iconSet" priority="144">
+    <cfRule type="iconSet" priority="143">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4156,7 +4302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C169">
-    <cfRule type="iconSet" priority="143">
+    <cfRule type="iconSet" priority="142">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4166,7 +4312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="iconSet" priority="142">
+    <cfRule type="iconSet" priority="141">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4176,7 +4322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="iconSet" priority="141">
+    <cfRule type="iconSet" priority="140">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4186,7 +4332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C172">
-    <cfRule type="iconSet" priority="140">
+    <cfRule type="iconSet" priority="139">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4196,7 +4342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C173">
-    <cfRule type="iconSet" priority="139">
+    <cfRule type="iconSet" priority="138">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4206,7 +4352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174">
-    <cfRule type="iconSet" priority="138">
+    <cfRule type="iconSet" priority="137">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4216,7 +4362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C175">
-    <cfRule type="iconSet" priority="137">
+    <cfRule type="iconSet" priority="136">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4226,7 +4372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176">
-    <cfRule type="iconSet" priority="136">
+    <cfRule type="iconSet" priority="135">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4236,7 +4382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C177">
-    <cfRule type="iconSet" priority="135">
+    <cfRule type="iconSet" priority="134">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4246,7 +4392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178">
-    <cfRule type="iconSet" priority="134">
+    <cfRule type="iconSet" priority="133">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4256,7 +4402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C179">
-    <cfRule type="iconSet" priority="133">
+    <cfRule type="iconSet" priority="132">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4266,7 +4412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C180">
-    <cfRule type="iconSet" priority="132">
+    <cfRule type="iconSet" priority="131">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4276,7 +4422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C181">
-    <cfRule type="iconSet" priority="131">
+    <cfRule type="iconSet" priority="130">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4286,7 +4432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182">
-    <cfRule type="iconSet" priority="130">
+    <cfRule type="iconSet" priority="129">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4296,7 +4442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C183">
-    <cfRule type="iconSet" priority="129">
+    <cfRule type="iconSet" priority="128">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4306,7 +4452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184">
-    <cfRule type="iconSet" priority="128">
+    <cfRule type="iconSet" priority="127">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4316,7 +4462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C185">
-    <cfRule type="iconSet" priority="127">
+    <cfRule type="iconSet" priority="126">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4326,7 +4472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C186">
-    <cfRule type="iconSet" priority="126">
+    <cfRule type="iconSet" priority="125">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4336,7 +4482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C187">
-    <cfRule type="iconSet" priority="125">
+    <cfRule type="iconSet" priority="124">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4346,7 +4492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C188">
-    <cfRule type="iconSet" priority="124">
+    <cfRule type="iconSet" priority="123">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4356,7 +4502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C189">
-    <cfRule type="iconSet" priority="123">
+    <cfRule type="iconSet" priority="122">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4366,7 +4512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C190">
-    <cfRule type="iconSet" priority="122">
+    <cfRule type="iconSet" priority="121">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4376,7 +4522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C191">
-    <cfRule type="iconSet" priority="121">
+    <cfRule type="iconSet" priority="120">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4386,7 +4532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C192">
-    <cfRule type="iconSet" priority="120">
+    <cfRule type="iconSet" priority="119">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4396,7 +4542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C193">
-    <cfRule type="iconSet" priority="119">
+    <cfRule type="iconSet" priority="118">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4406,7 +4552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C194">
-    <cfRule type="iconSet" priority="118">
+    <cfRule type="iconSet" priority="117">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4416,7 +4562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C195">
-    <cfRule type="iconSet" priority="117">
+    <cfRule type="iconSet" priority="116">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4426,7 +4572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196">
-    <cfRule type="iconSet" priority="116">
+    <cfRule type="iconSet" priority="115">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4436,7 +4582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C197">
-    <cfRule type="iconSet" priority="115">
+    <cfRule type="iconSet" priority="114">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4446,7 +4592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C198">
-    <cfRule type="iconSet" priority="114">
+    <cfRule type="iconSet" priority="113">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4456,7 +4602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C199">
-    <cfRule type="iconSet" priority="113">
+    <cfRule type="iconSet" priority="112">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4466,7 +4612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C200">
-    <cfRule type="iconSet" priority="112">
+    <cfRule type="iconSet" priority="111">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4476,7 +4622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C201">
-    <cfRule type="iconSet" priority="111">
+    <cfRule type="iconSet" priority="110">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4486,7 +4632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="iconSet" priority="110">
+    <cfRule type="iconSet" priority="109">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4496,7 +4642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C203">
-    <cfRule type="iconSet" priority="109">
+    <cfRule type="iconSet" priority="108">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4506,7 +4652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C204">
-    <cfRule type="iconSet" priority="108">
+    <cfRule type="iconSet" priority="107">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4516,7 +4662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C205">
-    <cfRule type="iconSet" priority="107">
+    <cfRule type="iconSet" priority="106">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4526,7 +4672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C206">
-    <cfRule type="iconSet" priority="106">
+    <cfRule type="iconSet" priority="105">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4536,7 +4682,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C207">
-    <cfRule type="iconSet" priority="105">
+    <cfRule type="iconSet" priority="104">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4546,7 +4692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C208">
-    <cfRule type="iconSet" priority="104">
+    <cfRule type="iconSet" priority="103">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4556,7 +4702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C209">
-    <cfRule type="iconSet" priority="103">
+    <cfRule type="iconSet" priority="102">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4566,7 +4712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C210">
-    <cfRule type="iconSet" priority="102">
+    <cfRule type="iconSet" priority="101">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4576,7 +4722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C211">
-    <cfRule type="iconSet" priority="101">
+    <cfRule type="iconSet" priority="100">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4586,7 +4732,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C212">
-    <cfRule type="iconSet" priority="100">
+    <cfRule type="iconSet" priority="99">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4596,7 +4742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C213">
-    <cfRule type="iconSet" priority="99">
+    <cfRule type="iconSet" priority="98">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4606,7 +4752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C214">
-    <cfRule type="iconSet" priority="98">
+    <cfRule type="iconSet" priority="97">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4616,7 +4762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C215">
-    <cfRule type="iconSet" priority="97">
+    <cfRule type="iconSet" priority="96">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4626,7 +4772,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C216">
-    <cfRule type="iconSet" priority="96">
+    <cfRule type="iconSet" priority="95">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4636,7 +4782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C217">
-    <cfRule type="iconSet" priority="95">
+    <cfRule type="iconSet" priority="94">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4646,7 +4792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C218">
-    <cfRule type="iconSet" priority="94">
+    <cfRule type="iconSet" priority="93">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4656,7 +4802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C219">
-    <cfRule type="iconSet" priority="93">
+    <cfRule type="iconSet" priority="92">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4666,7 +4812,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C220">
-    <cfRule type="iconSet" priority="92">
+    <cfRule type="iconSet" priority="91">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4676,7 +4822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C221">
-    <cfRule type="iconSet" priority="91">
+    <cfRule type="iconSet" priority="90">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4686,7 +4832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C222">
-    <cfRule type="iconSet" priority="90">
+    <cfRule type="iconSet" priority="89">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4696,7 +4842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C223">
-    <cfRule type="iconSet" priority="89">
+    <cfRule type="iconSet" priority="88">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4706,7 +4852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C224">
-    <cfRule type="iconSet" priority="88">
+    <cfRule type="iconSet" priority="87">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4716,7 +4862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C225">
-    <cfRule type="iconSet" priority="87">
+    <cfRule type="iconSet" priority="86">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4726,7 +4872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C226">
-    <cfRule type="iconSet" priority="86">
+    <cfRule type="iconSet" priority="85">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4736,7 +4882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="iconSet" priority="85">
+    <cfRule type="iconSet" priority="84">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4746,7 +4892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="iconSet" priority="84">
+    <cfRule type="iconSet" priority="83">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4756,7 +4902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="iconSet" priority="83">
+    <cfRule type="iconSet" priority="82">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4766,7 +4912,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230">
-    <cfRule type="iconSet" priority="82">
+    <cfRule type="iconSet" priority="81">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4776,7 +4922,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C231">
-    <cfRule type="iconSet" priority="81">
+    <cfRule type="iconSet" priority="80">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4786,7 +4932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C232">
-    <cfRule type="iconSet" priority="80">
+    <cfRule type="iconSet" priority="79">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4796,7 +4942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C233">
-    <cfRule type="iconSet" priority="79">
+    <cfRule type="iconSet" priority="78">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4806,7 +4952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C234">
-    <cfRule type="iconSet" priority="78">
+    <cfRule type="iconSet" priority="77">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4816,7 +4962,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="iconSet" priority="77">
+    <cfRule type="iconSet" priority="76">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4826,7 +4972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="iconSet" priority="76">
+    <cfRule type="iconSet" priority="75">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4836,7 +4982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="iconSet" priority="75">
+    <cfRule type="iconSet" priority="74">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4846,7 +4992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238">
-    <cfRule type="iconSet" priority="74">
+    <cfRule type="iconSet" priority="73">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4856,7 +5002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C239">
-    <cfRule type="iconSet" priority="73">
+    <cfRule type="iconSet" priority="72">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4866,7 +5012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C240">
-    <cfRule type="iconSet" priority="72">
+    <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4876,7 +5022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C241">
-    <cfRule type="iconSet" priority="71">
+    <cfRule type="iconSet" priority="70">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4886,7 +5032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242">
-    <cfRule type="iconSet" priority="70">
+    <cfRule type="iconSet" priority="69">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4896,7 +5042,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C243">
-    <cfRule type="iconSet" priority="69">
+    <cfRule type="iconSet" priority="68">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4906,7 +5052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="iconSet" priority="68">
+    <cfRule type="iconSet" priority="67">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4916,7 +5062,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="iconSet" priority="67">
+    <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4926,7 +5072,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C246">
-    <cfRule type="iconSet" priority="66">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4936,7 +5082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="iconSet" priority="65">
+    <cfRule type="iconSet" priority="64">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4946,7 +5092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C248">
-    <cfRule type="iconSet" priority="64">
+    <cfRule type="iconSet" priority="63">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4956,7 +5102,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C249">
-    <cfRule type="iconSet" priority="63">
+    <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4966,7 +5112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="iconSet" priority="62">
+    <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4976,7 +5122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="iconSet" priority="61">
+    <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4986,7 +5132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="iconSet" priority="60">
+    <cfRule type="iconSet" priority="59">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -4996,7 +5142,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253">
-    <cfRule type="iconSet" priority="59">
+    <cfRule type="iconSet" priority="58">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5006,7 +5152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="iconSet" priority="58">
+    <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5016,7 +5162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C255">
-    <cfRule type="iconSet" priority="57">
+    <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5026,7 +5172,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C256">
-    <cfRule type="iconSet" priority="56">
+    <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5036,7 +5182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C257">
-    <cfRule type="iconSet" priority="55">
+    <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5046,7 +5192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C258">
-    <cfRule type="iconSet" priority="54">
+    <cfRule type="iconSet" priority="53">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5056,7 +5202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C259">
-    <cfRule type="iconSet" priority="53">
+    <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5066,7 +5212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260">
-    <cfRule type="iconSet" priority="52">
+    <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5076,7 +5222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C261">
-    <cfRule type="iconSet" priority="51">
+    <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5086,7 +5232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C262">
-    <cfRule type="iconSet" priority="50">
+    <cfRule type="iconSet" priority="49">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5096,7 +5242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C263">
-    <cfRule type="iconSet" priority="49">
+    <cfRule type="iconSet" priority="48">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5106,7 +5252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264">
-    <cfRule type="iconSet" priority="48">
+    <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5116,7 +5262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C265">
-    <cfRule type="iconSet" priority="47">
+    <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5126,7 +5272,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C266">
-    <cfRule type="iconSet" priority="46">
+    <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5136,7 +5282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C267">
-    <cfRule type="iconSet" priority="45">
+    <cfRule type="iconSet" priority="44">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5146,7 +5292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C268">
-    <cfRule type="iconSet" priority="44">
+    <cfRule type="iconSet" priority="43">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5156,7 +5302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C269">
-    <cfRule type="iconSet" priority="43">
+    <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5166,7 +5312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C270">
-    <cfRule type="iconSet" priority="42">
+    <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5176,7 +5322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C271">
-    <cfRule type="iconSet" priority="41">
+    <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5186,7 +5332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C272">
-    <cfRule type="iconSet" priority="40">
+    <cfRule type="iconSet" priority="39">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5196,7 +5342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C273">
-    <cfRule type="iconSet" priority="39">
+    <cfRule type="iconSet" priority="38">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5206,7 +5352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274">
-    <cfRule type="iconSet" priority="38">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5216,7 +5362,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C275">
-    <cfRule type="iconSet" priority="37">
+    <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5226,7 +5372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C276">
-    <cfRule type="iconSet" priority="36">
+    <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5236,7 +5382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C277">
-    <cfRule type="iconSet" priority="35">
+    <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5246,7 +5392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C278">
-    <cfRule type="iconSet" priority="34">
+    <cfRule type="iconSet" priority="33">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5256,7 +5402,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C279">
-    <cfRule type="iconSet" priority="33">
+    <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5266,7 +5412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C280">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5276,7 +5422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C281">
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5286,7 +5432,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C282">
-    <cfRule type="iconSet" priority="30">
+    <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5296,7 +5442,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C283">
-    <cfRule type="iconSet" priority="29">
+    <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5306,7 +5452,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C284">
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5316,7 +5462,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5326,7 +5472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C286">
-    <cfRule type="iconSet" priority="26">
+    <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5336,7 +5482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C287">
-    <cfRule type="iconSet" priority="25">
+    <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5346,7 +5492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C288">
-    <cfRule type="iconSet" priority="24">
+    <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5356,7 +5502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="iconSet" priority="23">
+    <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5366,7 +5512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="iconSet" priority="22">
+    <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5376,7 +5522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291">
-    <cfRule type="iconSet" priority="21">
+    <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5386,7 +5532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="iconSet" priority="20">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5396,7 +5542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C293">
-    <cfRule type="iconSet" priority="19">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5406,7 +5552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="iconSet" priority="18">
+    <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5416,7 +5562,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C295">
-    <cfRule type="iconSet" priority="17">
+    <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5426,7 +5572,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5436,7 +5582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C297">
-    <cfRule type="iconSet" priority="15">
+    <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5446,16 +5592,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C298">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C299">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5465,47 +5601,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C300">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="C10">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5562,7 +5658,7 @@
   <cols>
     <col min="1" max="1" width="32.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="148.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="229.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5574,7 +5670,7 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
@@ -5585,10 +5681,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="26"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="21"/>
+      <c r="E12" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5613,24 +5709,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="23"/>
     </row>
     <row r="3" spans="1:1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="24"/>
     </row>
     <row r="4" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
     </row>
     <row r="5" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
     </row>
     <row r="6" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\VisionAI_Audio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9028B961-ECFE-4E9F-84D4-9B8CF7353281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D714965-9C6A-450E-908B-BACD3B860156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>DAILY TASKS</t>
   </si>
@@ -82,13 +82,31 @@
     <t>Create repository structure according to task 2</t>
   </si>
   <si>
-    <t>Find 20 audio samples for urdu and english</t>
-  </si>
-  <si>
     <t>Create model comparison.py and write code for faster_whisper to get metrics in json file</t>
   </si>
   <si>
     <t>🏃 In progress</t>
+  </si>
+  <si>
+    <t>Find 20 audio samples for urdu and english (5 done)</t>
+  </si>
+  <si>
+    <t>Find 20 audio samples for urdu and english (11 done)</t>
+  </si>
+  <si>
+    <t>Refactor faster whisper implementation: make it modular</t>
+  </si>
+  <si>
+    <t>Add openai whisper implementation in models/openai_whisper</t>
+  </si>
+  <si>
+    <t>Install the requirements for openai whisper like models, pip etc</t>
+  </si>
+  <si>
+    <t>Refactor model_comparison.py to act as main file to run all the models</t>
+  </si>
+  <si>
+    <t>save the result for faster and openai whisper in json file for evaluation purposes</t>
   </si>
 </sst>
 </file>
@@ -546,7 +564,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -643,7 +661,6 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,13 +672,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1092,8 +1104,8 @@
   </sheetPr>
   <dimension ref="A1:F298"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1107,12 +1119,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1146,7 +1158,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1159,7 +1171,7 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1184,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1194,73 +1206,111 @@
       <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="16">
         <v>45945</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="44">
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16">
         <v>45945</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="16">
         <v>45945</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="38">
+        <v>45940</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="16">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
@@ -1275,25 +1325,25 @@
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
@@ -1305,31 +1355,31 @@
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
@@ -1337,42 +1387,42 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="17"/>
       <c r="C33" s="18"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
@@ -1380,14 +1430,14 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
       <c r="D36" s="13"/>
@@ -1400,43 +1450,43 @@
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
@@ -1448,19 +1498,19 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="27"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
@@ -1472,25 +1522,25 @@
       <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="28"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12"/>
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
@@ -1502,13 +1552,13 @@
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="29"/>
       <c r="C55" s="18"/>
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
@@ -1520,31 +1570,31 @@
       <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="17"/>
       <c r="C61" s="18"/>
       <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="35"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
@@ -1556,37 +1606,37 @@
       <c r="D63" s="16"/>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="16"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="16"/>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="16"/>
@@ -1598,13 +1648,13 @@
       <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
@@ -1616,7 +1666,7 @@
       <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
@@ -1628,7 +1678,7 @@
       <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
@@ -1640,19 +1690,19 @@
       <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
@@ -1664,19 +1714,19 @@
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="34"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
@@ -1688,13 +1738,13 @@
       <c r="D85" s="16"/>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="11"/>
       <c r="C86" s="12"/>
       <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="16"/>
@@ -1706,13 +1756,13 @@
       <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
       <c r="D90" s="13"/>
@@ -1730,7 +1780,7 @@
       <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="16"/>
@@ -1742,13 +1792,13 @@
       <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="16"/>
     </row>
     <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="35"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="11"/>
       <c r="C96" s="12"/>
       <c r="D96" s="13"/>
@@ -1766,19 +1816,19 @@
       <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="16"/>
     </row>
     <row r="100" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="34"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="11"/>
       <c r="C100" s="12"/>
       <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="35"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="16"/>
@@ -1790,37 +1840,37 @@
       <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
+      <c r="A103" s="41"/>
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="16"/>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
+      <c r="A106" s="41"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="34"/>
+      <c r="A107" s="41"/>
       <c r="B107" s="17"/>
       <c r="C107" s="18"/>
       <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="13"/>
@@ -1832,19 +1882,19 @@
       <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
+      <c r="A110" s="41"/>
       <c r="B110" s="11"/>
       <c r="C110" s="12"/>
       <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
+      <c r="A111" s="41"/>
       <c r="B111" s="17"/>
       <c r="C111" s="18"/>
       <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="35"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13"/>
@@ -1856,13 +1906,13 @@
       <c r="D113" s="16"/>
     </row>
     <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
+      <c r="A114" s="41"/>
       <c r="B114" s="11"/>
       <c r="C114" s="12"/>
       <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="35"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="17"/>
       <c r="C115" s="18"/>
       <c r="D115" s="16"/>
@@ -1874,13 +1924,13 @@
       <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="34"/>
+      <c r="A117" s="41"/>
       <c r="B117" s="17"/>
       <c r="C117" s="18"/>
       <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="35"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
@@ -1892,13 +1942,13 @@
       <c r="D119" s="16"/>
     </row>
     <row r="120" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="34"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="11"/>
       <c r="C120" s="12"/>
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="35"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="16"/>
@@ -1910,19 +1960,19 @@
       <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="34"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
       <c r="D123" s="16"/>
     </row>
     <row r="124" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="34"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="11"/>
       <c r="C124" s="12"/>
       <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="17"/>
       <c r="C125" s="18"/>
       <c r="D125" s="16"/>
@@ -1934,13 +1984,13 @@
       <c r="D126" s="13"/>
     </row>
     <row r="127" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="34"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="17"/>
       <c r="C127" s="18"/>
       <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="13"/>
@@ -1952,19 +2002,19 @@
       <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="11"/>
       <c r="C130" s="12"/>
       <c r="D130" s="13"/>
     </row>
     <row r="131" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="17"/>
       <c r="C131" s="18"/>
       <c r="D131" s="16"/>
     </row>
     <row r="132" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="35"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="11"/>
       <c r="C132" s="12"/>
       <c r="D132" s="13"/>
@@ -1982,7 +2032,7 @@
       <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="35"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="17"/>
       <c r="C135" s="18"/>
       <c r="D135" s="16"/>
@@ -2967,6 +3017,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A102:A108"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A119:A121"/>
     <mergeCell ref="A134:A135"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A29:A36"/>
@@ -2983,25 +3050,18 @@
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A70:A72"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3011,7 +3071,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3021,7 +3081,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C7:C8">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3031,7 +3091,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="C9 C11 C17:C22">
+    <cfRule type="iconSet" priority="289">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3041,17 +3111,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C11:C22">
-    <cfRule type="iconSet" priority="288">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C23">
+    <cfRule type="iconSet" priority="276">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="iconSet" priority="275">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3061,7 +3131,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="iconSet" priority="274">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3071,7 +3141,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="iconSet" priority="279">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="iconSet" priority="268">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="iconSet" priority="269">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="270">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="271">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="266">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="272">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C38 C40:C48">
     <cfRule type="iconSet" priority="273">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3081,17 +3221,37 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
-    <cfRule type="iconSet" priority="278">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C39">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="iconSet" priority="265">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C51">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
     <cfRule type="iconSet" priority="267">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3101,87 +3261,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="iconSet" priority="268">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="269">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="270">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="265">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="271">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C38 C40:C48">
-    <cfRule type="iconSet" priority="272">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="iconSet" priority="261">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="iconSet" priority="264">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C51">
+  <conditionalFormatting sqref="C53">
     <cfRule type="iconSet" priority="260">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3191,17 +3271,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="iconSet" priority="266">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C54">
+    <cfRule type="iconSet" priority="258">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:C56">
+    <cfRule type="iconSet" priority="257">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
     <cfRule type="iconSet" priority="259">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3211,17 +3301,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="iconSet" priority="257">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:C56">
+  <conditionalFormatting sqref="C58">
     <cfRule type="iconSet" priority="256">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3231,17 +3311,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="iconSet" priority="258">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
+  <conditionalFormatting sqref="C59">
     <cfRule type="iconSet" priority="255">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3251,7 +3321,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
+  <conditionalFormatting sqref="C60">
     <cfRule type="iconSet" priority="254">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3261,17 +3331,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="iconSet" priority="253">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C61">
+    <cfRule type="iconSet" priority="251">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
     <cfRule type="iconSet" priority="250">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3281,7 +3351,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C63">
     <cfRule type="iconSet" priority="249">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3291,7 +3361,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C64">
     <cfRule type="iconSet" priority="248">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3301,7 +3371,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C65">
     <cfRule type="iconSet" priority="247">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3311,7 +3381,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C66">
     <cfRule type="iconSet" priority="246">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3321,7 +3391,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C67">
     <cfRule type="iconSet" priority="245">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3331,7 +3401,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
+  <conditionalFormatting sqref="C68">
     <cfRule type="iconSet" priority="244">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3341,7 +3411,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
+  <conditionalFormatting sqref="C69">
     <cfRule type="iconSet" priority="243">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3351,17 +3421,37 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="iconSet" priority="242">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C70">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="240">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3371,27 +3461,147 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="239">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
+  <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="238">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="237">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="236">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="235">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="234">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="233">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="232">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="231">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="230">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="227">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="iconSet" priority="226">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3401,147 +3611,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="237">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="236">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="235">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="234">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="233">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="232">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="231">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="230">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="229">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="228">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="227">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="226">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="iconSet" priority="225">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="224">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
+  <conditionalFormatting sqref="C89">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3551,7 +3621,37 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
+  <conditionalFormatting sqref="C90">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:C92">
+    <cfRule type="iconSet" priority="221">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93">
+    <cfRule type="iconSet" priority="219">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3561,37 +3661,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="iconSet" priority="221">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91:C92">
-    <cfRule type="iconSet" priority="220">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="iconSet" priority="218">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
+  <conditionalFormatting sqref="C95:C96">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3601,17 +3671,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95:C96">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="215">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
     <cfRule type="iconSet" priority="214">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3621,7 +3691,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
+  <conditionalFormatting sqref="C99">
     <cfRule type="iconSet" priority="213">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3631,7 +3701,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
+  <conditionalFormatting sqref="C100">
     <cfRule type="iconSet" priority="212">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3641,7 +3711,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
+  <conditionalFormatting sqref="C101">
     <cfRule type="iconSet" priority="211">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3651,7 +3721,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
+  <conditionalFormatting sqref="C102">
     <cfRule type="iconSet" priority="210">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3661,7 +3731,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
+  <conditionalFormatting sqref="C103">
     <cfRule type="iconSet" priority="209">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3671,7 +3741,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
+  <conditionalFormatting sqref="C104">
     <cfRule type="iconSet" priority="208">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3681,7 +3751,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
+  <conditionalFormatting sqref="C105">
     <cfRule type="iconSet" priority="207">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3691,7 +3761,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
+  <conditionalFormatting sqref="C106">
     <cfRule type="iconSet" priority="206">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3701,7 +3771,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
+  <conditionalFormatting sqref="C107">
     <cfRule type="iconSet" priority="205">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3711,7 +3781,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
+  <conditionalFormatting sqref="C108">
     <cfRule type="iconSet" priority="204">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3721,7 +3791,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
+  <conditionalFormatting sqref="C109">
     <cfRule type="iconSet" priority="203">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3731,7 +3801,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
+  <conditionalFormatting sqref="C110">
     <cfRule type="iconSet" priority="202">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3741,7 +3811,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
+  <conditionalFormatting sqref="C111">
     <cfRule type="iconSet" priority="201">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3751,7 +3821,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
+  <conditionalFormatting sqref="C112">
     <cfRule type="iconSet" priority="200">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3761,7 +3831,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
+  <conditionalFormatting sqref="C113:C115">
     <cfRule type="iconSet" priority="199">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3771,18 +3841,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C113:C115">
-    <cfRule type="iconSet" priority="198">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C116:C117">
-    <cfRule type="iconSet" priority="195">
+    <cfRule type="iconSet" priority="196">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3792,6 +3852,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
     <cfRule type="iconSet" priority="193">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3801,7 +3871,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
+  <conditionalFormatting sqref="C120">
     <cfRule type="iconSet" priority="192">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3811,7 +3881,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
+  <conditionalFormatting sqref="C121">
     <cfRule type="iconSet" priority="191">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3821,7 +3891,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
+  <conditionalFormatting sqref="C122">
     <cfRule type="iconSet" priority="190">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3831,7 +3901,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
+  <conditionalFormatting sqref="C123">
     <cfRule type="iconSet" priority="189">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3841,7 +3911,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
+  <conditionalFormatting sqref="C124">
     <cfRule type="iconSet" priority="188">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3851,7 +3921,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
+  <conditionalFormatting sqref="C125">
     <cfRule type="iconSet" priority="187">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3861,7 +3931,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
+  <conditionalFormatting sqref="C126">
     <cfRule type="iconSet" priority="186">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3871,7 +3941,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
+  <conditionalFormatting sqref="C127">
     <cfRule type="iconSet" priority="185">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3881,7 +3951,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
+  <conditionalFormatting sqref="C128">
     <cfRule type="iconSet" priority="184">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3891,7 +3961,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
+  <conditionalFormatting sqref="C129">
     <cfRule type="iconSet" priority="183">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3901,7 +3971,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
+  <conditionalFormatting sqref="C130">
     <cfRule type="iconSet" priority="182">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3911,7 +3981,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
+  <conditionalFormatting sqref="C131">
     <cfRule type="iconSet" priority="181">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3921,7 +3991,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
+  <conditionalFormatting sqref="C132">
     <cfRule type="iconSet" priority="180">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3931,7 +4001,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
+  <conditionalFormatting sqref="C133">
     <cfRule type="iconSet" priority="179">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3941,7 +4011,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
+  <conditionalFormatting sqref="C134">
     <cfRule type="iconSet" priority="178">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3951,7 +4021,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
+  <conditionalFormatting sqref="C135">
     <cfRule type="iconSet" priority="177">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3961,7 +4031,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
+  <conditionalFormatting sqref="C136">
     <cfRule type="iconSet" priority="176">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3971,7 +4041,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
+  <conditionalFormatting sqref="C137">
     <cfRule type="iconSet" priority="175">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3981,7 +4051,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
+  <conditionalFormatting sqref="C138">
     <cfRule type="iconSet" priority="174">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3991,7 +4061,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
+  <conditionalFormatting sqref="C139">
     <cfRule type="iconSet" priority="173">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4001,7 +4071,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
+  <conditionalFormatting sqref="C140">
     <cfRule type="iconSet" priority="172">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4011,7 +4081,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
+  <conditionalFormatting sqref="C141">
     <cfRule type="iconSet" priority="171">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4021,7 +4091,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
+  <conditionalFormatting sqref="C142">
     <cfRule type="iconSet" priority="170">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4031,7 +4101,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
+  <conditionalFormatting sqref="C143">
     <cfRule type="iconSet" priority="169">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4041,7 +4111,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
+  <conditionalFormatting sqref="C144">
     <cfRule type="iconSet" priority="168">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4051,7 +4121,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
+  <conditionalFormatting sqref="C145">
     <cfRule type="iconSet" priority="167">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4061,7 +4131,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
+  <conditionalFormatting sqref="C146">
     <cfRule type="iconSet" priority="166">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4071,7 +4141,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
+  <conditionalFormatting sqref="C147">
     <cfRule type="iconSet" priority="165">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4081,7 +4151,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
+  <conditionalFormatting sqref="C148">
     <cfRule type="iconSet" priority="164">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4091,7 +4161,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
+  <conditionalFormatting sqref="C149">
     <cfRule type="iconSet" priority="163">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4101,7 +4171,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
+  <conditionalFormatting sqref="C150">
     <cfRule type="iconSet" priority="162">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4111,7 +4181,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
+  <conditionalFormatting sqref="C151">
     <cfRule type="iconSet" priority="161">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4121,7 +4191,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
+  <conditionalFormatting sqref="C152">
     <cfRule type="iconSet" priority="160">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4131,7 +4201,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
+  <conditionalFormatting sqref="C153">
     <cfRule type="iconSet" priority="159">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4141,7 +4211,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
+  <conditionalFormatting sqref="C154">
     <cfRule type="iconSet" priority="158">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4151,7 +4221,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
+  <conditionalFormatting sqref="C155">
     <cfRule type="iconSet" priority="157">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4161,7 +4231,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
+  <conditionalFormatting sqref="C156">
     <cfRule type="iconSet" priority="156">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4171,7 +4241,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
+  <conditionalFormatting sqref="C157">
     <cfRule type="iconSet" priority="155">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4181,7 +4251,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
+  <conditionalFormatting sqref="C158">
     <cfRule type="iconSet" priority="154">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4191,7 +4261,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
+  <conditionalFormatting sqref="C159">
     <cfRule type="iconSet" priority="153">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4201,7 +4271,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
+  <conditionalFormatting sqref="C160">
     <cfRule type="iconSet" priority="152">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4211,7 +4281,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
+  <conditionalFormatting sqref="C161">
     <cfRule type="iconSet" priority="151">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4221,7 +4291,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
+  <conditionalFormatting sqref="C162">
     <cfRule type="iconSet" priority="150">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4231,7 +4301,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
+  <conditionalFormatting sqref="C163">
     <cfRule type="iconSet" priority="149">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4241,7 +4311,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
+  <conditionalFormatting sqref="C164">
     <cfRule type="iconSet" priority="148">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4251,7 +4321,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
+  <conditionalFormatting sqref="C165">
     <cfRule type="iconSet" priority="147">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4261,7 +4331,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
+  <conditionalFormatting sqref="C166">
     <cfRule type="iconSet" priority="146">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4271,7 +4341,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
+  <conditionalFormatting sqref="C167">
     <cfRule type="iconSet" priority="145">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4281,7 +4351,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
+  <conditionalFormatting sqref="C168">
     <cfRule type="iconSet" priority="144">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4291,7 +4361,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
+  <conditionalFormatting sqref="C169">
     <cfRule type="iconSet" priority="143">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4301,7 +4371,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
+  <conditionalFormatting sqref="C170">
     <cfRule type="iconSet" priority="142">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4311,7 +4381,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
+  <conditionalFormatting sqref="C171">
     <cfRule type="iconSet" priority="141">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4321,7 +4391,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
+  <conditionalFormatting sqref="C172">
     <cfRule type="iconSet" priority="140">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4331,7 +4401,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
+  <conditionalFormatting sqref="C173">
     <cfRule type="iconSet" priority="139">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4341,7 +4411,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
+  <conditionalFormatting sqref="C174">
     <cfRule type="iconSet" priority="138">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4351,7 +4421,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
+  <conditionalFormatting sqref="C175">
     <cfRule type="iconSet" priority="137">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4361,7 +4431,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
+  <conditionalFormatting sqref="C176">
     <cfRule type="iconSet" priority="136">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4371,7 +4441,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
+  <conditionalFormatting sqref="C177">
     <cfRule type="iconSet" priority="135">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4381,7 +4451,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
+  <conditionalFormatting sqref="C178">
     <cfRule type="iconSet" priority="134">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4391,7 +4461,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
+  <conditionalFormatting sqref="C179">
     <cfRule type="iconSet" priority="133">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4401,7 +4471,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
+  <conditionalFormatting sqref="C180">
     <cfRule type="iconSet" priority="132">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4411,7 +4481,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
+  <conditionalFormatting sqref="C181">
     <cfRule type="iconSet" priority="131">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4421,7 +4491,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
+  <conditionalFormatting sqref="C182">
     <cfRule type="iconSet" priority="130">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4431,7 +4501,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
+  <conditionalFormatting sqref="C183">
     <cfRule type="iconSet" priority="129">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4441,7 +4511,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
+  <conditionalFormatting sqref="C184">
     <cfRule type="iconSet" priority="128">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4451,7 +4521,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
+  <conditionalFormatting sqref="C185">
     <cfRule type="iconSet" priority="127">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4461,7 +4531,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
+  <conditionalFormatting sqref="C186">
     <cfRule type="iconSet" priority="126">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4471,7 +4541,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
+  <conditionalFormatting sqref="C187">
     <cfRule type="iconSet" priority="125">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4481,7 +4551,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
+  <conditionalFormatting sqref="C188">
     <cfRule type="iconSet" priority="124">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4491,7 +4561,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
+  <conditionalFormatting sqref="C189">
     <cfRule type="iconSet" priority="123">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4501,7 +4571,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
+  <conditionalFormatting sqref="C190">
     <cfRule type="iconSet" priority="122">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4511,7 +4581,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
+  <conditionalFormatting sqref="C191">
     <cfRule type="iconSet" priority="121">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4521,7 +4591,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
+  <conditionalFormatting sqref="C192">
     <cfRule type="iconSet" priority="120">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4531,7 +4601,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
+  <conditionalFormatting sqref="C193">
     <cfRule type="iconSet" priority="119">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4541,7 +4611,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
+  <conditionalFormatting sqref="C194">
     <cfRule type="iconSet" priority="118">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4551,7 +4621,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
+  <conditionalFormatting sqref="C195">
     <cfRule type="iconSet" priority="117">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4561,7 +4631,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
+  <conditionalFormatting sqref="C196">
     <cfRule type="iconSet" priority="116">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4571,7 +4641,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
+  <conditionalFormatting sqref="C197">
     <cfRule type="iconSet" priority="115">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4581,7 +4651,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
+  <conditionalFormatting sqref="C198">
     <cfRule type="iconSet" priority="114">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4591,7 +4661,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
+  <conditionalFormatting sqref="C199">
     <cfRule type="iconSet" priority="113">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4601,7 +4671,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
+  <conditionalFormatting sqref="C200">
     <cfRule type="iconSet" priority="112">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4611,7 +4681,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
+  <conditionalFormatting sqref="C201">
     <cfRule type="iconSet" priority="111">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4621,7 +4691,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
+  <conditionalFormatting sqref="C202">
     <cfRule type="iconSet" priority="110">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4631,7 +4701,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
+  <conditionalFormatting sqref="C203">
     <cfRule type="iconSet" priority="109">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4641,7 +4711,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
+  <conditionalFormatting sqref="C204">
     <cfRule type="iconSet" priority="108">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4651,7 +4721,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
+  <conditionalFormatting sqref="C205">
     <cfRule type="iconSet" priority="107">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4661,7 +4731,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
+  <conditionalFormatting sqref="C206">
     <cfRule type="iconSet" priority="106">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4671,7 +4741,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
+  <conditionalFormatting sqref="C207">
     <cfRule type="iconSet" priority="105">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4681,7 +4751,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
+  <conditionalFormatting sqref="C208">
     <cfRule type="iconSet" priority="104">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4691,7 +4761,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
+  <conditionalFormatting sqref="C209">
     <cfRule type="iconSet" priority="103">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4701,7 +4771,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
+  <conditionalFormatting sqref="C210">
     <cfRule type="iconSet" priority="102">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4711,7 +4781,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
+  <conditionalFormatting sqref="C211">
     <cfRule type="iconSet" priority="101">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4721,7 +4791,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
+  <conditionalFormatting sqref="C212">
     <cfRule type="iconSet" priority="100">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4731,7 +4801,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
+  <conditionalFormatting sqref="C213">
     <cfRule type="iconSet" priority="99">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4741,7 +4811,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
+  <conditionalFormatting sqref="C214">
     <cfRule type="iconSet" priority="98">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4751,7 +4821,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
+  <conditionalFormatting sqref="C215">
     <cfRule type="iconSet" priority="97">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4761,7 +4831,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
+  <conditionalFormatting sqref="C216">
     <cfRule type="iconSet" priority="96">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4771,7 +4841,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
+  <conditionalFormatting sqref="C217">
     <cfRule type="iconSet" priority="95">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4781,7 +4851,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
+  <conditionalFormatting sqref="C218">
     <cfRule type="iconSet" priority="94">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4791,7 +4861,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
+  <conditionalFormatting sqref="C219">
     <cfRule type="iconSet" priority="93">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4801,7 +4871,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
+  <conditionalFormatting sqref="C220">
     <cfRule type="iconSet" priority="92">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4811,7 +4881,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
+  <conditionalFormatting sqref="C221">
     <cfRule type="iconSet" priority="91">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4821,7 +4891,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
+  <conditionalFormatting sqref="C222">
     <cfRule type="iconSet" priority="90">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4831,7 +4901,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
+  <conditionalFormatting sqref="C223">
     <cfRule type="iconSet" priority="89">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4841,7 +4911,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
+  <conditionalFormatting sqref="C224">
     <cfRule type="iconSet" priority="88">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4851,7 +4921,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
+  <conditionalFormatting sqref="C225">
     <cfRule type="iconSet" priority="87">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4861,7 +4931,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
+  <conditionalFormatting sqref="C226">
     <cfRule type="iconSet" priority="86">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4871,7 +4941,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
+  <conditionalFormatting sqref="C227">
     <cfRule type="iconSet" priority="85">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4881,7 +4951,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
+  <conditionalFormatting sqref="C228">
     <cfRule type="iconSet" priority="84">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4891,7 +4961,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
+  <conditionalFormatting sqref="C229">
     <cfRule type="iconSet" priority="83">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4901,7 +4971,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
+  <conditionalFormatting sqref="C230">
     <cfRule type="iconSet" priority="82">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4911,7 +4981,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
+  <conditionalFormatting sqref="C231">
     <cfRule type="iconSet" priority="81">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4921,7 +4991,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
+  <conditionalFormatting sqref="C232">
     <cfRule type="iconSet" priority="80">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4931,7 +5001,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
+  <conditionalFormatting sqref="C233">
     <cfRule type="iconSet" priority="79">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4941,7 +5011,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
+  <conditionalFormatting sqref="C234">
     <cfRule type="iconSet" priority="78">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4951,7 +5021,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
+  <conditionalFormatting sqref="C235">
     <cfRule type="iconSet" priority="77">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4961,7 +5031,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
+  <conditionalFormatting sqref="C236">
     <cfRule type="iconSet" priority="76">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4971,7 +5041,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
+  <conditionalFormatting sqref="C237">
     <cfRule type="iconSet" priority="75">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4981,7 +5051,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
+  <conditionalFormatting sqref="C238">
     <cfRule type="iconSet" priority="74">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4991,7 +5061,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
+  <conditionalFormatting sqref="C239">
     <cfRule type="iconSet" priority="73">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5001,7 +5071,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
+  <conditionalFormatting sqref="C240">
     <cfRule type="iconSet" priority="72">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5011,7 +5081,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
+  <conditionalFormatting sqref="C241">
     <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5021,7 +5091,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
+  <conditionalFormatting sqref="C242">
     <cfRule type="iconSet" priority="70">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5031,7 +5101,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
+  <conditionalFormatting sqref="C243">
     <cfRule type="iconSet" priority="69">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5041,7 +5111,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
+  <conditionalFormatting sqref="C244">
     <cfRule type="iconSet" priority="68">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5051,7 +5121,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
+  <conditionalFormatting sqref="C245">
     <cfRule type="iconSet" priority="67">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5061,7 +5131,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
+  <conditionalFormatting sqref="C246">
     <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5071,7 +5141,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
+  <conditionalFormatting sqref="C247">
     <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5081,7 +5151,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
+  <conditionalFormatting sqref="C248">
     <cfRule type="iconSet" priority="64">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5091,7 +5161,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
+  <conditionalFormatting sqref="C249">
     <cfRule type="iconSet" priority="63">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5101,7 +5171,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
+  <conditionalFormatting sqref="C250">
     <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5111,7 +5181,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
+  <conditionalFormatting sqref="C251">
     <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5121,7 +5191,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
+  <conditionalFormatting sqref="C252">
     <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5131,7 +5201,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
+  <conditionalFormatting sqref="C253">
     <cfRule type="iconSet" priority="59">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5141,7 +5211,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
+  <conditionalFormatting sqref="C254">
     <cfRule type="iconSet" priority="58">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5151,7 +5221,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
+  <conditionalFormatting sqref="C255">
     <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5161,7 +5231,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
+  <conditionalFormatting sqref="C256">
     <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5171,7 +5241,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
+  <conditionalFormatting sqref="C257">
     <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5181,7 +5251,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
+  <conditionalFormatting sqref="C258">
     <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5191,7 +5261,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
+  <conditionalFormatting sqref="C259">
     <cfRule type="iconSet" priority="53">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5201,7 +5271,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
+  <conditionalFormatting sqref="C260">
     <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5211,7 +5281,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
+  <conditionalFormatting sqref="C261">
     <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5221,7 +5291,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
+  <conditionalFormatting sqref="C262">
     <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5231,7 +5301,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
+  <conditionalFormatting sqref="C263">
     <cfRule type="iconSet" priority="49">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5241,7 +5311,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
+  <conditionalFormatting sqref="C264">
     <cfRule type="iconSet" priority="48">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5251,7 +5321,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
+  <conditionalFormatting sqref="C265">
     <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5261,7 +5331,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
+  <conditionalFormatting sqref="C266">
     <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5271,7 +5341,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
+  <conditionalFormatting sqref="C267">
     <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5281,7 +5351,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
+  <conditionalFormatting sqref="C268">
     <cfRule type="iconSet" priority="44">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5291,7 +5361,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
+  <conditionalFormatting sqref="C269">
     <cfRule type="iconSet" priority="43">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5301,7 +5371,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
+  <conditionalFormatting sqref="C270">
     <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5311,7 +5381,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
+  <conditionalFormatting sqref="C271">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5321,7 +5391,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
+  <conditionalFormatting sqref="C272">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5331,7 +5401,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
+  <conditionalFormatting sqref="C273">
     <cfRule type="iconSet" priority="39">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5341,7 +5411,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
+  <conditionalFormatting sqref="C274">
     <cfRule type="iconSet" priority="38">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5351,7 +5421,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
+  <conditionalFormatting sqref="C275">
     <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5361,7 +5431,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
+  <conditionalFormatting sqref="C276">
     <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5371,7 +5441,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
+  <conditionalFormatting sqref="C277">
     <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5381,7 +5451,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
+  <conditionalFormatting sqref="C278">
     <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5391,7 +5461,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
+  <conditionalFormatting sqref="C279">
     <cfRule type="iconSet" priority="33">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5401,7 +5471,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
+  <conditionalFormatting sqref="C280">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5411,7 +5481,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
+  <conditionalFormatting sqref="C281">
     <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5421,7 +5491,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
+  <conditionalFormatting sqref="C282">
     <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5431,7 +5501,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
+  <conditionalFormatting sqref="C283">
     <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5441,7 +5511,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
+  <conditionalFormatting sqref="C284">
     <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5451,7 +5521,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
+  <conditionalFormatting sqref="C285">
     <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5461,7 +5531,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
+  <conditionalFormatting sqref="C286">
     <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5471,7 +5541,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
+  <conditionalFormatting sqref="C287">
     <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5481,7 +5551,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
+  <conditionalFormatting sqref="C288">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5491,7 +5561,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
+  <conditionalFormatting sqref="C289">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5501,7 +5571,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
+  <conditionalFormatting sqref="C290">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5511,7 +5581,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
+  <conditionalFormatting sqref="C291">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5521,7 +5591,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
+  <conditionalFormatting sqref="C292">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5531,7 +5601,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
+  <conditionalFormatting sqref="C293">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5541,7 +5611,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
+  <conditionalFormatting sqref="C294">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5551,7 +5621,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
+  <conditionalFormatting sqref="C295">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5561,7 +5631,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
+  <conditionalFormatting sqref="C296">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5571,7 +5641,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
+  <conditionalFormatting sqref="C297">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5581,7 +5651,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C297">
+  <conditionalFormatting sqref="C298">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5591,17 +5661,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C298">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C12:C16">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\VisionAI_Audio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D714965-9C6A-450E-908B-BACD3B860156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA3B4DE-076D-4A19-B265-9776D5DD02D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dailytasklist" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="Server" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">dailytasklist!$A$1:$D$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">dailytasklist!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>DAILY TASKS</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>save the result for faster and openai whisper in json file for evaluation purposes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find 20 audio samples for urdu and english </t>
+  </si>
+  <si>
+    <t>Add whisper.cpp implementation in models/whisper_cpp</t>
+  </si>
+  <si>
+    <t>Add whisperx implementation in models/whisperx</t>
+  </si>
+  <si>
+    <t>Test both (whisper.cpp and whisperx) with 1 or 2 audio samples</t>
+  </si>
+  <si>
+    <t>Integrate both implementation in model_comparison.py</t>
   </si>
 </sst>
 </file>
@@ -661,6 +676,7 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,7 +688,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1102,10 +1117,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F298"/>
+  <dimension ref="A1:F297"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1119,12 +1134,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1158,7 +1173,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1186,7 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1184,7 +1199,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1213,7 +1228,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1241,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1239,7 +1254,7 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="39">
         <v>45940</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1253,7 +1268,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1280,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1277,7 +1292,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1304,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1301,7 +1316,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1313,1745 +1328,1781 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="33">
+        <v>45943</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="10"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="16"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="16"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="16"/>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="13"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="16"/>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="16"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="16"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="16"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="13"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="16"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="16"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="16"/>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="16"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="16"/>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="16"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="13"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="16"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="13"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="16"/>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="16"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="16"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="16"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="16"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="13"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="16"/>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="16"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="13"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="16"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="16"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="16"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="16"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="16"/>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="16"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="34"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
+      <c r="A90" s="31"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="16"/>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="16"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="16"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="16"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="13"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="16"/>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="16"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="16"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="16"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="16"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="41"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
+      <c r="A100" s="35"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="16"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="16"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="16"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="16"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="16"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="41"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="13"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="16"/>
+      <c r="A107" s="35"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="13"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="16"/>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="16"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="13"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="16"/>
     </row>
     <row r="111" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="16"/>
+      <c r="A111" s="35"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="13"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="16"/>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="33"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="16"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="13"/>
     </row>
     <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="13"/>
+      <c r="A114" s="35"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="16"/>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="16"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="13"/>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="13"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="16"/>
     </row>
     <row r="117" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="16"/>
+      <c r="A117" s="35"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="13"/>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="13"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="16"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="16"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="13"/>
     </row>
     <row r="120" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="41"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="13"/>
+      <c r="A120" s="35"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="16"/>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="34"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="16"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="13"/>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="33"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="16"/>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="16"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="13"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="16"/>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="34"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="16"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="13"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="16"/>
     </row>
     <row r="127" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="16"/>
+      <c r="A127" s="35"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="13"/>
+      <c r="A128" s="33"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="16"/>
     </row>
     <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="16"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="13"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="16"/>
     </row>
     <row r="131" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="16"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="34"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="13"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="16"/>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="16"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="13"/>
+      <c r="A134" s="35"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="16"/>
     </row>
     <row r="135" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="34"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="16"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="32"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="13"/>
+      <c r="A136" s="30"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="16"/>
     </row>
     <row r="137" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="16"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="13"/>
     </row>
     <row r="138" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="13"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="16"/>
     </row>
     <row r="139" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="16"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="140" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="13"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="16"/>
     </row>
     <row r="141" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="16"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="13"/>
     </row>
     <row r="142" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="13"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="16"/>
     </row>
     <row r="143" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="16"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="13"/>
     </row>
     <row r="144" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="13"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="16"/>
     </row>
     <row r="145" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="16"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="13"/>
     </row>
     <row r="146" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="13"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="16"/>
     </row>
     <row r="147" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="16"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="13"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="16"/>
     </row>
     <row r="149" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="16"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="13"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="16"/>
     </row>
     <row r="151" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="16"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="13"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="16"/>
     </row>
     <row r="153" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="16"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="13"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="16"/>
     </row>
     <row r="155" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="16"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="13"/>
     </row>
     <row r="156" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="13"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="16"/>
     </row>
     <row r="157" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="16"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="13"/>
     </row>
     <row r="158" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="13"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="16"/>
     </row>
     <row r="159" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="16"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="13"/>
     </row>
     <row r="160" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="13"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="16"/>
     </row>
     <row r="161" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="16"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="13"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="16"/>
     </row>
     <row r="163" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="16"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="13"/>
     </row>
     <row r="164" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="13"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="16"/>
     </row>
     <row r="165" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="16"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="13"/>
     </row>
     <row r="166" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="13"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="16"/>
     </row>
     <row r="167" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="16"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="13"/>
     </row>
     <row r="168" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="13"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="16"/>
     </row>
     <row r="169" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="16"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="13"/>
     </row>
     <row r="170" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="13"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="16"/>
     </row>
     <row r="171" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="16"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="13"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="16"/>
     </row>
     <row r="173" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="16"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="13"/>
     </row>
     <row r="174" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="30"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="13"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="16"/>
     </row>
     <row r="175" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="30"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="16"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="13"/>
     </row>
     <row r="176" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="30"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="13"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="16"/>
     </row>
     <row r="177" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="30"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="16"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="13"/>
     </row>
     <row r="178" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="30"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="13"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="16"/>
     </row>
     <row r="179" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="30"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="16"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="13"/>
     </row>
     <row r="180" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="30"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="13"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="16"/>
     </row>
     <row r="181" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="16"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="13"/>
     </row>
     <row r="182" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="30"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="13"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="16"/>
     </row>
     <row r="183" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="30"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="16"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="13"/>
     </row>
     <row r="184" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="13"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="16"/>
     </row>
     <row r="185" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="30"/>
-      <c r="B185" s="17"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="16"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="13"/>
     </row>
     <row r="186" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="30"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="13"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="16"/>
     </row>
     <row r="187" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="30"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="16"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="13"/>
     </row>
     <row r="188" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="30"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="13"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="16"/>
     </row>
     <row r="189" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="30"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="16"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="13"/>
     </row>
     <row r="190" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="30"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="13"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="16"/>
     </row>
     <row r="191" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="30"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="16"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="13"/>
     </row>
     <row r="192" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="30"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="13"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="16"/>
     </row>
     <row r="193" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="16"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="13"/>
     </row>
     <row r="194" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="30"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="13"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="16"/>
     </row>
     <row r="195" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="30"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="16"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="13"/>
     </row>
     <row r="196" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="30"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="13"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="16"/>
     </row>
     <row r="197" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="30"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="16"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="13"/>
     </row>
     <row r="198" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="30"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="13"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="16"/>
     </row>
     <row r="199" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="30"/>
-      <c r="B199" s="17"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="16"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="13"/>
     </row>
     <row r="200" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="30"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="13"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="16"/>
     </row>
     <row r="201" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="30"/>
-      <c r="B201" s="17"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="16"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="13"/>
     </row>
     <row r="202" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="30"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="13"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="16"/>
     </row>
     <row r="203" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="30"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="18"/>
-      <c r="D203" s="16"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="13"/>
     </row>
     <row r="204" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="30"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="13"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="16"/>
     </row>
     <row r="205" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="30"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="18"/>
-      <c r="D205" s="16"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="13"/>
     </row>
     <row r="206" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="30"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="13"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="16"/>
     </row>
     <row r="207" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="30"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="18"/>
-      <c r="D207" s="16"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="13"/>
     </row>
     <row r="208" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="30"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="13"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="16"/>
     </row>
     <row r="209" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="30"/>
-      <c r="B209" s="17"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="16"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="13"/>
     </row>
     <row r="210" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="30"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="13"/>
+      <c r="B210" s="17"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="16"/>
     </row>
     <row r="211" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="30"/>
-      <c r="B211" s="17"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="16"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="13"/>
     </row>
     <row r="212" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="30"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="13"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="16"/>
     </row>
     <row r="213" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="30"/>
-      <c r="B213" s="17"/>
-      <c r="C213" s="18"/>
-      <c r="D213" s="16"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="12"/>
+      <c r="D213" s="13"/>
     </row>
     <row r="214" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="30"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="13"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="16"/>
     </row>
     <row r="215" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
-      <c r="B215" s="17"/>
-      <c r="C215" s="18"/>
-      <c r="D215" s="16"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="13"/>
     </row>
     <row r="216" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="30"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="13"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="16"/>
     </row>
     <row r="217" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="30"/>
-      <c r="B217" s="17"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="16"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="13"/>
     </row>
     <row r="218" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="30"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="13"/>
+      <c r="B218" s="17"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="16"/>
     </row>
     <row r="219" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="30"/>
-      <c r="B219" s="17"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="16"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="13"/>
     </row>
     <row r="220" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="30"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="13"/>
+      <c r="B220" s="17"/>
+      <c r="C220" s="18"/>
+      <c r="D220" s="16"/>
     </row>
     <row r="221" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="30"/>
-      <c r="B221" s="17"/>
-      <c r="C221" s="18"/>
-      <c r="D221" s="16"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="13"/>
     </row>
     <row r="222" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="30"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="13"/>
+      <c r="B222" s="17"/>
+      <c r="C222" s="18"/>
+      <c r="D222" s="16"/>
     </row>
     <row r="223" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
-      <c r="B223" s="17"/>
-      <c r="C223" s="18"/>
-      <c r="D223" s="16"/>
+      <c r="B223" s="11"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="13"/>
     </row>
     <row r="224" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="30"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="13"/>
+      <c r="B224" s="17"/>
+      <c r="C224" s="18"/>
+      <c r="D224" s="16"/>
     </row>
     <row r="225" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="30"/>
-      <c r="B225" s="17"/>
-      <c r="C225" s="18"/>
-      <c r="D225" s="16"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="13"/>
     </row>
     <row r="226" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="30"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="13"/>
+      <c r="B226" s="17"/>
+      <c r="C226" s="18"/>
+      <c r="D226" s="16"/>
     </row>
     <row r="227" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="30"/>
-      <c r="B227" s="17"/>
-      <c r="C227" s="18"/>
-      <c r="D227" s="16"/>
+      <c r="B227" s="11"/>
+      <c r="C227" s="12"/>
+      <c r="D227" s="13"/>
     </row>
     <row r="228" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="30"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="13"/>
+      <c r="B228" s="17"/>
+      <c r="C228" s="18"/>
+      <c r="D228" s="16"/>
     </row>
     <row r="229" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="30"/>
-      <c r="B229" s="17"/>
-      <c r="C229" s="18"/>
-      <c r="D229" s="16"/>
+      <c r="B229" s="11"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="13"/>
     </row>
     <row r="230" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="30"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="13"/>
+      <c r="B230" s="17"/>
+      <c r="C230" s="18"/>
+      <c r="D230" s="16"/>
     </row>
     <row r="231" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="30"/>
-      <c r="B231" s="17"/>
-      <c r="C231" s="18"/>
-      <c r="D231" s="16"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="13"/>
     </row>
     <row r="232" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="30"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="13"/>
+      <c r="B232" s="17"/>
+      <c r="C232" s="18"/>
+      <c r="D232" s="16"/>
     </row>
     <row r="233" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="30"/>
-      <c r="B233" s="17"/>
-      <c r="C233" s="18"/>
-      <c r="D233" s="16"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="13"/>
     </row>
     <row r="234" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="30"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="13"/>
+      <c r="B234" s="17"/>
+      <c r="C234" s="18"/>
+      <c r="D234" s="16"/>
     </row>
     <row r="235" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="30"/>
-      <c r="B235" s="17"/>
-      <c r="C235" s="18"/>
-      <c r="D235" s="16"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="13"/>
     </row>
     <row r="236" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="30"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="13"/>
+      <c r="B236" s="17"/>
+      <c r="C236" s="18"/>
+      <c r="D236" s="16"/>
     </row>
     <row r="237" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="30"/>
-      <c r="B237" s="17"/>
-      <c r="C237" s="18"/>
-      <c r="D237" s="16"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="13"/>
     </row>
     <row r="238" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="30"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="13"/>
+      <c r="B238" s="17"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="16"/>
     </row>
     <row r="239" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="30"/>
-      <c r="B239" s="17"/>
-      <c r="C239" s="18"/>
-      <c r="D239" s="16"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="13"/>
     </row>
     <row r="240" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="30"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="13"/>
+      <c r="B240" s="17"/>
+      <c r="C240" s="18"/>
+      <c r="D240" s="16"/>
     </row>
     <row r="241" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="30"/>
-      <c r="B241" s="17"/>
-      <c r="C241" s="18"/>
-      <c r="D241" s="16"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="13"/>
     </row>
     <row r="242" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="30"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="13"/>
+      <c r="B242" s="17"/>
+      <c r="C242" s="18"/>
+      <c r="D242" s="16"/>
     </row>
     <row r="243" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="30"/>
-      <c r="B243" s="17"/>
-      <c r="C243" s="18"/>
-      <c r="D243" s="16"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="13"/>
     </row>
     <row r="244" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="30"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="12"/>
-      <c r="D244" s="13"/>
+      <c r="B244" s="17"/>
+      <c r="C244" s="18"/>
+      <c r="D244" s="16"/>
     </row>
     <row r="245" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="30"/>
-      <c r="B245" s="17"/>
-      <c r="C245" s="18"/>
-      <c r="D245" s="16"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="13"/>
     </row>
     <row r="246" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="30"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="13"/>
+      <c r="B246" s="17"/>
+      <c r="C246" s="18"/>
+      <c r="D246" s="16"/>
     </row>
     <row r="247" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="30"/>
-      <c r="B247" s="17"/>
-      <c r="C247" s="18"/>
-      <c r="D247" s="16"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="13"/>
     </row>
     <row r="248" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="30"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="12"/>
-      <c r="D248" s="13"/>
+      <c r="B248" s="17"/>
+      <c r="C248" s="18"/>
+      <c r="D248" s="16"/>
     </row>
     <row r="249" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="30"/>
-      <c r="B249" s="17"/>
-      <c r="C249" s="18"/>
-      <c r="D249" s="16"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="13"/>
     </row>
     <row r="250" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="13"/>
+      <c r="B250" s="17"/>
+      <c r="C250" s="18"/>
+      <c r="D250" s="16"/>
     </row>
     <row r="251" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="30"/>
-      <c r="B251" s="17"/>
-      <c r="C251" s="18"/>
-      <c r="D251" s="16"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="13"/>
     </row>
     <row r="252" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="30"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="12"/>
-      <c r="D252" s="13"/>
+      <c r="B252" s="17"/>
+      <c r="C252" s="18"/>
+      <c r="D252" s="16"/>
     </row>
     <row r="253" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="30"/>
-      <c r="B253" s="17"/>
-      <c r="C253" s="18"/>
-      <c r="D253" s="16"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="13"/>
     </row>
     <row r="254" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="30"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="12"/>
-      <c r="D254" s="13"/>
+      <c r="B254" s="17"/>
+      <c r="C254" s="18"/>
+      <c r="D254" s="16"/>
     </row>
     <row r="255" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="30"/>
-      <c r="B255" s="17"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="16"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="13"/>
     </row>
     <row r="256" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="30"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="13"/>
+      <c r="B256" s="17"/>
+      <c r="C256" s="18"/>
+      <c r="D256" s="16"/>
     </row>
     <row r="257" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="30"/>
-      <c r="B257" s="17"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="16"/>
+      <c r="B257" s="11"/>
+      <c r="C257" s="12"/>
+      <c r="D257" s="13"/>
     </row>
     <row r="258" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="30"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="12"/>
-      <c r="D258" s="13"/>
+      <c r="B258" s="17"/>
+      <c r="C258" s="18"/>
+      <c r="D258" s="16"/>
     </row>
     <row r="259" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="30"/>
-      <c r="B259" s="17"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="16"/>
+      <c r="B259" s="11"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="13"/>
     </row>
     <row r="260" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="30"/>
-      <c r="B260" s="11"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="13"/>
+      <c r="B260" s="17"/>
+      <c r="C260" s="18"/>
+      <c r="D260" s="16"/>
     </row>
     <row r="261" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="30"/>
-      <c r="B261" s="17"/>
-      <c r="C261" s="18"/>
-      <c r="D261" s="16"/>
+      <c r="B261" s="11"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="13"/>
     </row>
     <row r="262" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="30"/>
-      <c r="B262" s="11"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="13"/>
+      <c r="B262" s="17"/>
+      <c r="C262" s="18"/>
+      <c r="D262" s="16"/>
     </row>
     <row r="263" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="30"/>
-      <c r="B263" s="17"/>
-      <c r="C263" s="18"/>
-      <c r="D263" s="16"/>
+      <c r="B263" s="11"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="13"/>
     </row>
     <row r="264" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="30"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="12"/>
-      <c r="D264" s="13"/>
+      <c r="B264" s="17"/>
+      <c r="C264" s="18"/>
+      <c r="D264" s="16"/>
     </row>
     <row r="265" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="30"/>
-      <c r="B265" s="17"/>
-      <c r="C265" s="18"/>
-      <c r="D265" s="16"/>
+      <c r="B265" s="11"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="13"/>
     </row>
     <row r="266" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="30"/>
-      <c r="B266" s="11"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="13"/>
+      <c r="B266" s="17"/>
+      <c r="C266" s="18"/>
+      <c r="D266" s="16"/>
     </row>
     <row r="267" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="30"/>
-      <c r="B267" s="17"/>
-      <c r="C267" s="18"/>
-      <c r="D267" s="16"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="13"/>
     </row>
     <row r="268" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="30"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="13"/>
+      <c r="B268" s="17"/>
+      <c r="C268" s="18"/>
+      <c r="D268" s="16"/>
     </row>
     <row r="269" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="30"/>
-      <c r="B269" s="17"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="16"/>
+      <c r="B269" s="11"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="13"/>
     </row>
     <row r="270" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="30"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="13"/>
+      <c r="B270" s="17"/>
+      <c r="C270" s="18"/>
+      <c r="D270" s="16"/>
     </row>
     <row r="271" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="30"/>
-      <c r="B271" s="17"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="16"/>
+      <c r="B271" s="11"/>
+      <c r="C271" s="12"/>
+      <c r="D271" s="13"/>
     </row>
     <row r="272" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="30"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="13"/>
+      <c r="B272" s="17"/>
+      <c r="C272" s="18"/>
+      <c r="D272" s="16"/>
     </row>
     <row r="273" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="30"/>
-      <c r="B273" s="17"/>
-      <c r="C273" s="18"/>
-      <c r="D273" s="16"/>
+      <c r="B273" s="11"/>
+      <c r="C273" s="12"/>
+      <c r="D273" s="13"/>
     </row>
     <row r="274" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="30"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="12"/>
-      <c r="D274" s="13"/>
+      <c r="B274" s="17"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="16"/>
     </row>
     <row r="275" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="30"/>
-      <c r="B275" s="17"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="16"/>
+      <c r="B275" s="11"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="13"/>
     </row>
     <row r="276" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="30"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="13"/>
+      <c r="B276" s="17"/>
+      <c r="C276" s="18"/>
+      <c r="D276" s="16"/>
     </row>
     <row r="277" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
-      <c r="B277" s="17"/>
-      <c r="C277" s="18"/>
-      <c r="D277" s="16"/>
+      <c r="B277" s="11"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="13"/>
     </row>
     <row r="278" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="30"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="13"/>
+      <c r="B278" s="17"/>
+      <c r="C278" s="18"/>
+      <c r="D278" s="16"/>
     </row>
     <row r="279" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="30"/>
-      <c r="B279" s="17"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="16"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="13"/>
     </row>
     <row r="280" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="30"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="13"/>
+      <c r="B280" s="17"/>
+      <c r="C280" s="18"/>
+      <c r="D280" s="16"/>
     </row>
     <row r="281" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="30"/>
-      <c r="B281" s="17"/>
-      <c r="C281" s="18"/>
-      <c r="D281" s="16"/>
+      <c r="B281" s="11"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="13"/>
     </row>
     <row r="282" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="30"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="12"/>
-      <c r="D282" s="13"/>
+      <c r="B282" s="17"/>
+      <c r="C282" s="18"/>
+      <c r="D282" s="16"/>
     </row>
     <row r="283" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="30"/>
-      <c r="B283" s="17"/>
-      <c r="C283" s="18"/>
-      <c r="D283" s="16"/>
+      <c r="B283" s="11"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="13"/>
     </row>
     <row r="284" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="30"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="13"/>
+      <c r="B284" s="17"/>
+      <c r="C284" s="18"/>
+      <c r="D284" s="16"/>
     </row>
     <row r="285" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="30"/>
-      <c r="B285" s="17"/>
-      <c r="C285" s="18"/>
-      <c r="D285" s="16"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="13"/>
     </row>
     <row r="286" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="30"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="13"/>
+      <c r="B286" s="17"/>
+      <c r="C286" s="18"/>
+      <c r="D286" s="16"/>
     </row>
     <row r="287" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="30"/>
-      <c r="B287" s="17"/>
-      <c r="C287" s="18"/>
-      <c r="D287" s="16"/>
+      <c r="B287" s="11"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="13"/>
     </row>
     <row r="288" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="30"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="12"/>
-      <c r="D288" s="13"/>
+      <c r="B288" s="17"/>
+      <c r="C288" s="18"/>
+      <c r="D288" s="16"/>
     </row>
     <row r="289" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="30"/>
-      <c r="B289" s="17"/>
-      <c r="C289" s="18"/>
-      <c r="D289" s="16"/>
+      <c r="B289" s="11"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="13"/>
     </row>
     <row r="290" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="30"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="12"/>
-      <c r="D290" s="13"/>
+      <c r="B290" s="17"/>
+      <c r="C290" s="18"/>
+      <c r="D290" s="16"/>
     </row>
     <row r="291" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="30"/>
-      <c r="B291" s="17"/>
-      <c r="C291" s="18"/>
-      <c r="D291" s="16"/>
+      <c r="B291" s="11"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="13"/>
     </row>
     <row r="292" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="30"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="12"/>
-      <c r="D292" s="13"/>
+      <c r="B292" s="17"/>
+      <c r="C292" s="18"/>
+      <c r="D292" s="16"/>
     </row>
     <row r="293" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="30"/>
-      <c r="B293" s="17"/>
-      <c r="C293" s="18"/>
-      <c r="D293" s="16"/>
+      <c r="B293" s="11"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="13"/>
     </row>
     <row r="294" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="30"/>
-      <c r="B294" s="11"/>
-      <c r="C294" s="12"/>
-      <c r="D294" s="13"/>
+      <c r="B294" s="17"/>
+      <c r="C294" s="18"/>
+      <c r="D294" s="16"/>
     </row>
     <row r="295" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="30"/>
-      <c r="B295" s="17"/>
-      <c r="C295" s="18"/>
-      <c r="D295" s="16"/>
+      <c r="B295" s="11"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="13"/>
     </row>
     <row r="296" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="30"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="12"/>
-      <c r="D296" s="13"/>
+      <c r="B296" s="17"/>
+      <c r="C296" s="18"/>
+      <c r="D296" s="16"/>
     </row>
     <row r="297" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="30"/>
-      <c r="B297" s="17"/>
-      <c r="C297" s="18"/>
-      <c r="D297" s="16"/>
-    </row>
-    <row r="298" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="30"/>
-      <c r="B298" s="11"/>
-      <c r="C298" s="12"/>
-      <c r="D298" s="13"/>
+      <c r="B297" s="11"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A133:A134"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A69:A71"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3061,7 +3112,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3071,7 +3122,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C7:C8">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3081,7 +3132,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="C10">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3091,18 +3142,18 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C11 C17:C22">
-    <cfRule type="iconSet" priority="289">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C12:C17">
     <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="iconSet" priority="277">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3131,7 +3182,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C25:C26">
+    <cfRule type="iconSet" priority="280">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="iconSet" priority="269">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="iconSet" priority="270">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="iconSet" priority="271">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="272">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="267">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="273">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C37 C39:C47">
     <cfRule type="iconSet" priority="274">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3141,17 +3262,37 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
-    <cfRule type="iconSet" priority="279">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C38">
+    <cfRule type="iconSet" priority="263">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="iconSet" priority="266">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C50">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="268">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3161,87 +3302,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="iconSet" priority="269">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="270">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="271">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="266">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="272">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C38 C40:C48">
-    <cfRule type="iconSet" priority="273">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="iconSet" priority="262">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="iconSet" priority="265">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:C51">
+  <conditionalFormatting sqref="C52">
     <cfRule type="iconSet" priority="261">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3251,17 +3312,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="iconSet" priority="267">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C53">
+    <cfRule type="iconSet" priority="259">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54:C55">
+    <cfRule type="iconSet" priority="258">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
     <cfRule type="iconSet" priority="260">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3271,28 +3342,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="iconSet" priority="258">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55:C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="iconSet" priority="257">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="iconSet" priority="259">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3322,7 +3373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="iconSet" priority="254">
+    <cfRule type="iconSet" priority="252">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3412,7 +3463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="iconSet" priority="243">
+    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3422,6 +3473,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="iconSet" priority="241">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3431,28 +3502,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="240">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="11">
+    <cfRule type="iconSet" priority="239">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3592,7 +3643,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="225">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3612,6 +3663,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89">
+    <cfRule type="iconSet" priority="223">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90:C91">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="iconSet" priority="220">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3621,37 +3702,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="iconSet" priority="222">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91:C92">
-    <cfRule type="iconSet" priority="221">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="iconSet" priority="219">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
+  <conditionalFormatting sqref="C94:C95">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3661,8 +3712,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95:C96">
-    <cfRule type="iconSet" priority="7">
+  <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="216">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3821,7 +3872,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
+  <conditionalFormatting sqref="C112:C114">
     <cfRule type="iconSet" priority="200">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3831,18 +3882,18 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C113:C115">
-    <cfRule type="iconSet" priority="199">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116:C117">
-    <cfRule type="iconSet" priority="196">
+  <conditionalFormatting sqref="C115:C116">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="195">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -5651,17 +5702,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C298">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C16">
+  <conditionalFormatting sqref="C9 C11">
+    <cfRule type="iconSet" priority="291">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C21">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\VisionAI_Audio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA3B4DE-076D-4A19-B265-9776D5DD02D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447E15A-4F4D-48AD-9944-1867491AEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>DAILY TASKS</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>Integrate both implementation in model_comparison.py</t>
+  </si>
+  <si>
+    <t>Implementation of resource_monitor.py to track CPU,GPU, and Memory usage</t>
+  </si>
+  <si>
+    <t>Implementation of metrics_calculator.py to calculate wer/cer</t>
+  </si>
+  <si>
+    <t>Add preprocessing in of audio whisper_cpp_model.py because it does not support greater then 16kHz and 16bit audio</t>
+  </si>
+  <si>
+    <t>Test all the models with all test_audio_samples and save result in respective json</t>
+  </si>
+  <si>
+    <t>Test metrics_calculator.py by passing prediction(faster-whisper) and reference(openai-whisper) json and save their results</t>
   </si>
 </sst>
 </file>
@@ -676,7 +691,6 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,6 +702,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,10 +1132,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:F296"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1134,12 +1149,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1173,7 +1188,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1201,7 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1214,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1228,7 +1243,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
@@ -1241,7 +1256,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1254,7 +1269,7 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="38">
         <v>45940</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1268,7 +1283,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1295,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1292,7 +1307,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
@@ -1304,7 +1319,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1316,7 +1331,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1357,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1354,7 +1369,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1366,7 +1381,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1393,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
@@ -1390,1709 +1405,1753 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="42">
+        <v>45944</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="16">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="16">
+        <v>45945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="16">
+        <v>45945</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="39"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="34"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="16"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="13"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="16"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="16"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="13"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="16"/>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="13"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="16"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="16"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="16"/>
     </row>
     <row r="68" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="16"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="13"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="16"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="13"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="16"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="16"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="16"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="13"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="34"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="16"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="16"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="13"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="16"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="16"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="16"/>
     </row>
     <row r="86" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="16"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="16"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
+      <c r="A89" s="31"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="16"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="16"/>
     </row>
     <row r="92" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="16"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="16"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="34"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="16"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="13"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="16"/>
     </row>
     <row r="96" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="26"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="16"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="13"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="16"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="34"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="13"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="16"/>
     </row>
     <row r="100" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="35"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="16"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="13"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="16"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="13"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="16"/>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="16"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="13"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="34"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="16"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="13"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="16"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="13"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="34"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="16"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="35"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="16"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="34"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="13"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="16"/>
     </row>
     <row r="114" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="35"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="16"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="34"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="16"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="35"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="16"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="34"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="16"/>
     </row>
     <row r="120" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="35"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="16"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="13"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="34"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="16"/>
+      <c r="A122" s="41"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="34"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="13"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="16"/>
     </row>
     <row r="124" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="16"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="13"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="16"/>
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="16"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="13"/>
     </row>
     <row r="127" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="35"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="33"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="16"/>
+      <c r="A128" s="41"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="13"/>
     </row>
     <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="13"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="34"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="16"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="13"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="16"/>
     </row>
     <row r="132" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="26"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="16"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="13"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="16"/>
     </row>
     <row r="134" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="35"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="16"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="32"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="13"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="16"/>
     </row>
     <row r="136" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="30"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="16"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="30"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="13"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="16"/>
     </row>
     <row r="138" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="16"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="13"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="16"/>
     </row>
     <row r="140" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="16"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="13"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="16"/>
     </row>
     <row r="142" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="16"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="13"/>
     </row>
     <row r="143" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="13"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="16"/>
     </row>
     <row r="144" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="16"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="30"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="13"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="16"/>
     </row>
     <row r="146" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="30"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="16"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="13"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="16"/>
     </row>
     <row r="148" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="16"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="13"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="16"/>
     </row>
     <row r="150" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="30"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="16"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="30"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="13"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="16"/>
     </row>
     <row r="152" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="16"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="13"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="16"/>
     </row>
     <row r="154" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="16"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="13"/>
     </row>
     <row r="155" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="30"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="13"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="16"/>
     </row>
     <row r="156" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="30"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="16"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="30"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="13"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="16"/>
     </row>
     <row r="158" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="30"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="16"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="30"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="13"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="16"/>
     </row>
     <row r="160" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="30"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="16"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="30"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="13"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="16"/>
     </row>
     <row r="162" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="30"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="16"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="30"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="13"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="16"/>
     </row>
     <row r="164" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="16"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="13"/>
     </row>
     <row r="165" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="30"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="13"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="16"/>
     </row>
     <row r="166" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="30"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="16"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="13"/>
     </row>
     <row r="167" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="13"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="16"/>
     </row>
     <row r="168" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="16"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="13"/>
     </row>
     <row r="169" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="30"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="13"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="16"/>
     </row>
     <row r="170" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="30"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="16"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="13"/>
     </row>
     <row r="171" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="30"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="13"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="16"/>
     </row>
     <row r="172" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="30"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="16"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="13"/>
     </row>
     <row r="173" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="30"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="13"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="16"/>
     </row>
     <row r="174" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="30"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="16"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="13"/>
     </row>
     <row r="175" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="30"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="13"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="16"/>
     </row>
     <row r="176" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="30"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="16"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="13"/>
     </row>
     <row r="177" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="30"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="13"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="16"/>
     </row>
     <row r="178" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="30"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="16"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="13"/>
     </row>
     <row r="179" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="30"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="13"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="16"/>
     </row>
     <row r="180" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="30"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="16"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="13"/>
     </row>
     <row r="181" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="13"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="16"/>
     </row>
     <row r="182" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="30"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="16"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="13"/>
     </row>
     <row r="183" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="30"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="13"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="16"/>
     </row>
     <row r="184" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
-      <c r="B184" s="17"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="16"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="13"/>
     </row>
     <row r="185" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="30"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="13"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="16"/>
     </row>
     <row r="186" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="30"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="16"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="13"/>
     </row>
     <row r="187" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="30"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="13"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="16"/>
     </row>
     <row r="188" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="30"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="16"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="13"/>
     </row>
     <row r="189" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="30"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="13"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="16"/>
     </row>
     <row r="190" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="30"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="16"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="13"/>
     </row>
     <row r="191" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="30"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="13"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="16"/>
     </row>
     <row r="192" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="30"/>
-      <c r="B192" s="17"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="16"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="13"/>
     </row>
     <row r="193" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="13"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="16"/>
     </row>
     <row r="194" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="30"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="16"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="13"/>
     </row>
     <row r="195" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="30"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="13"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="16"/>
     </row>
     <row r="196" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="30"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="16"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="13"/>
     </row>
     <row r="197" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="30"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="13"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="16"/>
     </row>
     <row r="198" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="30"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="16"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="13"/>
     </row>
     <row r="199" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="30"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="13"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="16"/>
     </row>
     <row r="200" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="30"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="16"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="13"/>
     </row>
     <row r="201" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="30"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="13"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="16"/>
     </row>
     <row r="202" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="30"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="18"/>
-      <c r="D202" s="16"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="13"/>
     </row>
     <row r="203" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="30"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="13"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="16"/>
     </row>
     <row r="204" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="30"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="16"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="13"/>
     </row>
     <row r="205" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="30"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="13"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="16"/>
     </row>
     <row r="206" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="30"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="16"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="12"/>
+      <c r="D206" s="13"/>
     </row>
     <row r="207" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="30"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="13"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="16"/>
     </row>
     <row r="208" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="30"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="18"/>
-      <c r="D208" s="16"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="13"/>
     </row>
     <row r="209" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="30"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="13"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="16"/>
     </row>
     <row r="210" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="30"/>
-      <c r="B210" s="17"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="16"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="13"/>
     </row>
     <row r="211" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="30"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="13"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="16"/>
     </row>
     <row r="212" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="30"/>
-      <c r="B212" s="17"/>
-      <c r="C212" s="18"/>
-      <c r="D212" s="16"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="13"/>
     </row>
     <row r="213" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="30"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="13"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="16"/>
     </row>
     <row r="214" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="30"/>
-      <c r="B214" s="17"/>
-      <c r="C214" s="18"/>
-      <c r="D214" s="16"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="13"/>
     </row>
     <row r="215" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="13"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="16"/>
     </row>
     <row r="216" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="30"/>
-      <c r="B216" s="17"/>
-      <c r="C216" s="18"/>
-      <c r="D216" s="16"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="13"/>
     </row>
     <row r="217" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="30"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="13"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="16"/>
     </row>
     <row r="218" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="30"/>
-      <c r="B218" s="17"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="16"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="13"/>
     </row>
     <row r="219" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="30"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="13"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="16"/>
     </row>
     <row r="220" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="30"/>
-      <c r="B220" s="17"/>
-      <c r="C220" s="18"/>
-      <c r="D220" s="16"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="13"/>
     </row>
     <row r="221" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="30"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="13"/>
+      <c r="B221" s="17"/>
+      <c r="C221" s="18"/>
+      <c r="D221" s="16"/>
     </row>
     <row r="222" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="30"/>
-      <c r="B222" s="17"/>
-      <c r="C222" s="18"/>
-      <c r="D222" s="16"/>
+      <c r="B222" s="11"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="13"/>
     </row>
     <row r="223" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="13"/>
+      <c r="B223" s="17"/>
+      <c r="C223" s="18"/>
+      <c r="D223" s="16"/>
     </row>
     <row r="224" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="30"/>
-      <c r="B224" s="17"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="16"/>
+      <c r="B224" s="11"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="13"/>
     </row>
     <row r="225" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="30"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="13"/>
+      <c r="B225" s="17"/>
+      <c r="C225" s="18"/>
+      <c r="D225" s="16"/>
     </row>
     <row r="226" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="30"/>
-      <c r="B226" s="17"/>
-      <c r="C226" s="18"/>
-      <c r="D226" s="16"/>
+      <c r="B226" s="11"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="13"/>
     </row>
     <row r="227" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="30"/>
-      <c r="B227" s="11"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="13"/>
+      <c r="B227" s="17"/>
+      <c r="C227" s="18"/>
+      <c r="D227" s="16"/>
     </row>
     <row r="228" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="30"/>
-      <c r="B228" s="17"/>
-      <c r="C228" s="18"/>
-      <c r="D228" s="16"/>
+      <c r="B228" s="11"/>
+      <c r="C228" s="12"/>
+      <c r="D228" s="13"/>
     </row>
     <row r="229" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="30"/>
-      <c r="B229" s="11"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="13"/>
+      <c r="B229" s="17"/>
+      <c r="C229" s="18"/>
+      <c r="D229" s="16"/>
     </row>
     <row r="230" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="30"/>
-      <c r="B230" s="17"/>
-      <c r="C230" s="18"/>
-      <c r="D230" s="16"/>
+      <c r="B230" s="11"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="13"/>
     </row>
     <row r="231" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="30"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="13"/>
+      <c r="B231" s="17"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="16"/>
     </row>
     <row r="232" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="30"/>
-      <c r="B232" s="17"/>
-      <c r="C232" s="18"/>
-      <c r="D232" s="16"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="13"/>
     </row>
     <row r="233" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="30"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="13"/>
+      <c r="B233" s="17"/>
+      <c r="C233" s="18"/>
+      <c r="D233" s="16"/>
     </row>
     <row r="234" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="30"/>
-      <c r="B234" s="17"/>
-      <c r="C234" s="18"/>
-      <c r="D234" s="16"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="13"/>
     </row>
     <row r="235" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="30"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="13"/>
+      <c r="B235" s="17"/>
+      <c r="C235" s="18"/>
+      <c r="D235" s="16"/>
     </row>
     <row r="236" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="30"/>
-      <c r="B236" s="17"/>
-      <c r="C236" s="18"/>
-      <c r="D236" s="16"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="13"/>
     </row>
     <row r="237" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="30"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="13"/>
+      <c r="B237" s="17"/>
+      <c r="C237" s="18"/>
+      <c r="D237" s="16"/>
     </row>
     <row r="238" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="30"/>
-      <c r="B238" s="17"/>
-      <c r="C238" s="18"/>
-      <c r="D238" s="16"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="13"/>
     </row>
     <row r="239" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="30"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="13"/>
+      <c r="B239" s="17"/>
+      <c r="C239" s="18"/>
+      <c r="D239" s="16"/>
     </row>
     <row r="240" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="30"/>
-      <c r="B240" s="17"/>
-      <c r="C240" s="18"/>
-      <c r="D240" s="16"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="13"/>
     </row>
     <row r="241" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="30"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="13"/>
+      <c r="B241" s="17"/>
+      <c r="C241" s="18"/>
+      <c r="D241" s="16"/>
     </row>
     <row r="242" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="30"/>
-      <c r="B242" s="17"/>
-      <c r="C242" s="18"/>
-      <c r="D242" s="16"/>
+      <c r="B242" s="11"/>
+      <c r="C242" s="12"/>
+      <c r="D242" s="13"/>
     </row>
     <row r="243" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="30"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="13"/>
+      <c r="B243" s="17"/>
+      <c r="C243" s="18"/>
+      <c r="D243" s="16"/>
     </row>
     <row r="244" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="30"/>
-      <c r="B244" s="17"/>
-      <c r="C244" s="18"/>
-      <c r="D244" s="16"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="13"/>
     </row>
     <row r="245" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="30"/>
-      <c r="B245" s="11"/>
-      <c r="C245" s="12"/>
-      <c r="D245" s="13"/>
+      <c r="B245" s="17"/>
+      <c r="C245" s="18"/>
+      <c r="D245" s="16"/>
     </row>
     <row r="246" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="30"/>
-      <c r="B246" s="17"/>
-      <c r="C246" s="18"/>
-      <c r="D246" s="16"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="13"/>
     </row>
     <row r="247" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="30"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="12"/>
-      <c r="D247" s="13"/>
+      <c r="B247" s="17"/>
+      <c r="C247" s="18"/>
+      <c r="D247" s="16"/>
     </row>
     <row r="248" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="30"/>
-      <c r="B248" s="17"/>
-      <c r="C248" s="18"/>
-      <c r="D248" s="16"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="13"/>
     </row>
     <row r="249" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="30"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="13"/>
+      <c r="B249" s="17"/>
+      <c r="C249" s="18"/>
+      <c r="D249" s="16"/>
     </row>
     <row r="250" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
-      <c r="B250" s="17"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="16"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="13"/>
     </row>
     <row r="251" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="30"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="12"/>
-      <c r="D251" s="13"/>
+      <c r="B251" s="17"/>
+      <c r="C251" s="18"/>
+      <c r="D251" s="16"/>
     </row>
     <row r="252" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="30"/>
-      <c r="B252" s="17"/>
-      <c r="C252" s="18"/>
-      <c r="D252" s="16"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="13"/>
     </row>
     <row r="253" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="30"/>
-      <c r="B253" s="11"/>
-      <c r="C253" s="12"/>
-      <c r="D253" s="13"/>
+      <c r="B253" s="17"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="16"/>
     </row>
     <row r="254" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="30"/>
-      <c r="B254" s="17"/>
-      <c r="C254" s="18"/>
-      <c r="D254" s="16"/>
+      <c r="B254" s="11"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="13"/>
     </row>
     <row r="255" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="30"/>
-      <c r="B255" s="11"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="13"/>
+      <c r="B255" s="17"/>
+      <c r="C255" s="18"/>
+      <c r="D255" s="16"/>
     </row>
     <row r="256" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="30"/>
-      <c r="B256" s="17"/>
-      <c r="C256" s="18"/>
-      <c r="D256" s="16"/>
+      <c r="B256" s="11"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="13"/>
     </row>
     <row r="257" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="30"/>
-      <c r="B257" s="11"/>
-      <c r="C257" s="12"/>
-      <c r="D257" s="13"/>
+      <c r="B257" s="17"/>
+      <c r="C257" s="18"/>
+      <c r="D257" s="16"/>
     </row>
     <row r="258" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="30"/>
-      <c r="B258" s="17"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="16"/>
+      <c r="B258" s="11"/>
+      <c r="C258" s="12"/>
+      <c r="D258" s="13"/>
     </row>
     <row r="259" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="30"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="13"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="18"/>
+      <c r="D259" s="16"/>
     </row>
     <row r="260" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="30"/>
-      <c r="B260" s="17"/>
-      <c r="C260" s="18"/>
-      <c r="D260" s="16"/>
+      <c r="B260" s="11"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="13"/>
     </row>
     <row r="261" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="30"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="13"/>
+      <c r="B261" s="17"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="16"/>
     </row>
     <row r="262" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="30"/>
-      <c r="B262" s="17"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="16"/>
+      <c r="B262" s="11"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="13"/>
     </row>
     <row r="263" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="30"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="13"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="18"/>
+      <c r="D263" s="16"/>
     </row>
     <row r="264" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="30"/>
-      <c r="B264" s="17"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="16"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="13"/>
     </row>
     <row r="265" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="30"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="13"/>
+      <c r="B265" s="17"/>
+      <c r="C265" s="18"/>
+      <c r="D265" s="16"/>
     </row>
     <row r="266" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="30"/>
-      <c r="B266" s="17"/>
-      <c r="C266" s="18"/>
-      <c r="D266" s="16"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="13"/>
     </row>
     <row r="267" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="30"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="12"/>
-      <c r="D267" s="13"/>
+      <c r="B267" s="17"/>
+      <c r="C267" s="18"/>
+      <c r="D267" s="16"/>
     </row>
     <row r="268" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="30"/>
-      <c r="B268" s="17"/>
-      <c r="C268" s="18"/>
-      <c r="D268" s="16"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="12"/>
+      <c r="D268" s="13"/>
     </row>
     <row r="269" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="30"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="13"/>
+      <c r="B269" s="17"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="16"/>
     </row>
     <row r="270" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="30"/>
-      <c r="B270" s="17"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="16"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="13"/>
     </row>
     <row r="271" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="30"/>
-      <c r="B271" s="11"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="13"/>
+      <c r="B271" s="17"/>
+      <c r="C271" s="18"/>
+      <c r="D271" s="16"/>
     </row>
     <row r="272" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="30"/>
-      <c r="B272" s="17"/>
-      <c r="C272" s="18"/>
-      <c r="D272" s="16"/>
+      <c r="B272" s="11"/>
+      <c r="C272" s="12"/>
+      <c r="D272" s="13"/>
     </row>
     <row r="273" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="30"/>
-      <c r="B273" s="11"/>
-      <c r="C273" s="12"/>
-      <c r="D273" s="13"/>
+      <c r="B273" s="17"/>
+      <c r="C273" s="18"/>
+      <c r="D273" s="16"/>
     </row>
     <row r="274" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="30"/>
-      <c r="B274" s="17"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="16"/>
+      <c r="B274" s="11"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="13"/>
     </row>
     <row r="275" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="30"/>
-      <c r="B275" s="11"/>
-      <c r="C275" s="12"/>
-      <c r="D275" s="13"/>
+      <c r="B275" s="17"/>
+      <c r="C275" s="18"/>
+      <c r="D275" s="16"/>
     </row>
     <row r="276" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="30"/>
-      <c r="B276" s="17"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="16"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="13"/>
     </row>
     <row r="277" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
-      <c r="B277" s="11"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="13"/>
+      <c r="B277" s="17"/>
+      <c r="C277" s="18"/>
+      <c r="D277" s="16"/>
     </row>
     <row r="278" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="30"/>
-      <c r="B278" s="17"/>
-      <c r="C278" s="18"/>
-      <c r="D278" s="16"/>
+      <c r="B278" s="11"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="13"/>
     </row>
     <row r="279" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="30"/>
-      <c r="B279" s="11"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="13"/>
+      <c r="B279" s="17"/>
+      <c r="C279" s="18"/>
+      <c r="D279" s="16"/>
     </row>
     <row r="280" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="30"/>
-      <c r="B280" s="17"/>
-      <c r="C280" s="18"/>
-      <c r="D280" s="16"/>
+      <c r="B280" s="11"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="13"/>
     </row>
     <row r="281" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="30"/>
-      <c r="B281" s="11"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="13"/>
+      <c r="B281" s="17"/>
+      <c r="C281" s="18"/>
+      <c r="D281" s="16"/>
     </row>
     <row r="282" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="30"/>
-      <c r="B282" s="17"/>
-      <c r="C282" s="18"/>
-      <c r="D282" s="16"/>
+      <c r="B282" s="11"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="13"/>
     </row>
     <row r="283" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="30"/>
-      <c r="B283" s="11"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="13"/>
+      <c r="B283" s="17"/>
+      <c r="C283" s="18"/>
+      <c r="D283" s="16"/>
     </row>
     <row r="284" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="30"/>
-      <c r="B284" s="17"/>
-      <c r="C284" s="18"/>
-      <c r="D284" s="16"/>
+      <c r="B284" s="11"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="13"/>
     </row>
     <row r="285" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="30"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="13"/>
+      <c r="B285" s="17"/>
+      <c r="C285" s="18"/>
+      <c r="D285" s="16"/>
     </row>
     <row r="286" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="30"/>
-      <c r="B286" s="17"/>
-      <c r="C286" s="18"/>
-      <c r="D286" s="16"/>
+      <c r="B286" s="11"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="13"/>
     </row>
     <row r="287" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="30"/>
-      <c r="B287" s="11"/>
-      <c r="C287" s="12"/>
-      <c r="D287" s="13"/>
+      <c r="B287" s="17"/>
+      <c r="C287" s="18"/>
+      <c r="D287" s="16"/>
     </row>
     <row r="288" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="30"/>
-      <c r="B288" s="17"/>
-      <c r="C288" s="18"/>
-      <c r="D288" s="16"/>
+      <c r="B288" s="11"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="13"/>
     </row>
     <row r="289" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="30"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="12"/>
-      <c r="D289" s="13"/>
+      <c r="B289" s="17"/>
+      <c r="C289" s="18"/>
+      <c r="D289" s="16"/>
     </row>
     <row r="290" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="30"/>
-      <c r="B290" s="17"/>
-      <c r="C290" s="18"/>
-      <c r="D290" s="16"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="13"/>
     </row>
     <row r="291" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="30"/>
-      <c r="B291" s="11"/>
-      <c r="C291" s="12"/>
-      <c r="D291" s="13"/>
+      <c r="B291" s="17"/>
+      <c r="C291" s="18"/>
+      <c r="D291" s="16"/>
     </row>
     <row r="292" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="30"/>
-      <c r="B292" s="17"/>
-      <c r="C292" s="18"/>
-      <c r="D292" s="16"/>
+      <c r="B292" s="11"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="13"/>
     </row>
     <row r="293" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="30"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="12"/>
-      <c r="D293" s="13"/>
+      <c r="B293" s="17"/>
+      <c r="C293" s="18"/>
+      <c r="D293" s="16"/>
     </row>
     <row r="294" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="30"/>
-      <c r="B294" s="17"/>
-      <c r="C294" s="18"/>
-      <c r="D294" s="16"/>
+      <c r="B294" s="11"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="13"/>
     </row>
     <row r="295" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="30"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="12"/>
-      <c r="D295" s="13"/>
+      <c r="B295" s="17"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="16"/>
     </row>
     <row r="296" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="30"/>
-      <c r="B296" s="17"/>
-      <c r="C296" s="18"/>
-      <c r="D296" s="16"/>
-    </row>
-    <row r="297" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="30"/>
-      <c r="B297" s="11"/>
-      <c r="C297" s="12"/>
-      <c r="D297" s="13"/>
+      <c r="B296" s="11"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A132:A133"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A108:A111"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A101:A107"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A52:A54"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3102,7 +3161,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C7:C8">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3112,7 +3171,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C9 C11">
+    <cfRule type="iconSet" priority="293">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3122,7 +3191,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="C12:C17">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3132,7 +3201,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C18:C22">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3142,27 +3211,57 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C17">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="iconSet" priority="277">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C27">
+    <cfRule type="iconSet" priority="272">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="iconSet" priority="273">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="iconSet" priority="274">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="269">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="275">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C36 C38:C46">
     <cfRule type="iconSet" priority="276">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3172,37 +3271,37 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="iconSet" priority="275">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C26">
-    <cfRule type="iconSet" priority="280">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="iconSet" priority="269">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C37">
+    <cfRule type="iconSet" priority="265">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="iconSet" priority="268">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C49">
+    <cfRule type="iconSet" priority="264">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
     <cfRule type="iconSet" priority="270">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3212,88 +3311,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="iconSet" priority="271">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="272">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="267">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="273">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C37 C39:C47">
-    <cfRule type="iconSet" priority="274">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="263">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="iconSet" priority="266">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C50">
-    <cfRule type="iconSet" priority="262">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="268">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3312,7 +3331,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
+  <conditionalFormatting sqref="C53:C54">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
     <cfRule type="iconSet" priority="259">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3322,7 +3361,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:C55">
+  <conditionalFormatting sqref="C57">
     <cfRule type="iconSet" priority="258">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3332,17 +3371,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C58">
     <cfRule type="iconSet" priority="257">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3352,18 +3381,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="iconSet" priority="256">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="iconSet" priority="255">
+    <cfRule type="iconSet" priority="254">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3373,6 +3392,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
+    <cfRule type="iconSet" priority="253">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
     <cfRule type="iconSet" priority="252">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3382,7 +3411,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="C62">
     <cfRule type="iconSet" priority="251">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3392,7 +3421,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C63">
     <cfRule type="iconSet" priority="250">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3402,7 +3431,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C64">
     <cfRule type="iconSet" priority="249">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3412,7 +3441,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C65">
     <cfRule type="iconSet" priority="248">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3422,7 +3451,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C66">
     <cfRule type="iconSet" priority="247">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3432,7 +3461,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C67">
     <cfRule type="iconSet" priority="246">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3442,18 +3471,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="iconSet" priority="245">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C68">
-    <cfRule type="iconSet" priority="244">
+    <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3463,6 +3482,176 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="iconSet" priority="243">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="241">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="240">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="239">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="238">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="237">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="236">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="235">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="234">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="233">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="232">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="231">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="230">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3472,27 +3661,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="241">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
+  <conditionalFormatting sqref="C87">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3502,147 +3671,37 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="239">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="238">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="237">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="236">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="235">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="234">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="233">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="232">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="231">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="230">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="229">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="228">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="227">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="iconSet" priority="226">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
+  <conditionalFormatting sqref="C88">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C90">
+    <cfRule type="iconSet" priority="224">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3652,7 +3711,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
+  <conditionalFormatting sqref="C93:C94">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3662,48 +3721,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="iconSet" priority="223">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90:C91">
-    <cfRule type="iconSet" priority="222">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="220">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94:C95">
-    <cfRule type="iconSet" priority="8">
+  <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="218">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3713,6 +3732,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="217">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
     <cfRule type="iconSet" priority="216">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3722,7 +3751,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
+  <conditionalFormatting sqref="C98">
     <cfRule type="iconSet" priority="215">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3732,7 +3761,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
+  <conditionalFormatting sqref="C99">
     <cfRule type="iconSet" priority="214">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3742,7 +3771,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
+  <conditionalFormatting sqref="C100">
     <cfRule type="iconSet" priority="213">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3752,7 +3781,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
+  <conditionalFormatting sqref="C101">
     <cfRule type="iconSet" priority="212">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3762,7 +3791,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
+  <conditionalFormatting sqref="C102">
     <cfRule type="iconSet" priority="211">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3772,7 +3801,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
+  <conditionalFormatting sqref="C103">
     <cfRule type="iconSet" priority="210">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3782,7 +3811,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
+  <conditionalFormatting sqref="C104">
     <cfRule type="iconSet" priority="209">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3792,7 +3821,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
+  <conditionalFormatting sqref="C105">
     <cfRule type="iconSet" priority="208">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3802,7 +3831,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
+  <conditionalFormatting sqref="C106">
     <cfRule type="iconSet" priority="207">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3812,7 +3841,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
+  <conditionalFormatting sqref="C107">
     <cfRule type="iconSet" priority="206">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3822,7 +3851,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
+  <conditionalFormatting sqref="C108">
     <cfRule type="iconSet" priority="205">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3832,7 +3861,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
+  <conditionalFormatting sqref="C109">
     <cfRule type="iconSet" priority="204">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3842,7 +3871,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
+  <conditionalFormatting sqref="C110">
     <cfRule type="iconSet" priority="203">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3852,7 +3881,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
+  <conditionalFormatting sqref="C111:C113">
     <cfRule type="iconSet" priority="202">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3862,27 +3891,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="iconSet" priority="201">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112:C114">
-    <cfRule type="iconSet" priority="200">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:C116">
+  <conditionalFormatting sqref="C114:C115">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
     <cfRule type="iconSet" priority="197">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3893,6 +3912,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
     <cfRule type="iconSet" priority="195">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3902,7 +3931,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
+  <conditionalFormatting sqref="C119">
     <cfRule type="iconSet" priority="194">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3912,7 +3941,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
+  <conditionalFormatting sqref="C120">
     <cfRule type="iconSet" priority="193">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3922,7 +3951,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
+  <conditionalFormatting sqref="C121">
     <cfRule type="iconSet" priority="192">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3932,7 +3961,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
+  <conditionalFormatting sqref="C122">
     <cfRule type="iconSet" priority="191">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3942,7 +3971,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
+  <conditionalFormatting sqref="C123">
     <cfRule type="iconSet" priority="190">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3952,7 +3981,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
+  <conditionalFormatting sqref="C124">
     <cfRule type="iconSet" priority="189">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3962,7 +3991,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
+  <conditionalFormatting sqref="C125">
     <cfRule type="iconSet" priority="188">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3972,7 +4001,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
+  <conditionalFormatting sqref="C126">
     <cfRule type="iconSet" priority="187">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3982,7 +4011,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
+  <conditionalFormatting sqref="C127">
     <cfRule type="iconSet" priority="186">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3992,7 +4021,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
+  <conditionalFormatting sqref="C128">
     <cfRule type="iconSet" priority="185">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4002,7 +4031,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
+  <conditionalFormatting sqref="C129">
     <cfRule type="iconSet" priority="184">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4012,7 +4041,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
+  <conditionalFormatting sqref="C130">
     <cfRule type="iconSet" priority="183">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4022,7 +4051,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
+  <conditionalFormatting sqref="C131">
     <cfRule type="iconSet" priority="182">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4032,7 +4061,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
+  <conditionalFormatting sqref="C132">
     <cfRule type="iconSet" priority="181">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4042,7 +4071,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
+  <conditionalFormatting sqref="C133">
     <cfRule type="iconSet" priority="180">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4052,7 +4081,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
+  <conditionalFormatting sqref="C134">
     <cfRule type="iconSet" priority="179">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4062,7 +4091,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
+  <conditionalFormatting sqref="C135">
     <cfRule type="iconSet" priority="178">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4072,7 +4101,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
+  <conditionalFormatting sqref="C136">
     <cfRule type="iconSet" priority="177">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4082,7 +4111,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
+  <conditionalFormatting sqref="C137">
     <cfRule type="iconSet" priority="176">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4092,7 +4121,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
+  <conditionalFormatting sqref="C138">
     <cfRule type="iconSet" priority="175">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4102,7 +4131,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
+  <conditionalFormatting sqref="C139">
     <cfRule type="iconSet" priority="174">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4112,7 +4141,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
+  <conditionalFormatting sqref="C140">
     <cfRule type="iconSet" priority="173">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4122,7 +4151,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
+  <conditionalFormatting sqref="C141">
     <cfRule type="iconSet" priority="172">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4132,7 +4161,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
+  <conditionalFormatting sqref="C142">
     <cfRule type="iconSet" priority="171">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4142,7 +4171,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
+  <conditionalFormatting sqref="C143">
     <cfRule type="iconSet" priority="170">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4152,7 +4181,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
+  <conditionalFormatting sqref="C144">
     <cfRule type="iconSet" priority="169">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4162,7 +4191,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
+  <conditionalFormatting sqref="C145">
     <cfRule type="iconSet" priority="168">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4172,7 +4201,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
+  <conditionalFormatting sqref="C146">
     <cfRule type="iconSet" priority="167">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4182,7 +4211,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
+  <conditionalFormatting sqref="C147">
     <cfRule type="iconSet" priority="166">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4192,7 +4221,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
+  <conditionalFormatting sqref="C148">
     <cfRule type="iconSet" priority="165">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4202,7 +4231,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
+  <conditionalFormatting sqref="C149">
     <cfRule type="iconSet" priority="164">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4212,7 +4241,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
+  <conditionalFormatting sqref="C150">
     <cfRule type="iconSet" priority="163">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4222,7 +4251,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
+  <conditionalFormatting sqref="C151">
     <cfRule type="iconSet" priority="162">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4232,7 +4261,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
+  <conditionalFormatting sqref="C152">
     <cfRule type="iconSet" priority="161">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4242,7 +4271,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
+  <conditionalFormatting sqref="C153">
     <cfRule type="iconSet" priority="160">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4252,7 +4281,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
+  <conditionalFormatting sqref="C154">
     <cfRule type="iconSet" priority="159">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4262,7 +4291,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
+  <conditionalFormatting sqref="C155">
     <cfRule type="iconSet" priority="158">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4272,7 +4301,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
+  <conditionalFormatting sqref="C156">
     <cfRule type="iconSet" priority="157">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4282,7 +4311,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
+  <conditionalFormatting sqref="C157">
     <cfRule type="iconSet" priority="156">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4292,7 +4321,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
+  <conditionalFormatting sqref="C158">
     <cfRule type="iconSet" priority="155">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4302,7 +4331,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
+  <conditionalFormatting sqref="C159">
     <cfRule type="iconSet" priority="154">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4312,7 +4341,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
+  <conditionalFormatting sqref="C160">
     <cfRule type="iconSet" priority="153">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4322,7 +4351,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
+  <conditionalFormatting sqref="C161">
     <cfRule type="iconSet" priority="152">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4332,7 +4361,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
+  <conditionalFormatting sqref="C162">
     <cfRule type="iconSet" priority="151">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4342,7 +4371,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
+  <conditionalFormatting sqref="C163">
     <cfRule type="iconSet" priority="150">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4352,7 +4381,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
+  <conditionalFormatting sqref="C164">
     <cfRule type="iconSet" priority="149">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4362,7 +4391,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
+  <conditionalFormatting sqref="C165">
     <cfRule type="iconSet" priority="148">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4372,7 +4401,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
+  <conditionalFormatting sqref="C166">
     <cfRule type="iconSet" priority="147">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4382,7 +4411,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
+  <conditionalFormatting sqref="C167">
     <cfRule type="iconSet" priority="146">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4392,7 +4421,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
+  <conditionalFormatting sqref="C168">
     <cfRule type="iconSet" priority="145">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4402,7 +4431,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
+  <conditionalFormatting sqref="C169">
     <cfRule type="iconSet" priority="144">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4412,7 +4441,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
+  <conditionalFormatting sqref="C170">
     <cfRule type="iconSet" priority="143">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4422,7 +4451,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
+  <conditionalFormatting sqref="C171">
     <cfRule type="iconSet" priority="142">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4432,7 +4461,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
+  <conditionalFormatting sqref="C172">
     <cfRule type="iconSet" priority="141">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4442,7 +4471,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
+  <conditionalFormatting sqref="C173">
     <cfRule type="iconSet" priority="140">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4452,7 +4481,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
+  <conditionalFormatting sqref="C174">
     <cfRule type="iconSet" priority="139">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4462,7 +4491,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
+  <conditionalFormatting sqref="C175">
     <cfRule type="iconSet" priority="138">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4472,7 +4501,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
+  <conditionalFormatting sqref="C176">
     <cfRule type="iconSet" priority="137">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4482,7 +4511,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
+  <conditionalFormatting sqref="C177">
     <cfRule type="iconSet" priority="136">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4492,7 +4521,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
+  <conditionalFormatting sqref="C178">
     <cfRule type="iconSet" priority="135">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4502,7 +4531,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
+  <conditionalFormatting sqref="C179">
     <cfRule type="iconSet" priority="134">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4512,7 +4541,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
+  <conditionalFormatting sqref="C180">
     <cfRule type="iconSet" priority="133">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4522,7 +4551,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
+  <conditionalFormatting sqref="C181">
     <cfRule type="iconSet" priority="132">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4532,7 +4561,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
+  <conditionalFormatting sqref="C182">
     <cfRule type="iconSet" priority="131">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4542,7 +4571,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
+  <conditionalFormatting sqref="C183">
     <cfRule type="iconSet" priority="130">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4552,7 +4581,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
+  <conditionalFormatting sqref="C184">
     <cfRule type="iconSet" priority="129">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4562,7 +4591,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
+  <conditionalFormatting sqref="C185">
     <cfRule type="iconSet" priority="128">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4572,7 +4601,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
+  <conditionalFormatting sqref="C186">
     <cfRule type="iconSet" priority="127">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4582,7 +4611,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
+  <conditionalFormatting sqref="C187">
     <cfRule type="iconSet" priority="126">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4592,7 +4621,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
+  <conditionalFormatting sqref="C188">
     <cfRule type="iconSet" priority="125">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4602,7 +4631,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
+  <conditionalFormatting sqref="C189">
     <cfRule type="iconSet" priority="124">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4612,7 +4641,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
+  <conditionalFormatting sqref="C190">
     <cfRule type="iconSet" priority="123">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4622,7 +4651,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
+  <conditionalFormatting sqref="C191">
     <cfRule type="iconSet" priority="122">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4632,7 +4661,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
+  <conditionalFormatting sqref="C192">
     <cfRule type="iconSet" priority="121">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4642,7 +4671,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
+  <conditionalFormatting sqref="C193">
     <cfRule type="iconSet" priority="120">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4652,7 +4681,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
+  <conditionalFormatting sqref="C194">
     <cfRule type="iconSet" priority="119">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4662,7 +4691,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
+  <conditionalFormatting sqref="C195">
     <cfRule type="iconSet" priority="118">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4672,7 +4701,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
+  <conditionalFormatting sqref="C196">
     <cfRule type="iconSet" priority="117">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4682,7 +4711,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
+  <conditionalFormatting sqref="C197">
     <cfRule type="iconSet" priority="116">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4692,7 +4721,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
+  <conditionalFormatting sqref="C198">
     <cfRule type="iconSet" priority="115">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4702,7 +4731,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
+  <conditionalFormatting sqref="C199">
     <cfRule type="iconSet" priority="114">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4712,7 +4741,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
+  <conditionalFormatting sqref="C200">
     <cfRule type="iconSet" priority="113">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4722,7 +4751,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
+  <conditionalFormatting sqref="C201">
     <cfRule type="iconSet" priority="112">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4732,7 +4761,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
+  <conditionalFormatting sqref="C202">
     <cfRule type="iconSet" priority="111">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4742,7 +4771,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
+  <conditionalFormatting sqref="C203">
     <cfRule type="iconSet" priority="110">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4752,7 +4781,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
+  <conditionalFormatting sqref="C204">
     <cfRule type="iconSet" priority="109">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4762,7 +4791,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
+  <conditionalFormatting sqref="C205">
     <cfRule type="iconSet" priority="108">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4772,7 +4801,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
+  <conditionalFormatting sqref="C206">
     <cfRule type="iconSet" priority="107">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4782,7 +4811,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
+  <conditionalFormatting sqref="C207">
     <cfRule type="iconSet" priority="106">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4792,7 +4821,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
+  <conditionalFormatting sqref="C208">
     <cfRule type="iconSet" priority="105">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4802,7 +4831,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
+  <conditionalFormatting sqref="C209">
     <cfRule type="iconSet" priority="104">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4812,7 +4841,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
+  <conditionalFormatting sqref="C210">
     <cfRule type="iconSet" priority="103">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4822,7 +4851,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
+  <conditionalFormatting sqref="C211">
     <cfRule type="iconSet" priority="102">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4832,7 +4861,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
+  <conditionalFormatting sqref="C212">
     <cfRule type="iconSet" priority="101">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4842,7 +4871,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
+  <conditionalFormatting sqref="C213">
     <cfRule type="iconSet" priority="100">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4852,7 +4881,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
+  <conditionalFormatting sqref="C214">
     <cfRule type="iconSet" priority="99">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4862,7 +4891,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
+  <conditionalFormatting sqref="C215">
     <cfRule type="iconSet" priority="98">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4872,7 +4901,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
+  <conditionalFormatting sqref="C216">
     <cfRule type="iconSet" priority="97">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4882,7 +4911,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
+  <conditionalFormatting sqref="C217">
     <cfRule type="iconSet" priority="96">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4892,7 +4921,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
+  <conditionalFormatting sqref="C218">
     <cfRule type="iconSet" priority="95">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4902,7 +4931,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
+  <conditionalFormatting sqref="C219">
     <cfRule type="iconSet" priority="94">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4912,7 +4941,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
+  <conditionalFormatting sqref="C220">
     <cfRule type="iconSet" priority="93">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4922,7 +4951,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
+  <conditionalFormatting sqref="C221">
     <cfRule type="iconSet" priority="92">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4932,7 +4961,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
+  <conditionalFormatting sqref="C222">
     <cfRule type="iconSet" priority="91">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4942,7 +4971,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
+  <conditionalFormatting sqref="C223">
     <cfRule type="iconSet" priority="90">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4952,7 +4981,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
+  <conditionalFormatting sqref="C224">
     <cfRule type="iconSet" priority="89">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4962,7 +4991,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
+  <conditionalFormatting sqref="C225">
     <cfRule type="iconSet" priority="88">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4972,7 +5001,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
+  <conditionalFormatting sqref="C226">
     <cfRule type="iconSet" priority="87">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4982,7 +5011,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
+  <conditionalFormatting sqref="C227">
     <cfRule type="iconSet" priority="86">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4992,7 +5021,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
+  <conditionalFormatting sqref="C228">
     <cfRule type="iconSet" priority="85">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5002,7 +5031,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
+  <conditionalFormatting sqref="C229">
     <cfRule type="iconSet" priority="84">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5012,7 +5041,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
+  <conditionalFormatting sqref="C230">
     <cfRule type="iconSet" priority="83">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5022,7 +5051,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
+  <conditionalFormatting sqref="C231">
     <cfRule type="iconSet" priority="82">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5032,7 +5061,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
+  <conditionalFormatting sqref="C232">
     <cfRule type="iconSet" priority="81">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5042,7 +5071,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
+  <conditionalFormatting sqref="C233">
     <cfRule type="iconSet" priority="80">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5052,7 +5081,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
+  <conditionalFormatting sqref="C234">
     <cfRule type="iconSet" priority="79">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5062,7 +5091,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
+  <conditionalFormatting sqref="C235">
     <cfRule type="iconSet" priority="78">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5072,7 +5101,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
+  <conditionalFormatting sqref="C236">
     <cfRule type="iconSet" priority="77">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5082,7 +5111,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
+  <conditionalFormatting sqref="C237">
     <cfRule type="iconSet" priority="76">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5092,7 +5121,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
+  <conditionalFormatting sqref="C238">
     <cfRule type="iconSet" priority="75">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5102,7 +5131,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
+  <conditionalFormatting sqref="C239">
     <cfRule type="iconSet" priority="74">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5112,7 +5141,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
+  <conditionalFormatting sqref="C240">
     <cfRule type="iconSet" priority="73">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5122,7 +5151,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
+  <conditionalFormatting sqref="C241">
     <cfRule type="iconSet" priority="72">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5132,7 +5161,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
+  <conditionalFormatting sqref="C242">
     <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5142,7 +5171,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
+  <conditionalFormatting sqref="C243">
     <cfRule type="iconSet" priority="70">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5152,7 +5181,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
+  <conditionalFormatting sqref="C244">
     <cfRule type="iconSet" priority="69">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5162,7 +5191,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
+  <conditionalFormatting sqref="C245">
     <cfRule type="iconSet" priority="68">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5172,7 +5201,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
+  <conditionalFormatting sqref="C246">
     <cfRule type="iconSet" priority="67">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5182,7 +5211,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
+  <conditionalFormatting sqref="C247">
     <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5192,7 +5221,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
+  <conditionalFormatting sqref="C248">
     <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5202,7 +5231,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
+  <conditionalFormatting sqref="C249">
     <cfRule type="iconSet" priority="64">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5212,7 +5241,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
+  <conditionalFormatting sqref="C250">
     <cfRule type="iconSet" priority="63">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5222,7 +5251,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
+  <conditionalFormatting sqref="C251">
     <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5232,7 +5261,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
+  <conditionalFormatting sqref="C252">
     <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5242,7 +5271,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
+  <conditionalFormatting sqref="C253">
     <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5252,7 +5281,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
+  <conditionalFormatting sqref="C254">
     <cfRule type="iconSet" priority="59">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5262,7 +5291,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
+  <conditionalFormatting sqref="C255">
     <cfRule type="iconSet" priority="58">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5272,7 +5301,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
+  <conditionalFormatting sqref="C256">
     <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5282,7 +5311,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
+  <conditionalFormatting sqref="C257">
     <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5292,7 +5321,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
+  <conditionalFormatting sqref="C258">
     <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5302,7 +5331,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
+  <conditionalFormatting sqref="C259">
     <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5312,7 +5341,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
+  <conditionalFormatting sqref="C260">
     <cfRule type="iconSet" priority="53">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5322,7 +5351,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
+  <conditionalFormatting sqref="C261">
     <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5332,7 +5361,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
+  <conditionalFormatting sqref="C262">
     <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5342,7 +5371,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
+  <conditionalFormatting sqref="C263">
     <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5352,7 +5381,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
+  <conditionalFormatting sqref="C264">
     <cfRule type="iconSet" priority="49">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5362,7 +5391,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
+  <conditionalFormatting sqref="C265">
     <cfRule type="iconSet" priority="48">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5372,7 +5401,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
+  <conditionalFormatting sqref="C266">
     <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5382,7 +5411,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
+  <conditionalFormatting sqref="C267">
     <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5392,7 +5421,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
+  <conditionalFormatting sqref="C268">
     <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5402,7 +5431,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
+  <conditionalFormatting sqref="C269">
     <cfRule type="iconSet" priority="44">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5412,7 +5441,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
+  <conditionalFormatting sqref="C270">
     <cfRule type="iconSet" priority="43">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5422,7 +5451,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
+  <conditionalFormatting sqref="C271">
     <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5432,7 +5461,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
+  <conditionalFormatting sqref="C272">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5442,7 +5471,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
+  <conditionalFormatting sqref="C273">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5452,7 +5481,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
+  <conditionalFormatting sqref="C274">
     <cfRule type="iconSet" priority="39">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5462,7 +5491,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
+  <conditionalFormatting sqref="C275">
     <cfRule type="iconSet" priority="38">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5472,7 +5501,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
+  <conditionalFormatting sqref="C276">
     <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5482,7 +5511,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
+  <conditionalFormatting sqref="C277">
     <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5492,7 +5521,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
+  <conditionalFormatting sqref="C278">
     <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5502,7 +5531,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
+  <conditionalFormatting sqref="C279">
     <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5512,7 +5541,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
+  <conditionalFormatting sqref="C280">
     <cfRule type="iconSet" priority="33">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5522,7 +5551,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
+  <conditionalFormatting sqref="C281">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5532,7 +5561,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
+  <conditionalFormatting sqref="C282">
     <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5542,7 +5571,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
+  <conditionalFormatting sqref="C283">
     <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5552,7 +5581,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
+  <conditionalFormatting sqref="C284">
     <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5562,7 +5591,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
+  <conditionalFormatting sqref="C285">
     <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5572,7 +5601,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
+  <conditionalFormatting sqref="C286">
     <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5582,7 +5611,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
+  <conditionalFormatting sqref="C287">
     <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5592,7 +5621,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
+  <conditionalFormatting sqref="C288">
     <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5602,7 +5631,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
+  <conditionalFormatting sqref="C289">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5612,7 +5641,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
+  <conditionalFormatting sqref="C290">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5622,7 +5651,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
+  <conditionalFormatting sqref="C291">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5632,7 +5661,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
+  <conditionalFormatting sqref="C292">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5642,7 +5671,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
+  <conditionalFormatting sqref="C293">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5652,7 +5681,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
+  <conditionalFormatting sqref="C294">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5662,7 +5691,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
+  <conditionalFormatting sqref="C295">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5672,7 +5701,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
+  <conditionalFormatting sqref="C296">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5682,37 +5711,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C297">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C11">
-    <cfRule type="iconSet" priority="291">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C21">
+  <conditionalFormatting sqref="C23">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C26">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\VisionAI_Audio\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\VisionAI-Audio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447E15A-4F4D-48AD-9944-1867491AEDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF65A77-B5FA-4E27-BA93-5A8C9AA66A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dailytasklist" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,16 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">dailytasklist!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>DAILY TASKS</t>
   </si>
@@ -137,6 +142,44 @@
   </si>
   <si>
     <t>Test metrics_calculator.py by passing prediction(faster-whisper) and reference(openai-whisper) json and save their results</t>
+  </si>
+  <si>
+    <t>create a new py file which combine the results of all models into one combine_summary.json</t>
+  </si>
+  <si>
+    <t>Create model_comparison_analysis.ipynb on colab for visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate different graphs for visualization </t>
+  </si>
+  <si>
+    <t>Update README.md</t>
+  </si>
+  <si>
+    <t>Create model_evaluation.md</t>
+  </si>
+  <si>
+    <t>Research about insanely fast whisper</t>
+  </si>
+  <si>
+    <t>push all code related to task 2 to github</t>
+  </si>
+  <si>
+    <t>Understand requirements for task 3</t>
+  </si>
+  <si>
+    <t>Find 10-15 test audio's for task 3</t>
+  </si>
+  <si>
+    <t>Create a notebook for task 3 called task3_fasterWhisper_optimization.ipynb</t>
+  </si>
+  <si>
+    <t>Section 1 of the notebook                                                                                                                         Set Up and Load Data:
+Import necessary libraries and set up the environment.
+Load sample audio files for testing, including noisy, corrupted, and clean audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 2: Audio preprocessing and error handling </t>
   </si>
 </sst>
 </file>
@@ -691,6 +734,7 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -702,7 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,8 +1177,8 @@
   </sheetPr>
   <dimension ref="A1:F296"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1149,12 +1192,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1188,7 +1231,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1201,7 +1244,7 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1214,7 +1257,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1286,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1299,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1269,7 +1312,7 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="39">
         <v>45940</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1283,7 +1326,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1295,7 +1338,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +1350,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
@@ -1319,7 +1362,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1331,7 +1374,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1357,7 +1400,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +1412,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1381,7 +1424,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1393,7 +1436,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1462,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1431,7 +1474,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1443,7 +1486,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
@@ -1455,7 +1498,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1467,106 +1510,188 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="39">
+        <v>45945</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="16">
+        <v>45945</v>
+      </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="16">
+        <v>45945</v>
+      </c>
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="16">
+        <v>45945</v>
+      </c>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="16">
+        <v>45945</v>
+      </c>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="16">
+        <v>45945</v>
+      </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="16">
+        <v>45945</v>
+      </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="16">
+        <v>45945</v>
+      </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="16">
+        <v>45945</v>
+      </c>
       <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="A35" s="42">
+        <v>45946</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="16">
+        <v>45952</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="16">
+        <v>45952</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="16">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="16">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="16">
+        <v>45952</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13"/>
@@ -1578,19 +1703,19 @@
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="27"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="13"/>
@@ -1602,25 +1727,25 @@
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="28"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -1632,13 +1757,13 @@
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="29"/>
       <c r="C53" s="18"/>
       <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13"/>
@@ -1650,31 +1775,31 @@
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
@@ -1686,37 +1811,37 @@
       <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="16"/>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="16"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="16"/>
@@ -1728,13 +1853,13 @@
       <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="11"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
@@ -1746,7 +1871,7 @@
       <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
@@ -1758,7 +1883,7 @@
       <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
@@ -1770,19 +1895,19 @@
       <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
@@ -1794,19 +1919,19 @@
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
@@ -1818,13 +1943,13 @@
       <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="16"/>
@@ -1836,13 +1961,13 @@
       <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
@@ -1860,7 +1985,7 @@
       <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="16"/>
@@ -1872,13 +1997,13 @@
       <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="16"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
       <c r="D94" s="13"/>
@@ -1896,19 +2021,19 @@
       <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="11"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="16"/>
@@ -1920,37 +2045,37 @@
       <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="16"/>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="13"/>
@@ -1962,19 +2087,19 @@
       <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="11"/>
       <c r="C110" s="12"/>
       <c r="D110" s="13"/>
@@ -1986,13 +2111,13 @@
       <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="17"/>
       <c r="C113" s="18"/>
       <c r="D113" s="16"/>
@@ -2004,13 +2129,13 @@
       <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="17"/>
       <c r="C115" s="18"/>
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
       <c r="D116" s="13"/>
@@ -2022,13 +2147,13 @@
       <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="41"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="17"/>
       <c r="C119" s="18"/>
       <c r="D119" s="16"/>
@@ -2040,19 +2165,19 @@
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="41"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
       <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="34"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
       <c r="D123" s="16"/>
@@ -2064,13 +2189,13 @@
       <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="17"/>
       <c r="C125" s="18"/>
       <c r="D125" s="16"/>
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="34"/>
+      <c r="A126" s="35"/>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="13"/>
@@ -2082,19 +2207,19 @@
       <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="13"/>
     </row>
     <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="17"/>
       <c r="C129" s="18"/>
       <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
+      <c r="A130" s="35"/>
       <c r="B130" s="11"/>
       <c r="C130" s="12"/>
       <c r="D130" s="13"/>
@@ -2112,7 +2237,7 @@
       <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="34"/>
+      <c r="A133" s="35"/>
       <c r="B133" s="17"/>
       <c r="C133" s="18"/>
       <c r="D133" s="16"/>
@@ -3097,23 +3222,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A119"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A27:A34"/>
@@ -3130,8 +3238,2605 @@
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 C11">
+    <cfRule type="iconSet" priority="306">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C17">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C22">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40:C46">
+    <cfRule type="iconSet" priority="289">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="iconSet" priority="281">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C49">
+    <cfRule type="iconSet" priority="277">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="iconSet" priority="283">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="iconSet" priority="276">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="iconSet" priority="274">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C54">
+    <cfRule type="iconSet" priority="273">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="iconSet" priority="275">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="iconSet" priority="272">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="iconSet" priority="271">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="iconSet" priority="270">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="iconSet" priority="267">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="iconSet" priority="266">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="iconSet" priority="265">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="iconSet" priority="264">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="iconSet" priority="263">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="iconSet" priority="259">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="iconSet" priority="28">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="iconSet" priority="256">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="254">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="253">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="252">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="251">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="250">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="249">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="248">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="247">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="246">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="245">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="244">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="243">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="242">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="241">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="iconSet" priority="238">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C90">
+    <cfRule type="iconSet" priority="237">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="235">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C94">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="231">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="230">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="iconSet" priority="227">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="iconSet" priority="226">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="iconSet" priority="224">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="iconSet" priority="223">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="iconSet" priority="221">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="iconSet" priority="220">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="iconSet" priority="219">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="iconSet" priority="218">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="iconSet" priority="217">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="iconSet" priority="216">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:C113">
+    <cfRule type="iconSet" priority="215">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:C115">
+    <cfRule type="iconSet" priority="212">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="210">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="209">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="208">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="207">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="iconSet" priority="206">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="iconSet" priority="205">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="iconSet" priority="204">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="iconSet" priority="203">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="iconSet" priority="202">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="iconSet" priority="201">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="iconSet" priority="200">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="iconSet" priority="198">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="iconSet" priority="192">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="iconSet" priority="191">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="iconSet" priority="190">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="iconSet" priority="189">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="iconSet" priority="188">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="iconSet" priority="187">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="iconSet" priority="186">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="iconSet" priority="185">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="iconSet" priority="184">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="iconSet" priority="183">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="iconSet" priority="182">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="iconSet" priority="181">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="iconSet" priority="180">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="iconSet" priority="179">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="iconSet" priority="178">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="iconSet" priority="177">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="iconSet" priority="176">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="iconSet" priority="175">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="iconSet" priority="174">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="iconSet" priority="173">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="iconSet" priority="172">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="iconSet" priority="171">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="iconSet" priority="170">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="iconSet" priority="169">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="iconSet" priority="168">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="iconSet" priority="167">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="iconSet" priority="166">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="iconSet" priority="165">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="iconSet" priority="164">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="iconSet" priority="163">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="iconSet" priority="162">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="iconSet" priority="161">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="iconSet" priority="160">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="iconSet" priority="159">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="iconSet" priority="158">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="iconSet" priority="157">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="iconSet" priority="156">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="iconSet" priority="155">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="iconSet" priority="154">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="iconSet" priority="153">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="iconSet" priority="152">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="iconSet" priority="151">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="iconSet" priority="150">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="iconSet" priority="148">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="iconSet" priority="147">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="iconSet" priority="146">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="iconSet" priority="144">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="iconSet" priority="143">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184">
+    <cfRule type="iconSet" priority="142">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185">
+    <cfRule type="iconSet" priority="141">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186">
+    <cfRule type="iconSet" priority="140">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="iconSet" priority="139">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="iconSet" priority="137">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="iconSet" priority="136">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="iconSet" priority="135">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="iconSet" priority="134">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193">
+    <cfRule type="iconSet" priority="133">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194">
+    <cfRule type="iconSet" priority="132">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="iconSet" priority="131">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="iconSet" priority="130">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="iconSet" priority="129">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C198">
+    <cfRule type="iconSet" priority="128">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C199">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C200">
+    <cfRule type="iconSet" priority="126">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="iconSet" priority="125">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="iconSet" priority="124">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="iconSet" priority="123">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="iconSet" priority="122">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="iconSet" priority="120">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C207">
+    <cfRule type="iconSet" priority="119">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C208">
+    <cfRule type="iconSet" priority="118">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="iconSet" priority="117">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="iconSet" priority="115">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="iconSet" priority="114">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C213">
+    <cfRule type="iconSet" priority="113">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215">
+    <cfRule type="iconSet" priority="111">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="iconSet" priority="110">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="iconSet" priority="109">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218">
+    <cfRule type="iconSet" priority="108">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219">
+    <cfRule type="iconSet" priority="107">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C220">
+    <cfRule type="iconSet" priority="106">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="iconSet" priority="105">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="iconSet" priority="104">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="iconSet" priority="103">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="iconSet" priority="102">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="iconSet" priority="101">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="iconSet" priority="100">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="iconSet" priority="99">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="iconSet" priority="98">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="iconSet" priority="97">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="iconSet" priority="96">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231">
+    <cfRule type="iconSet" priority="95">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232">
+    <cfRule type="iconSet" priority="94">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233">
+    <cfRule type="iconSet" priority="93">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C234">
+    <cfRule type="iconSet" priority="92">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="iconSet" priority="91">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="iconSet" priority="90">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="iconSet" priority="89">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="iconSet" priority="88">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="iconSet" priority="86">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C241">
+    <cfRule type="iconSet" priority="85">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="iconSet" priority="84">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C243">
+    <cfRule type="iconSet" priority="83">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="iconSet" priority="81">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C247">
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248">
+    <cfRule type="iconSet" priority="78">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C249">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C250">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="iconSet" priority="74">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C267">
+    <cfRule type="iconSet" priority="59">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C268">
+    <cfRule type="iconSet" priority="58">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C269">
+    <cfRule type="iconSet" priority="57">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C273">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C274">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C276">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C278">
+    <cfRule type="iconSet" priority="48">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C280">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C282">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="iconSet" priority="42">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C290">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="iconSet" priority="32">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C295">
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3141,7 +5846,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C32">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3151,7 +5856,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C33">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3161,7 +5866,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="C34">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3171,17 +5876,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C11">
-    <cfRule type="iconSet" priority="293">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C35">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3191,7 +5886,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C17">
+  <conditionalFormatting sqref="C36">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3201,7 +5896,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C22">
+  <conditionalFormatting sqref="C37">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3211,2507 +5906,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="iconSet" priority="272">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="iconSet" priority="273">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="iconSet" priority="274">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="269">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="275">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C36 C38:C46">
-    <cfRule type="iconSet" priority="276">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="iconSet" priority="265">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="iconSet" priority="268">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C49">
-    <cfRule type="iconSet" priority="264">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="iconSet" priority="270">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="263">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="iconSet" priority="261">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C54">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="iconSet" priority="262">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="iconSet" priority="259">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="iconSet" priority="258">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="iconSet" priority="257">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="iconSet" priority="254">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="iconSet" priority="253">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="iconSet" priority="252">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="iconSet" priority="251">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="iconSet" priority="250">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="iconSet" priority="249">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="iconSet" priority="248">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="iconSet" priority="247">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="iconSet" priority="246">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="243">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="241">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="240">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="239">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="238">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="237">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="236">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="235">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="234">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="233">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="232">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="231">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="230">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="229">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="228">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="225">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89:C90">
-    <cfRule type="iconSet" priority="224">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="iconSet" priority="222">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C94">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="iconSet" priority="218">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="iconSet" priority="217">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="iconSet" priority="216">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="iconSet" priority="215">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="iconSet" priority="214">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="iconSet" priority="213">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="iconSet" priority="212">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="iconSet" priority="211">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="iconSet" priority="210">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="iconSet" priority="209">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="iconSet" priority="208">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="iconSet" priority="207">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="iconSet" priority="206">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="iconSet" priority="205">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="iconSet" priority="204">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="iconSet" priority="203">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:C113">
-    <cfRule type="iconSet" priority="202">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C115">
-    <cfRule type="iconSet" priority="199">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="iconSet" priority="197">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="iconSet" priority="196">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="iconSet" priority="195">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="iconSet" priority="194">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="193">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="iconSet" priority="192">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="iconSet" priority="191">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="iconSet" priority="190">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="iconSet" priority="189">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="iconSet" priority="188">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="iconSet" priority="187">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="iconSet" priority="186">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="iconSet" priority="185">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="iconSet" priority="184">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="iconSet" priority="183">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="iconSet" priority="182">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="iconSet" priority="181">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="iconSet" priority="180">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="iconSet" priority="179">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="iconSet" priority="178">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="iconSet" priority="177">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="iconSet" priority="176">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="iconSet" priority="175">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="iconSet" priority="174">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="iconSet" priority="173">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="iconSet" priority="172">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="iconSet" priority="171">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="iconSet" priority="170">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="iconSet" priority="169">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="iconSet" priority="168">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="iconSet" priority="167">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="iconSet" priority="166">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="iconSet" priority="165">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="iconSet" priority="164">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="iconSet" priority="163">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="iconSet" priority="162">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="iconSet" priority="161">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="iconSet" priority="160">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="iconSet" priority="159">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="iconSet" priority="158">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="iconSet" priority="157">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="iconSet" priority="156">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="iconSet" priority="155">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="iconSet" priority="154">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="iconSet" priority="153">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="iconSet" priority="152">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="iconSet" priority="151">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="iconSet" priority="150">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="iconSet" priority="149">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="iconSet" priority="148">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="iconSet" priority="147">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="iconSet" priority="146">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="iconSet" priority="145">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
-    <cfRule type="iconSet" priority="144">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
-    <cfRule type="iconSet" priority="143">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
-    <cfRule type="iconSet" priority="142">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="iconSet" priority="141">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="iconSet" priority="140">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="iconSet" priority="139">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="iconSet" priority="138">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="iconSet" priority="137">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="iconSet" priority="136">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="iconSet" priority="135">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="iconSet" priority="134">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="iconSet" priority="133">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="iconSet" priority="132">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
-    <cfRule type="iconSet" priority="131">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="iconSet" priority="130">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
-    <cfRule type="iconSet" priority="129">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
-    <cfRule type="iconSet" priority="128">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
-    <cfRule type="iconSet" priority="127">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
-    <cfRule type="iconSet" priority="126">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="iconSet" priority="125">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
-    <cfRule type="iconSet" priority="124">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
-    <cfRule type="iconSet" priority="123">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="iconSet" priority="122">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="iconSet" priority="121">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
-    <cfRule type="iconSet" priority="120">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
-    <cfRule type="iconSet" priority="119">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
-    <cfRule type="iconSet" priority="118">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
-    <cfRule type="iconSet" priority="117">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
-    <cfRule type="iconSet" priority="116">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="iconSet" priority="115">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
-    <cfRule type="iconSet" priority="114">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
-    <cfRule type="iconSet" priority="113">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
-    <cfRule type="iconSet" priority="112">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="iconSet" priority="111">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
-    <cfRule type="iconSet" priority="110">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
-    <cfRule type="iconSet" priority="109">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
-    <cfRule type="iconSet" priority="108">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
-    <cfRule type="iconSet" priority="107">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
-    <cfRule type="iconSet" priority="106">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
-    <cfRule type="iconSet" priority="105">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
-    <cfRule type="iconSet" priority="104">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
-    <cfRule type="iconSet" priority="103">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
-    <cfRule type="iconSet" priority="102">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
-    <cfRule type="iconSet" priority="101">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
-    <cfRule type="iconSet" priority="100">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
-    <cfRule type="iconSet" priority="99">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
-    <cfRule type="iconSet" priority="98">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
-    <cfRule type="iconSet" priority="97">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
-    <cfRule type="iconSet" priority="96">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
-    <cfRule type="iconSet" priority="95">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
-    <cfRule type="iconSet" priority="94">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
-    <cfRule type="iconSet" priority="93">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
-    <cfRule type="iconSet" priority="92">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
-    <cfRule type="iconSet" priority="91">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
-    <cfRule type="iconSet" priority="90">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
-    <cfRule type="iconSet" priority="89">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
-    <cfRule type="iconSet" priority="88">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
-    <cfRule type="iconSet" priority="87">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="iconSet" priority="86">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="iconSet" priority="85">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="iconSet" priority="84">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
-    <cfRule type="iconSet" priority="83">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
-    <cfRule type="iconSet" priority="82">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
-    <cfRule type="iconSet" priority="81">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
-    <cfRule type="iconSet" priority="80">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
-    <cfRule type="iconSet" priority="79">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="iconSet" priority="78">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="iconSet" priority="77">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="iconSet" priority="76">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
-    <cfRule type="iconSet" priority="75">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
-    <cfRule type="iconSet" priority="74">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="iconSet" priority="73">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="iconSet" priority="72">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
-    <cfRule type="iconSet" priority="71">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
-    <cfRule type="iconSet" priority="70">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="iconSet" priority="68">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
-    <cfRule type="iconSet" priority="67">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="iconSet" priority="61">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="iconSet" priority="60">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
-    <cfRule type="iconSet" priority="59">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="iconSet" priority="58">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
-    <cfRule type="iconSet" priority="57">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
-    <cfRule type="iconSet" priority="55">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
-    <cfRule type="iconSet" priority="54">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="iconSet" priority="52">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
-    <cfRule type="iconSet" priority="50">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
-    <cfRule type="iconSet" priority="49">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
-    <cfRule type="iconSet" priority="48">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
-    <cfRule type="iconSet" priority="47">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
-    <cfRule type="iconSet" priority="43">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
-    <cfRule type="iconSet" priority="38">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
-    <cfRule type="iconSet" priority="33">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
-    <cfRule type="iconSet" priority="32">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
-    <cfRule type="iconSet" priority="28">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
-    <cfRule type="iconSet" priority="27">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="iconSet" priority="24">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
-    <cfRule type="iconSet" priority="23">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="iconSet" priority="22">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="iconSet" priority="21">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="iconSet" priority="20">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="iconSet" priority="19">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
-    <cfRule type="iconSet" priority="18">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="17">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C38">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5721,7 +5916,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C26">
+  <conditionalFormatting sqref="C39">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\VisionAI-Audio\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\VisionAI_Audio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF65A77-B5FA-4E27-BA93-5A8C9AA66A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A64BDB-370B-4735-B361-BD00A47A9FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dailytasklist" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">dailytasklist!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>DAILY TASKS</t>
   </si>
@@ -180,6 +175,19 @@
   </si>
   <si>
     <t xml:space="preserve">Section 2: Audio preprocessing and error handling </t>
+  </si>
+  <si>
+    <t>Refactor code so that it will run on local notebooks via pycharm instead of colab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Section 3: 1. Load the Faster-Whisper model selected from Task 2.  
+2. Configure inference precision (`float16`, `int8`, etc.) and device (GPU/CPU).  
+3. Prepare functions to benchmark speed, resource usage, and transcription accuracy.  </t>
+  </si>
+  <si>
+    <t>Section 4: Measure transcription speed (real-time factor).
+- Track CPU / GPU / RAM usage during inference.
+- Identify optimal configurations for efficiency vs quality.</t>
   </si>
 </sst>
 </file>
@@ -734,7 +742,6 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,6 +753,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1177,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:F296"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1192,12 +1200,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1231,7 +1239,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1252,7 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1265,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1286,7 +1294,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
@@ -1299,7 +1307,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1312,7 +1320,7 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="38">
         <v>45940</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1326,7 +1334,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1346,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1358,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
@@ -1362,7 +1370,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1374,7 +1382,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1400,7 +1408,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1412,7 +1420,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1424,7 +1432,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1444,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1470,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1474,7 +1482,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1486,7 +1494,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
@@ -1498,7 +1506,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1518,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+      <c r="A27" s="38">
         <v>45945</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1525,7 +1533,7 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
@@ -1538,7 +1546,7 @@
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="7" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1559,7 @@
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="11" t="s">
         <v>39</v>
       </c>
@@ -1564,7 +1572,7 @@
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="17" t="s">
         <v>40</v>
       </c>
@@ -1577,7 +1585,7 @@
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="11" t="s">
         <v>41</v>
       </c>
@@ -1591,7 +1599,7 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="19" t="s">
         <v>43</v>
       </c>
@@ -1604,7 +1612,7 @@
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="11" t="s">
         <v>42</v>
       </c>
@@ -1631,7 +1639,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="11" t="s">
         <v>45</v>
       </c>
@@ -1643,7 +1651,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="19" t="s">
         <v>46</v>
       </c>
@@ -1655,7 +1663,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="11" t="s">
         <v>47</v>
       </c>
@@ -1667,7 +1675,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
@@ -1679,22 +1687,42 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
+      <c r="A40" s="38">
+        <v>45947</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="16">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="16">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="16">
+        <v>45952</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33"/>
@@ -1703,19 +1731,19 @@
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="11"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="27"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="13"/>
@@ -1727,25 +1755,25 @@
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="28"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -1757,13 +1785,13 @@
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
+      <c r="A53" s="41"/>
       <c r="B53" s="29"/>
       <c r="C53" s="18"/>
       <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13"/>
@@ -1775,31 +1803,31 @@
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
@@ -1811,37 +1839,37 @@
       <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
+      <c r="A63" s="41"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="16"/>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="16"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="16"/>
@@ -1853,13 +1881,13 @@
       <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
+      <c r="A69" s="41"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="11"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
@@ -1871,7 +1899,7 @@
       <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
@@ -1883,7 +1911,7 @@
       <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
@@ -1895,19 +1923,19 @@
       <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
@@ -1919,19 +1947,19 @@
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
@@ -1943,13 +1971,13 @@
       <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="34"/>
+      <c r="A84" s="41"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="16"/>
@@ -1961,13 +1989,13 @@
       <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="34"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
+      <c r="A88" s="34"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
@@ -1985,7 +2013,7 @@
       <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="16"/>
@@ -1997,13 +2025,13 @@
       <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="16"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
       <c r="D94" s="13"/>
@@ -2021,19 +2049,19 @@
       <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="34"/>
+      <c r="A97" s="41"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="34"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="11"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="16"/>
@@ -2045,37 +2073,37 @@
       <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="34"/>
+      <c r="A101" s="41"/>
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="34"/>
+      <c r="A102" s="41"/>
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
+      <c r="A103" s="41"/>
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="16"/>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="34"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="35"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="13"/>
@@ -2087,19 +2115,19 @@
       <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="34"/>
+      <c r="A108" s="41"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="35"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="11"/>
       <c r="C110" s="12"/>
       <c r="D110" s="13"/>
@@ -2111,13 +2139,13 @@
       <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="34"/>
+      <c r="A112" s="41"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="35"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="17"/>
       <c r="C113" s="18"/>
       <c r="D113" s="16"/>
@@ -2129,13 +2157,13 @@
       <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
+      <c r="A115" s="41"/>
       <c r="B115" s="17"/>
       <c r="C115" s="18"/>
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
       <c r="D116" s="13"/>
@@ -2147,13 +2175,13 @@
       <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="34"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="35"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="17"/>
       <c r="C119" s="18"/>
       <c r="D119" s="16"/>
@@ -2165,19 +2193,19 @@
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="34"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="34"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
       <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="35"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
       <c r="D123" s="16"/>
@@ -2189,13 +2217,13 @@
       <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="34"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="17"/>
       <c r="C125" s="18"/>
       <c r="D125" s="16"/>
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="35"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="13"/>
@@ -2207,19 +2235,19 @@
       <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="34"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="13"/>
     </row>
     <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="34"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="17"/>
       <c r="C129" s="18"/>
       <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="11"/>
       <c r="C130" s="12"/>
       <c r="D130" s="13"/>
@@ -2237,7 +2265,7 @@
       <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="35"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="17"/>
       <c r="C133" s="18"/>
       <c r="D133" s="16"/>
@@ -3222,6 +3250,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A119"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A27:A34"/>
@@ -3238,25 +3283,18 @@
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3266,7 +3304,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C6">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3276,7 +3314,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C7:C8">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3286,7 +3324,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="C9 C11">
+    <cfRule type="iconSet" priority="307">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3296,17 +3344,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C11">
-    <cfRule type="iconSet" priority="306">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C12:C17">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3316,7 +3354,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C17">
+  <conditionalFormatting sqref="C18:C22">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3326,7 +3364,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C22">
+  <conditionalFormatting sqref="C23">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3336,8 +3374,148 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:C46">
-    <cfRule type="iconSet" priority="289">
+  <conditionalFormatting sqref="C24:C26">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:C41">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C46">
+    <cfRule type="iconSet" priority="290">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3347,7 +3525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="iconSet" priority="281">
+    <cfRule type="iconSet" priority="282">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3357,6 +3535,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C49">
+    <cfRule type="iconSet" priority="278">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="iconSet" priority="284">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
     <cfRule type="iconSet" priority="277">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3366,17 +3564,27 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="iconSet" priority="283">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C52">
+    <cfRule type="iconSet" priority="275">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C54">
+    <cfRule type="iconSet" priority="274">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
     <cfRule type="iconSet" priority="276">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3386,17 +3594,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="iconSet" priority="274">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C54">
+  <conditionalFormatting sqref="C56">
     <cfRule type="iconSet" priority="273">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3406,17 +3604,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="iconSet" priority="275">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
+  <conditionalFormatting sqref="C57">
     <cfRule type="iconSet" priority="272">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3426,7 +3614,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
+  <conditionalFormatting sqref="C58">
     <cfRule type="iconSet" priority="271">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3436,17 +3624,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="iconSet" priority="270">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C59">
+    <cfRule type="iconSet" priority="268">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
     <cfRule type="iconSet" priority="267">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3456,7 +3644,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
+  <conditionalFormatting sqref="C61">
     <cfRule type="iconSet" priority="266">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3466,7 +3654,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="C62">
     <cfRule type="iconSet" priority="265">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3476,7 +3664,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="C63">
     <cfRule type="iconSet" priority="264">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3486,7 +3674,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C64">
     <cfRule type="iconSet" priority="263">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3496,7 +3684,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+  <conditionalFormatting sqref="C65">
     <cfRule type="iconSet" priority="262">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3506,7 +3694,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
+  <conditionalFormatting sqref="C66">
     <cfRule type="iconSet" priority="261">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3516,7 +3704,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
+  <conditionalFormatting sqref="C67">
     <cfRule type="iconSet" priority="260">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3526,17 +3714,37 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="iconSet" priority="259">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C68">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="iconSet" priority="257">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
     <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3546,27 +3754,147 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="256">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="255">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="254">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="253">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="252">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="251">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="250">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="249">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="248">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="247">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="246">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="245">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="244">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="243">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="242">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
     <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3576,147 +3904,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="254">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="253">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="252">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="251">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="250">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="249">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="248">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="247">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="246">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="245">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="244">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="243">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="242">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="241">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
+  <conditionalFormatting sqref="C87">
     <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3726,7 +3914,37 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
+  <conditionalFormatting sqref="C88">
+    <cfRule type="iconSet" priority="239">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C90">
+    <cfRule type="iconSet" priority="238">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="236">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
     <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3736,37 +3954,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="238">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89:C90">
-    <cfRule type="iconSet" priority="237">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="iconSet" priority="235">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
+  <conditionalFormatting sqref="C93:C94">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3776,17 +3964,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C94">
-    <cfRule type="iconSet" priority="23">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="232">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
     <cfRule type="iconSet" priority="231">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3796,7 +3984,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
+  <conditionalFormatting sqref="C97">
     <cfRule type="iconSet" priority="230">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3806,7 +3994,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
+  <conditionalFormatting sqref="C98">
     <cfRule type="iconSet" priority="229">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3816,7 +4004,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
+  <conditionalFormatting sqref="C99">
     <cfRule type="iconSet" priority="228">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3826,7 +4014,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
+  <conditionalFormatting sqref="C100">
     <cfRule type="iconSet" priority="227">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3836,7 +4024,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
+  <conditionalFormatting sqref="C101">
     <cfRule type="iconSet" priority="226">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3846,7 +4034,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
+  <conditionalFormatting sqref="C102">
     <cfRule type="iconSet" priority="225">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3856,7 +4044,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
+  <conditionalFormatting sqref="C103">
     <cfRule type="iconSet" priority="224">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3866,7 +4054,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
+  <conditionalFormatting sqref="C104">
     <cfRule type="iconSet" priority="223">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3876,7 +4064,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
+  <conditionalFormatting sqref="C105">
     <cfRule type="iconSet" priority="222">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3886,7 +4074,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
+  <conditionalFormatting sqref="C106">
     <cfRule type="iconSet" priority="221">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3896,7 +4084,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
+  <conditionalFormatting sqref="C107">
     <cfRule type="iconSet" priority="220">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3906,7 +4094,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
+  <conditionalFormatting sqref="C108">
     <cfRule type="iconSet" priority="219">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3916,7 +4104,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
+  <conditionalFormatting sqref="C109">
     <cfRule type="iconSet" priority="218">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3926,7 +4114,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
+  <conditionalFormatting sqref="C110">
     <cfRule type="iconSet" priority="217">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3936,7 +4124,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
+  <conditionalFormatting sqref="C111:C113">
     <cfRule type="iconSet" priority="216">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3946,18 +4134,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C111:C113">
-    <cfRule type="iconSet" priority="215">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C114:C115">
-    <cfRule type="iconSet" priority="212">
+    <cfRule type="iconSet" priority="213">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3967,6 +4145,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="211">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
     <cfRule type="iconSet" priority="210">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3976,7 +4164,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
+  <conditionalFormatting sqref="C118">
     <cfRule type="iconSet" priority="209">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3986,7 +4174,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
+  <conditionalFormatting sqref="C119">
     <cfRule type="iconSet" priority="208">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3996,7 +4184,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
+  <conditionalFormatting sqref="C120">
     <cfRule type="iconSet" priority="207">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4006,7 +4194,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
+  <conditionalFormatting sqref="C121">
     <cfRule type="iconSet" priority="206">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4016,7 +4204,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
+  <conditionalFormatting sqref="C122">
     <cfRule type="iconSet" priority="205">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4026,7 +4214,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
+  <conditionalFormatting sqref="C123">
     <cfRule type="iconSet" priority="204">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4036,7 +4224,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
+  <conditionalFormatting sqref="C124">
     <cfRule type="iconSet" priority="203">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4046,7 +4234,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
+  <conditionalFormatting sqref="C125">
     <cfRule type="iconSet" priority="202">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4056,7 +4244,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
+  <conditionalFormatting sqref="C126">
     <cfRule type="iconSet" priority="201">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4066,7 +4254,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
+  <conditionalFormatting sqref="C127">
     <cfRule type="iconSet" priority="200">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4076,7 +4264,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
+  <conditionalFormatting sqref="C128">
     <cfRule type="iconSet" priority="199">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4086,7 +4274,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
+  <conditionalFormatting sqref="C129">
     <cfRule type="iconSet" priority="198">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4096,7 +4284,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
+  <conditionalFormatting sqref="C130">
     <cfRule type="iconSet" priority="197">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4106,7 +4294,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
+  <conditionalFormatting sqref="C131">
     <cfRule type="iconSet" priority="196">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4116,7 +4304,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
+  <conditionalFormatting sqref="C132">
     <cfRule type="iconSet" priority="195">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4126,7 +4314,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
+  <conditionalFormatting sqref="C133">
     <cfRule type="iconSet" priority="194">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4136,7 +4324,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
+  <conditionalFormatting sqref="C134">
     <cfRule type="iconSet" priority="193">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4146,7 +4334,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
+  <conditionalFormatting sqref="C135">
     <cfRule type="iconSet" priority="192">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4156,7 +4344,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
+  <conditionalFormatting sqref="C136">
     <cfRule type="iconSet" priority="191">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4166,7 +4354,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
+  <conditionalFormatting sqref="C137">
     <cfRule type="iconSet" priority="190">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4176,7 +4364,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
+  <conditionalFormatting sqref="C138">
     <cfRule type="iconSet" priority="189">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4186,7 +4374,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
+  <conditionalFormatting sqref="C139">
     <cfRule type="iconSet" priority="188">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4196,7 +4384,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
+  <conditionalFormatting sqref="C140">
     <cfRule type="iconSet" priority="187">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4206,7 +4394,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
+  <conditionalFormatting sqref="C141">
     <cfRule type="iconSet" priority="186">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4216,7 +4404,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
+  <conditionalFormatting sqref="C142">
     <cfRule type="iconSet" priority="185">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4226,7 +4414,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
+  <conditionalFormatting sqref="C143">
     <cfRule type="iconSet" priority="184">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4236,7 +4424,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
+  <conditionalFormatting sqref="C144">
     <cfRule type="iconSet" priority="183">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4246,7 +4434,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
+  <conditionalFormatting sqref="C145">
     <cfRule type="iconSet" priority="182">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4256,7 +4444,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
+  <conditionalFormatting sqref="C146">
     <cfRule type="iconSet" priority="181">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4266,7 +4454,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
+  <conditionalFormatting sqref="C147">
     <cfRule type="iconSet" priority="180">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4276,7 +4464,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
+  <conditionalFormatting sqref="C148">
     <cfRule type="iconSet" priority="179">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4286,7 +4474,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
+  <conditionalFormatting sqref="C149">
     <cfRule type="iconSet" priority="178">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4296,7 +4484,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
+  <conditionalFormatting sqref="C150">
     <cfRule type="iconSet" priority="177">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4306,7 +4494,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
+  <conditionalFormatting sqref="C151">
     <cfRule type="iconSet" priority="176">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4316,7 +4504,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
+  <conditionalFormatting sqref="C152">
     <cfRule type="iconSet" priority="175">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4326,7 +4514,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
+  <conditionalFormatting sqref="C153">
     <cfRule type="iconSet" priority="174">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4336,7 +4524,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
+  <conditionalFormatting sqref="C154">
     <cfRule type="iconSet" priority="173">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4346,7 +4534,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
+  <conditionalFormatting sqref="C155">
     <cfRule type="iconSet" priority="172">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4356,7 +4544,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
+  <conditionalFormatting sqref="C156">
     <cfRule type="iconSet" priority="171">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4366,7 +4554,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
+  <conditionalFormatting sqref="C157">
     <cfRule type="iconSet" priority="170">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4376,7 +4564,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
+  <conditionalFormatting sqref="C158">
     <cfRule type="iconSet" priority="169">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4386,7 +4574,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
+  <conditionalFormatting sqref="C159">
     <cfRule type="iconSet" priority="168">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4396,7 +4584,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
+  <conditionalFormatting sqref="C160">
     <cfRule type="iconSet" priority="167">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4406,7 +4594,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
+  <conditionalFormatting sqref="C161">
     <cfRule type="iconSet" priority="166">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4416,7 +4604,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
+  <conditionalFormatting sqref="C162">
     <cfRule type="iconSet" priority="165">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4426,7 +4614,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
+  <conditionalFormatting sqref="C163">
     <cfRule type="iconSet" priority="164">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4436,7 +4624,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
+  <conditionalFormatting sqref="C164">
     <cfRule type="iconSet" priority="163">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4446,7 +4634,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
+  <conditionalFormatting sqref="C165">
     <cfRule type="iconSet" priority="162">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4456,7 +4644,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
+  <conditionalFormatting sqref="C166">
     <cfRule type="iconSet" priority="161">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4466,7 +4654,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
+  <conditionalFormatting sqref="C167">
     <cfRule type="iconSet" priority="160">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4476,7 +4664,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
+  <conditionalFormatting sqref="C168">
     <cfRule type="iconSet" priority="159">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4486,7 +4674,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
+  <conditionalFormatting sqref="C169">
     <cfRule type="iconSet" priority="158">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4496,7 +4684,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
+  <conditionalFormatting sqref="C170">
     <cfRule type="iconSet" priority="157">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4506,7 +4694,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
+  <conditionalFormatting sqref="C171">
     <cfRule type="iconSet" priority="156">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4516,7 +4704,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
+  <conditionalFormatting sqref="C172">
     <cfRule type="iconSet" priority="155">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4526,7 +4714,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
+  <conditionalFormatting sqref="C173">
     <cfRule type="iconSet" priority="154">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4536,7 +4724,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
+  <conditionalFormatting sqref="C174">
     <cfRule type="iconSet" priority="153">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4546,7 +4734,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
+  <conditionalFormatting sqref="C175">
     <cfRule type="iconSet" priority="152">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4556,7 +4744,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
+  <conditionalFormatting sqref="C176">
     <cfRule type="iconSet" priority="151">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4566,7 +4754,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
+  <conditionalFormatting sqref="C177">
     <cfRule type="iconSet" priority="150">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4576,7 +4764,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
+  <conditionalFormatting sqref="C178">
     <cfRule type="iconSet" priority="149">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4586,7 +4774,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
+  <conditionalFormatting sqref="C179">
     <cfRule type="iconSet" priority="148">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4596,7 +4784,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
+  <conditionalFormatting sqref="C180">
     <cfRule type="iconSet" priority="147">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4606,7 +4794,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
+  <conditionalFormatting sqref="C181">
     <cfRule type="iconSet" priority="146">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4616,7 +4804,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
+  <conditionalFormatting sqref="C182">
     <cfRule type="iconSet" priority="145">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4626,7 +4814,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
+  <conditionalFormatting sqref="C183">
     <cfRule type="iconSet" priority="144">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4636,7 +4824,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
+  <conditionalFormatting sqref="C184">
     <cfRule type="iconSet" priority="143">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4646,7 +4834,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
+  <conditionalFormatting sqref="C185">
     <cfRule type="iconSet" priority="142">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4656,7 +4844,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
+  <conditionalFormatting sqref="C186">
     <cfRule type="iconSet" priority="141">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4666,7 +4854,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
+  <conditionalFormatting sqref="C187">
     <cfRule type="iconSet" priority="140">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4676,7 +4864,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
+  <conditionalFormatting sqref="C188">
     <cfRule type="iconSet" priority="139">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4686,7 +4874,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
+  <conditionalFormatting sqref="C189">
     <cfRule type="iconSet" priority="138">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4696,7 +4884,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
+  <conditionalFormatting sqref="C190">
     <cfRule type="iconSet" priority="137">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4706,7 +4894,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
+  <conditionalFormatting sqref="C191">
     <cfRule type="iconSet" priority="136">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4716,7 +4904,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
+  <conditionalFormatting sqref="C192">
     <cfRule type="iconSet" priority="135">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4726,7 +4914,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
+  <conditionalFormatting sqref="C193">
     <cfRule type="iconSet" priority="134">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4736,7 +4924,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
+  <conditionalFormatting sqref="C194">
     <cfRule type="iconSet" priority="133">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4746,7 +4934,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
+  <conditionalFormatting sqref="C195">
     <cfRule type="iconSet" priority="132">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4756,7 +4944,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
+  <conditionalFormatting sqref="C196">
     <cfRule type="iconSet" priority="131">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4766,7 +4954,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
+  <conditionalFormatting sqref="C197">
     <cfRule type="iconSet" priority="130">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4776,7 +4964,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
+  <conditionalFormatting sqref="C198">
     <cfRule type="iconSet" priority="129">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4786,7 +4974,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
+  <conditionalFormatting sqref="C199">
     <cfRule type="iconSet" priority="128">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4796,7 +4984,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
+  <conditionalFormatting sqref="C200">
     <cfRule type="iconSet" priority="127">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4806,7 +4994,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
+  <conditionalFormatting sqref="C201">
     <cfRule type="iconSet" priority="126">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4816,7 +5004,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
+  <conditionalFormatting sqref="C202">
     <cfRule type="iconSet" priority="125">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4826,7 +5014,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
+  <conditionalFormatting sqref="C203">
     <cfRule type="iconSet" priority="124">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4836,7 +5024,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
+  <conditionalFormatting sqref="C204">
     <cfRule type="iconSet" priority="123">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4846,7 +5034,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
+  <conditionalFormatting sqref="C205">
     <cfRule type="iconSet" priority="122">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4856,7 +5044,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
+  <conditionalFormatting sqref="C206">
     <cfRule type="iconSet" priority="121">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4866,7 +5054,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
+  <conditionalFormatting sqref="C207">
     <cfRule type="iconSet" priority="120">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4876,7 +5064,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
+  <conditionalFormatting sqref="C208">
     <cfRule type="iconSet" priority="119">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4886,7 +5074,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
+  <conditionalFormatting sqref="C209">
     <cfRule type="iconSet" priority="118">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4896,7 +5084,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
+  <conditionalFormatting sqref="C210">
     <cfRule type="iconSet" priority="117">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4906,7 +5094,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
+  <conditionalFormatting sqref="C211">
     <cfRule type="iconSet" priority="116">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4916,7 +5104,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
+  <conditionalFormatting sqref="C212">
     <cfRule type="iconSet" priority="115">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4926,7 +5114,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
+  <conditionalFormatting sqref="C213">
     <cfRule type="iconSet" priority="114">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4936,7 +5124,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
+  <conditionalFormatting sqref="C214">
     <cfRule type="iconSet" priority="113">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4946,7 +5134,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
+  <conditionalFormatting sqref="C215">
     <cfRule type="iconSet" priority="112">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4956,7 +5144,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
+  <conditionalFormatting sqref="C216">
     <cfRule type="iconSet" priority="111">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4966,7 +5154,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
+  <conditionalFormatting sqref="C217">
     <cfRule type="iconSet" priority="110">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4976,7 +5164,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
+  <conditionalFormatting sqref="C218">
     <cfRule type="iconSet" priority="109">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4986,7 +5174,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
+  <conditionalFormatting sqref="C219">
     <cfRule type="iconSet" priority="108">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -4996,7 +5184,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
+  <conditionalFormatting sqref="C220">
     <cfRule type="iconSet" priority="107">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5006,7 +5194,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
+  <conditionalFormatting sqref="C221">
     <cfRule type="iconSet" priority="106">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5016,7 +5204,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
+  <conditionalFormatting sqref="C222">
     <cfRule type="iconSet" priority="105">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5026,7 +5214,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
+  <conditionalFormatting sqref="C223">
     <cfRule type="iconSet" priority="104">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5036,7 +5224,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
+  <conditionalFormatting sqref="C224">
     <cfRule type="iconSet" priority="103">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5046,7 +5234,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
+  <conditionalFormatting sqref="C225">
     <cfRule type="iconSet" priority="102">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5056,7 +5244,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
+  <conditionalFormatting sqref="C226">
     <cfRule type="iconSet" priority="101">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5066,7 +5254,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
+  <conditionalFormatting sqref="C227">
     <cfRule type="iconSet" priority="100">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5076,7 +5264,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
+  <conditionalFormatting sqref="C228">
     <cfRule type="iconSet" priority="99">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5086,7 +5274,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
+  <conditionalFormatting sqref="C229">
     <cfRule type="iconSet" priority="98">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5096,7 +5284,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
+  <conditionalFormatting sqref="C230">
     <cfRule type="iconSet" priority="97">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5106,7 +5294,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
+  <conditionalFormatting sqref="C231">
     <cfRule type="iconSet" priority="96">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5116,7 +5304,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
+  <conditionalFormatting sqref="C232">
     <cfRule type="iconSet" priority="95">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5126,7 +5314,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
+  <conditionalFormatting sqref="C233">
     <cfRule type="iconSet" priority="94">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5136,7 +5324,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
+  <conditionalFormatting sqref="C234">
     <cfRule type="iconSet" priority="93">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5146,7 +5334,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
+  <conditionalFormatting sqref="C235">
     <cfRule type="iconSet" priority="92">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5156,7 +5344,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
+  <conditionalFormatting sqref="C236">
     <cfRule type="iconSet" priority="91">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5166,7 +5354,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
+  <conditionalFormatting sqref="C237">
     <cfRule type="iconSet" priority="90">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5176,7 +5364,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
+  <conditionalFormatting sqref="C238">
     <cfRule type="iconSet" priority="89">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5186,7 +5374,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
+  <conditionalFormatting sqref="C239">
     <cfRule type="iconSet" priority="88">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5196,7 +5384,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
+  <conditionalFormatting sqref="C240">
     <cfRule type="iconSet" priority="87">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5206,7 +5394,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
+  <conditionalFormatting sqref="C241">
     <cfRule type="iconSet" priority="86">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5216,7 +5404,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
+  <conditionalFormatting sqref="C242">
     <cfRule type="iconSet" priority="85">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5226,7 +5414,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
+  <conditionalFormatting sqref="C243">
     <cfRule type="iconSet" priority="84">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5236,7 +5424,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
+  <conditionalFormatting sqref="C244">
     <cfRule type="iconSet" priority="83">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5246,7 +5434,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
+  <conditionalFormatting sqref="C245">
     <cfRule type="iconSet" priority="82">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5256,7 +5444,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
+  <conditionalFormatting sqref="C246">
     <cfRule type="iconSet" priority="81">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5266,7 +5454,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
+  <conditionalFormatting sqref="C247">
     <cfRule type="iconSet" priority="80">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5276,7 +5464,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
+  <conditionalFormatting sqref="C248">
     <cfRule type="iconSet" priority="79">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5286,7 +5474,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
+  <conditionalFormatting sqref="C249">
     <cfRule type="iconSet" priority="78">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5296,7 +5484,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
+  <conditionalFormatting sqref="C250">
     <cfRule type="iconSet" priority="77">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5306,7 +5494,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
+  <conditionalFormatting sqref="C251">
     <cfRule type="iconSet" priority="76">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5316,7 +5504,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
+  <conditionalFormatting sqref="C252">
     <cfRule type="iconSet" priority="75">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5326,7 +5514,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
+  <conditionalFormatting sqref="C253">
     <cfRule type="iconSet" priority="74">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5336,7 +5524,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
+  <conditionalFormatting sqref="C254">
     <cfRule type="iconSet" priority="73">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5346,7 +5534,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
+  <conditionalFormatting sqref="C255">
     <cfRule type="iconSet" priority="72">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5356,7 +5544,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
+  <conditionalFormatting sqref="C256">
     <cfRule type="iconSet" priority="71">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5366,7 +5554,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
+  <conditionalFormatting sqref="C257">
     <cfRule type="iconSet" priority="70">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5376,7 +5564,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
+  <conditionalFormatting sqref="C258">
     <cfRule type="iconSet" priority="69">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5386,7 +5574,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
+  <conditionalFormatting sqref="C259">
     <cfRule type="iconSet" priority="68">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5396,7 +5584,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
+  <conditionalFormatting sqref="C260">
     <cfRule type="iconSet" priority="67">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5406,7 +5594,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
+  <conditionalFormatting sqref="C261">
     <cfRule type="iconSet" priority="66">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5416,7 +5604,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
+  <conditionalFormatting sqref="C262">
     <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5426,7 +5614,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
+  <conditionalFormatting sqref="C263">
     <cfRule type="iconSet" priority="64">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5436,7 +5624,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
+  <conditionalFormatting sqref="C264">
     <cfRule type="iconSet" priority="63">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5446,7 +5634,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
+  <conditionalFormatting sqref="C265">
     <cfRule type="iconSet" priority="62">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5456,7 +5644,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
+  <conditionalFormatting sqref="C266">
     <cfRule type="iconSet" priority="61">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5466,7 +5654,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
+  <conditionalFormatting sqref="C267">
     <cfRule type="iconSet" priority="60">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5476,7 +5664,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
+  <conditionalFormatting sqref="C268">
     <cfRule type="iconSet" priority="59">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5486,7 +5674,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
+  <conditionalFormatting sqref="C269">
     <cfRule type="iconSet" priority="58">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5496,7 +5684,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
+  <conditionalFormatting sqref="C270">
     <cfRule type="iconSet" priority="57">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5506,7 +5694,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
+  <conditionalFormatting sqref="C271">
     <cfRule type="iconSet" priority="56">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5516,7 +5704,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
+  <conditionalFormatting sqref="C272">
     <cfRule type="iconSet" priority="55">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5526,7 +5714,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
+  <conditionalFormatting sqref="C273">
     <cfRule type="iconSet" priority="54">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5536,7 +5724,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
+  <conditionalFormatting sqref="C274">
     <cfRule type="iconSet" priority="53">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5546,7 +5734,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
+  <conditionalFormatting sqref="C275">
     <cfRule type="iconSet" priority="52">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5556,7 +5744,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
+  <conditionalFormatting sqref="C276">
     <cfRule type="iconSet" priority="51">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5566,7 +5754,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
+  <conditionalFormatting sqref="C277">
     <cfRule type="iconSet" priority="50">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5576,7 +5764,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
+  <conditionalFormatting sqref="C278">
     <cfRule type="iconSet" priority="49">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5586,7 +5774,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
+  <conditionalFormatting sqref="C279">
     <cfRule type="iconSet" priority="48">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5596,7 +5784,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
+  <conditionalFormatting sqref="C280">
     <cfRule type="iconSet" priority="47">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5606,7 +5794,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
+  <conditionalFormatting sqref="C281">
     <cfRule type="iconSet" priority="46">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5616,7 +5804,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
+  <conditionalFormatting sqref="C282">
     <cfRule type="iconSet" priority="45">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5626,7 +5814,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
+  <conditionalFormatting sqref="C283">
     <cfRule type="iconSet" priority="44">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5636,7 +5824,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
+  <conditionalFormatting sqref="C284">
     <cfRule type="iconSet" priority="43">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5646,7 +5834,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
+  <conditionalFormatting sqref="C285">
     <cfRule type="iconSet" priority="42">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5656,7 +5844,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
+  <conditionalFormatting sqref="C286">
     <cfRule type="iconSet" priority="41">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5666,7 +5854,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
+  <conditionalFormatting sqref="C287">
     <cfRule type="iconSet" priority="40">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5676,7 +5864,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
+  <conditionalFormatting sqref="C288">
     <cfRule type="iconSet" priority="39">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5686,7 +5874,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
+  <conditionalFormatting sqref="C289">
     <cfRule type="iconSet" priority="38">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5696,7 +5884,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
+  <conditionalFormatting sqref="C290">
     <cfRule type="iconSet" priority="37">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5706,7 +5894,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
+  <conditionalFormatting sqref="C291">
     <cfRule type="iconSet" priority="36">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5716,7 +5904,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
+  <conditionalFormatting sqref="C292">
     <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5726,7 +5914,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
+  <conditionalFormatting sqref="C293">
     <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5736,7 +5924,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
+  <conditionalFormatting sqref="C294">
     <cfRule type="iconSet" priority="33">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5746,7 +5934,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
+  <conditionalFormatting sqref="C295">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5756,7 +5944,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
+  <conditionalFormatting sqref="C296">
     <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -5766,157 +5954,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C26">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
+  <conditionalFormatting sqref="C42">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\VisionAI_Audio\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\VisionAI-Audio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A64BDB-370B-4735-B361-BD00A47A9FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAC16CD-3532-441E-B5F6-5E8D7918F9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dailytasklist" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,16 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">dailytasklist!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>DAILY TASKS</t>
   </si>
@@ -188,6 +193,15 @@
     <t>Section 4: Measure transcription speed (real-time factor).
 - Track CPU / GPU / RAM usage during inference.
 - Identify optimal configurations for efficiency vs quality.</t>
+  </si>
+  <si>
+    <t>Transcribe converted audios with different parameters like beam size 1,2,5 etc and chunk length 10s, 20s etc and save result in json.</t>
+  </si>
+  <si>
+    <t>Preprocess Audio and then transcribe those audios and save result in json</t>
+  </si>
+  <si>
+    <t>Visualization, findings, table summary</t>
   </si>
 </sst>
 </file>
@@ -742,6 +756,7 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,7 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,8 +1199,8 @@
   </sheetPr>
   <dimension ref="A1:F296"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1200,12 +1214,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1239,7 +1253,7 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1266,7 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1279,7 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1308,7 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
@@ -1307,7 +1321,7 @@
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
@@ -1320,7 +1334,7 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="39">
         <v>45940</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1334,7 +1348,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1360,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1358,7 +1372,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
@@ -1370,7 +1384,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1382,7 +1396,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
@@ -1408,7 +1422,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1420,7 +1434,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1432,7 +1446,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1444,7 +1458,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
@@ -1470,7 +1484,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1496,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1494,7 +1508,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
@@ -1506,7 +1520,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1518,7 +1532,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+      <c r="A27" s="39">
         <v>45945</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1533,7 +1547,7 @@
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="11" t="s">
         <v>37</v>
       </c>
@@ -1546,7 +1560,7 @@
       <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="7" t="s">
         <v>38</v>
       </c>
@@ -1559,7 +1573,7 @@
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="11" t="s">
         <v>39</v>
       </c>
@@ -1572,7 +1586,7 @@
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="17" t="s">
         <v>40</v>
       </c>
@@ -1585,7 +1599,7 @@
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="11" t="s">
         <v>41</v>
       </c>
@@ -1599,7 +1613,7 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="19" t="s">
         <v>43</v>
       </c>
@@ -1612,7 +1626,7 @@
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="11" t="s">
         <v>42</v>
       </c>
@@ -1639,7 +1653,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="11" t="s">
         <v>45</v>
       </c>
@@ -1651,7 +1665,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="19" t="s">
         <v>46</v>
       </c>
@@ -1663,7 +1677,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="11" t="s">
         <v>47</v>
       </c>
@@ -1675,7 +1689,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
@@ -1687,7 +1701,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
+      <c r="A40" s="39">
         <v>45947</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -1701,7 +1715,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
@@ -1713,7 +1727,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="11" t="s">
         <v>51</v>
       </c>
@@ -1724,29 +1738,55 @@
         <v>45952</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
+    <row r="43" spans="1:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
+        <v>45951</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="16">
+        <v>45952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="16">
+        <v>45952</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="16">
+        <v>45952</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="16">
+        <v>45952</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
@@ -1755,25 +1795,25 @@
       <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="28"/>
       <c r="C48" s="12"/>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="11"/>
       <c r="C50" s="12"/>
       <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
@@ -1785,13 +1825,13 @@
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="29"/>
       <c r="C53" s="18"/>
       <c r="D53" s="16"/>
     </row>
     <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="35"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
       <c r="D54" s="13"/>
@@ -1803,31 +1843,31 @@
       <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="17"/>
       <c r="C57" s="18"/>
       <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="11"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
       <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
+      <c r="A60" s="35"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
@@ -1839,37 +1879,37 @@
       <c r="D61" s="16"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="11"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="17"/>
       <c r="C63" s="18"/>
       <c r="D63" s="16"/>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="11"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="17"/>
       <c r="C65" s="18"/>
       <c r="D65" s="16"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="11"/>
       <c r="C66" s="12"/>
       <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="16"/>
@@ -1881,13 +1921,13 @@
       <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+      <c r="A70" s="35"/>
       <c r="B70" s="11"/>
       <c r="C70" s="12"/>
       <c r="D70" s="13"/>
@@ -1899,7 +1939,7 @@
       <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="11"/>
       <c r="C72" s="12"/>
       <c r="D72" s="13"/>
@@ -1911,7 +1951,7 @@
       <c r="D73" s="16"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="11"/>
       <c r="C74" s="12"/>
       <c r="D74" s="13"/>
@@ -1923,19 +1963,19 @@
       <c r="D75" s="16"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="11"/>
       <c r="C76" s="12"/>
       <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="16"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
+      <c r="A78" s="35"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
       <c r="D78" s="13"/>
@@ -1947,19 +1987,19 @@
       <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="11"/>
       <c r="C80" s="12"/>
       <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="16"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="34"/>
+      <c r="A82" s="35"/>
       <c r="B82" s="11"/>
       <c r="C82" s="12"/>
       <c r="D82" s="13"/>
@@ -1971,13 +2011,13 @@
       <c r="D83" s="16"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="11"/>
       <c r="C84" s="12"/>
       <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="34"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="16"/>
@@ -1989,13 +2029,13 @@
       <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="41"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="16"/>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="34"/>
+      <c r="A88" s="35"/>
       <c r="B88" s="11"/>
       <c r="C88" s="12"/>
       <c r="D88" s="13"/>
@@ -2013,7 +2053,7 @@
       <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
+      <c r="A91" s="35"/>
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="16"/>
@@ -2025,13 +2065,13 @@
       <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="16"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
+      <c r="A94" s="35"/>
       <c r="B94" s="11"/>
       <c r="C94" s="12"/>
       <c r="D94" s="13"/>
@@ -2049,19 +2089,19 @@
       <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="16"/>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="11"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
+      <c r="A99" s="35"/>
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="16"/>
@@ -2073,37 +2113,37 @@
       <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="11"/>
       <c r="C102" s="12"/>
       <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="16"/>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="11"/>
       <c r="C104" s="12"/>
       <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="17"/>
       <c r="C105" s="18"/>
       <c r="D105" s="16"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="34"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="11"/>
       <c r="C106" s="12"/>
       <c r="D106" s="13"/>
@@ -2115,19 +2155,19 @@
       <c r="D107" s="16"/>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="11"/>
       <c r="C108" s="12"/>
       <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="17"/>
       <c r="C109" s="18"/>
       <c r="D109" s="16"/>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
+      <c r="A110" s="35"/>
       <c r="B110" s="11"/>
       <c r="C110" s="12"/>
       <c r="D110" s="13"/>
@@ -2139,13 +2179,13 @@
       <c r="D111" s="16"/>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
       <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
+      <c r="A113" s="35"/>
       <c r="B113" s="17"/>
       <c r="C113" s="18"/>
       <c r="D113" s="16"/>
@@ -2157,13 +2197,13 @@
       <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="17"/>
       <c r="C115" s="18"/>
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
+      <c r="A116" s="35"/>
       <c r="B116" s="11"/>
       <c r="C116" s="12"/>
       <c r="D116" s="13"/>
@@ -2175,13 +2215,13 @@
       <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="41"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="11"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
+      <c r="A119" s="35"/>
       <c r="B119" s="17"/>
       <c r="C119" s="18"/>
       <c r="D119" s="16"/>
@@ -2193,19 +2233,19 @@
       <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="41"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="17"/>
       <c r="C121" s="18"/>
       <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
       <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="34"/>
+      <c r="A123" s="35"/>
       <c r="B123" s="17"/>
       <c r="C123" s="18"/>
       <c r="D123" s="16"/>
@@ -2217,13 +2257,13 @@
       <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="17"/>
       <c r="C125" s="18"/>
       <c r="D125" s="16"/>
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="34"/>
+      <c r="A126" s="35"/>
       <c r="B126" s="11"/>
       <c r="C126" s="12"/>
       <c r="D126" s="13"/>
@@ -2235,19 +2275,19 @@
       <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
+      <c r="A128" s="34"/>
       <c r="B128" s="11"/>
       <c r="C128" s="12"/>
       <c r="D128" s="13"/>
     </row>
     <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="17"/>
       <c r="C129" s="18"/>
       <c r="D129" s="16"/>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="34"/>
+      <c r="A130" s="35"/>
       <c r="B130" s="11"/>
       <c r="C130" s="12"/>
       <c r="D130" s="13"/>
@@ -2265,7 +2305,7 @@
       <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="34"/>
+      <c r="A133" s="35"/>
       <c r="B133" s="17"/>
       <c r="C133" s="18"/>
       <c r="D133" s="16"/>
@@ -3250,23 +3290,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A119"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A27:A34"/>
@@ -3283,8 +3306,75 @@
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 C11">
+    <cfRule type="iconSet" priority="311">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3294,7 +3384,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C12:C17">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3304,7 +3394,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C18:C22">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3314,7 +3404,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="C23">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3324,17 +3414,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C11">
-    <cfRule type="iconSet" priority="307">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C24:C26">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3344,7 +3424,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C17">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3354,7 +3434,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C22">
+  <conditionalFormatting sqref="C28">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3364,7 +3444,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C29">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3374,7 +3454,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C26">
+  <conditionalFormatting sqref="C30">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3384,7 +3464,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C31">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3394,7 +3474,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C32">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3404,7 +3484,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="C33">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3414,7 +3494,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C34">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3424,7 +3504,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C35">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3434,7 +3514,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C36">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3444,7 +3524,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C37">
     <cfRule type="iconSet" priority="8">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3454,7 +3534,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C38">
     <cfRule type="iconSet" priority="7">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3464,7 +3544,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C39:C41">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3474,7 +3554,2437 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C47">
+    <cfRule type="iconSet" priority="286">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C49">
+    <cfRule type="iconSet" priority="282">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="iconSet" priority="288">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="iconSet" priority="281">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="iconSet" priority="279">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:C54">
+    <cfRule type="iconSet" priority="278">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="iconSet" priority="280">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="iconSet" priority="277">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="iconSet" priority="276">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="iconSet" priority="275">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="iconSet" priority="272">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="iconSet" priority="271">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="iconSet" priority="270">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="iconSet" priority="269">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="iconSet" priority="268">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="iconSet" priority="267">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="iconSet" priority="266">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="iconSet" priority="265">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="iconSet" priority="264">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="iconSet" priority="32">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="259">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="258">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="257">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="256">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="255">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="254">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="253">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="252">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="251">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="250">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="249">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="248">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="247">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="246">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="iconSet" priority="243">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C90">
+    <cfRule type="iconSet" priority="242">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="240">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C94">
+    <cfRule type="iconSet" priority="28">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="236">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="235">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="234">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="iconSet" priority="233">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="iconSet" priority="232">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="iconSet" priority="231">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="iconSet" priority="230">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="iconSet" priority="227">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="iconSet" priority="226">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="iconSet" priority="224">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="iconSet" priority="223">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="iconSet" priority="221">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:C113">
+    <cfRule type="iconSet" priority="220">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:C115">
+    <cfRule type="iconSet" priority="217">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="215">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="214">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="213">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="212">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="iconSet" priority="211">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="iconSet" priority="210">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="iconSet" priority="209">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="iconSet" priority="208">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="iconSet" priority="207">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="iconSet" priority="206">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="iconSet" priority="205">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="iconSet" priority="204">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="iconSet" priority="203">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="iconSet" priority="202">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="iconSet" priority="201">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="iconSet" priority="200">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="iconSet" priority="198">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="iconSet" priority="192">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="iconSet" priority="191">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="iconSet" priority="190">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="iconSet" priority="189">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="iconSet" priority="188">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="iconSet" priority="187">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="iconSet" priority="186">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="iconSet" priority="185">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="iconSet" priority="184">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="iconSet" priority="183">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="iconSet" priority="182">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="iconSet" priority="181">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="iconSet" priority="180">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="iconSet" priority="179">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="iconSet" priority="178">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="iconSet" priority="177">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="iconSet" priority="176">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="iconSet" priority="175">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="iconSet" priority="174">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="iconSet" priority="173">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="iconSet" priority="172">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="iconSet" priority="171">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="iconSet" priority="170">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="iconSet" priority="169">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="iconSet" priority="168">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="iconSet" priority="167">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="iconSet" priority="166">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="iconSet" priority="165">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="iconSet" priority="164">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="iconSet" priority="163">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="iconSet" priority="162">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="iconSet" priority="161">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="iconSet" priority="160">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="iconSet" priority="159">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="iconSet" priority="158">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="iconSet" priority="157">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="iconSet" priority="156">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="iconSet" priority="155">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="iconSet" priority="154">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="iconSet" priority="153">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="iconSet" priority="152">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="iconSet" priority="151">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="iconSet" priority="150">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="iconSet" priority="148">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184">
+    <cfRule type="iconSet" priority="147">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185">
+    <cfRule type="iconSet" priority="146">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="iconSet" priority="144">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="iconSet" priority="143">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="iconSet" priority="142">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="iconSet" priority="141">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="iconSet" priority="140">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="iconSet" priority="139">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194">
+    <cfRule type="iconSet" priority="137">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="iconSet" priority="136">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="iconSet" priority="135">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="iconSet" priority="134">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C198">
+    <cfRule type="iconSet" priority="133">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C199">
+    <cfRule type="iconSet" priority="132">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C200">
+    <cfRule type="iconSet" priority="131">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="iconSet" priority="130">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="iconSet" priority="129">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="iconSet" priority="128">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="iconSet" priority="126">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="iconSet" priority="125">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C207">
+    <cfRule type="iconSet" priority="124">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C208">
+    <cfRule type="iconSet" priority="123">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="iconSet" priority="122">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="iconSet" priority="120">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="iconSet" priority="119">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C213">
+    <cfRule type="iconSet" priority="118">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214">
+    <cfRule type="iconSet" priority="117">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="iconSet" priority="115">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="iconSet" priority="114">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218">
+    <cfRule type="iconSet" priority="113">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C220">
+    <cfRule type="iconSet" priority="111">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="iconSet" priority="110">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="iconSet" priority="109">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="iconSet" priority="108">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="iconSet" priority="107">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="iconSet" priority="106">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="iconSet" priority="105">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="iconSet" priority="104">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="iconSet" priority="103">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="iconSet" priority="102">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="iconSet" priority="101">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231">
+    <cfRule type="iconSet" priority="100">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232">
+    <cfRule type="iconSet" priority="99">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233">
+    <cfRule type="iconSet" priority="98">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C234">
+    <cfRule type="iconSet" priority="97">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="iconSet" priority="96">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="iconSet" priority="95">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="iconSet" priority="94">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="iconSet" priority="93">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239">
+    <cfRule type="iconSet" priority="92">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="iconSet" priority="91">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C241">
+    <cfRule type="iconSet" priority="90">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="iconSet" priority="89">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C243">
+    <cfRule type="iconSet" priority="88">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="iconSet" priority="86">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="iconSet" priority="85">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C247">
+    <cfRule type="iconSet" priority="84">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248">
+    <cfRule type="iconSet" priority="83">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C249">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C250">
+    <cfRule type="iconSet" priority="81">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="iconSet" priority="78">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="iconSet" priority="74">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259">
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C267">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C268">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C269">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272">
+    <cfRule type="iconSet" priority="59">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C273">
+    <cfRule type="iconSet" priority="58">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C274">
+    <cfRule type="iconSet" priority="57">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C276">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C278">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C280">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C282">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="iconSet" priority="48">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="iconSet" priority="42">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C290">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C295">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3484,7 +5994,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C43">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3494,7 +6004,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C44">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3504,7 +6014,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C41">
+  <conditionalFormatting sqref="C45">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3514,2447 +6024,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C46">
-    <cfRule type="iconSet" priority="290">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="iconSet" priority="282">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C49">
-    <cfRule type="iconSet" priority="278">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="iconSet" priority="284">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="277">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="iconSet" priority="275">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C54">
-    <cfRule type="iconSet" priority="274">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="iconSet" priority="276">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="iconSet" priority="273">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="iconSet" priority="272">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="iconSet" priority="271">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="iconSet" priority="268">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="iconSet" priority="267">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="iconSet" priority="266">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="iconSet" priority="265">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="iconSet" priority="264">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="iconSet" priority="263">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="iconSet" priority="262">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="iconSet" priority="261">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="257">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="28">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="255">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="254">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="253">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="252">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="251">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="250">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="249">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="248">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="247">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="246">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="245">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="244">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="243">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="242">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="iconSet" priority="27">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="239">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89:C90">
-    <cfRule type="iconSet" priority="238">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="iconSet" priority="236">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C94">
-    <cfRule type="iconSet" priority="24">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="iconSet" priority="232">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="iconSet" priority="231">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="iconSet" priority="230">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="iconSet" priority="229">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="iconSet" priority="228">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="iconSet" priority="227">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="iconSet" priority="226">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="iconSet" priority="225">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="iconSet" priority="224">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="iconSet" priority="223">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="iconSet" priority="222">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="iconSet" priority="221">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="iconSet" priority="220">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="iconSet" priority="219">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="iconSet" priority="218">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="iconSet" priority="217">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:C113">
-    <cfRule type="iconSet" priority="216">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C115">
-    <cfRule type="iconSet" priority="213">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="iconSet" priority="211">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="iconSet" priority="210">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="iconSet" priority="209">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="iconSet" priority="208">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="207">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="iconSet" priority="206">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="iconSet" priority="205">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="iconSet" priority="204">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="iconSet" priority="203">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="iconSet" priority="202">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="iconSet" priority="201">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="iconSet" priority="200">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="iconSet" priority="199">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="iconSet" priority="198">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="iconSet" priority="197">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="iconSet" priority="196">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="iconSet" priority="195">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="iconSet" priority="194">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="iconSet" priority="193">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="iconSet" priority="192">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="iconSet" priority="191">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="iconSet" priority="190">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="iconSet" priority="189">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="iconSet" priority="188">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="iconSet" priority="187">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="iconSet" priority="186">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="iconSet" priority="185">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="iconSet" priority="184">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="iconSet" priority="183">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="iconSet" priority="182">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="iconSet" priority="181">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="iconSet" priority="180">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="iconSet" priority="179">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="iconSet" priority="178">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="iconSet" priority="177">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="iconSet" priority="176">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="iconSet" priority="175">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="iconSet" priority="174">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="iconSet" priority="173">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="iconSet" priority="172">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="iconSet" priority="171">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="iconSet" priority="170">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="iconSet" priority="169">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="iconSet" priority="168">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="iconSet" priority="167">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="iconSet" priority="166">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="iconSet" priority="165">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="iconSet" priority="164">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="iconSet" priority="163">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="iconSet" priority="162">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="iconSet" priority="161">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="iconSet" priority="160">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="iconSet" priority="159">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
-    <cfRule type="iconSet" priority="158">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
-    <cfRule type="iconSet" priority="157">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
-    <cfRule type="iconSet" priority="156">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="iconSet" priority="155">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="iconSet" priority="154">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="iconSet" priority="153">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="iconSet" priority="152">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="iconSet" priority="151">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="iconSet" priority="150">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="iconSet" priority="149">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="iconSet" priority="148">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="iconSet" priority="147">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="iconSet" priority="146">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
-    <cfRule type="iconSet" priority="145">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="iconSet" priority="144">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
-    <cfRule type="iconSet" priority="143">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
-    <cfRule type="iconSet" priority="142">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
-    <cfRule type="iconSet" priority="141">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
-    <cfRule type="iconSet" priority="140">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="iconSet" priority="139">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
-    <cfRule type="iconSet" priority="138">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
-    <cfRule type="iconSet" priority="137">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="iconSet" priority="136">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="iconSet" priority="135">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
-    <cfRule type="iconSet" priority="134">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
-    <cfRule type="iconSet" priority="133">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
-    <cfRule type="iconSet" priority="132">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
-    <cfRule type="iconSet" priority="131">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
-    <cfRule type="iconSet" priority="130">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="iconSet" priority="129">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
-    <cfRule type="iconSet" priority="128">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
-    <cfRule type="iconSet" priority="127">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
-    <cfRule type="iconSet" priority="126">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="iconSet" priority="125">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
-    <cfRule type="iconSet" priority="124">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
-    <cfRule type="iconSet" priority="123">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
-    <cfRule type="iconSet" priority="122">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
-    <cfRule type="iconSet" priority="121">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
-    <cfRule type="iconSet" priority="120">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
-    <cfRule type="iconSet" priority="119">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
-    <cfRule type="iconSet" priority="118">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
-    <cfRule type="iconSet" priority="117">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
-    <cfRule type="iconSet" priority="116">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
-    <cfRule type="iconSet" priority="115">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
-    <cfRule type="iconSet" priority="114">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
-    <cfRule type="iconSet" priority="113">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
-    <cfRule type="iconSet" priority="112">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
-    <cfRule type="iconSet" priority="111">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
-    <cfRule type="iconSet" priority="110">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
-    <cfRule type="iconSet" priority="109">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
-    <cfRule type="iconSet" priority="108">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
-    <cfRule type="iconSet" priority="107">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
-    <cfRule type="iconSet" priority="106">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
-    <cfRule type="iconSet" priority="105">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
-    <cfRule type="iconSet" priority="104">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
-    <cfRule type="iconSet" priority="103">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
-    <cfRule type="iconSet" priority="102">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
-    <cfRule type="iconSet" priority="101">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="iconSet" priority="100">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="iconSet" priority="99">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="iconSet" priority="98">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
-    <cfRule type="iconSet" priority="97">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
-    <cfRule type="iconSet" priority="96">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
-    <cfRule type="iconSet" priority="95">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
-    <cfRule type="iconSet" priority="94">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
-    <cfRule type="iconSet" priority="93">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="iconSet" priority="92">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="iconSet" priority="91">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="iconSet" priority="90">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
-    <cfRule type="iconSet" priority="89">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
-    <cfRule type="iconSet" priority="88">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="iconSet" priority="87">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="iconSet" priority="86">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
-    <cfRule type="iconSet" priority="85">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
-    <cfRule type="iconSet" priority="84">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="iconSet" priority="83">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="iconSet" priority="82">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
-    <cfRule type="iconSet" priority="81">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
-    <cfRule type="iconSet" priority="80">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="iconSet" priority="79">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
-    <cfRule type="iconSet" priority="78">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
-    <cfRule type="iconSet" priority="77">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
-    <cfRule type="iconSet" priority="76">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="iconSet" priority="75">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="iconSet" priority="74">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
-    <cfRule type="iconSet" priority="73">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="iconSet" priority="72">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
-    <cfRule type="iconSet" priority="71">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="iconSet" priority="70">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
-    <cfRule type="iconSet" priority="68">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
-    <cfRule type="iconSet" priority="67">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
-    <cfRule type="iconSet" priority="61">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
-    <cfRule type="iconSet" priority="60">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
-    <cfRule type="iconSet" priority="59">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
-    <cfRule type="iconSet" priority="58">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
-    <cfRule type="iconSet" priority="57">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
-    <cfRule type="iconSet" priority="55">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
-    <cfRule type="iconSet" priority="54">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
-    <cfRule type="iconSet" priority="52">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
-    <cfRule type="iconSet" priority="50">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
-    <cfRule type="iconSet" priority="49">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="iconSet" priority="48">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
-    <cfRule type="iconSet" priority="47">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
-    <cfRule type="iconSet" priority="43">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="iconSet" priority="38">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="iconSet" priority="33">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
-    <cfRule type="iconSet" priority="32">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="31">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="C46">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\VisionAI-Audio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F1D42E-3EBC-4AD2-A6F3-BB5A870F653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A852E-DB13-42F5-80C9-EF0375857CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>DAILY TASKS</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>Push changes to github for task3 containing everything like raw audio, converted, and preprocessed samples along with .json files having all paramters results.</t>
+  </si>
+  <si>
+    <t>Understand requirements for task 4</t>
+  </si>
+  <si>
+    <t>Research about different para in faster whisper to see if the requrements can be satisfied with this model alone</t>
+  </si>
+  <si>
+    <t>Create folders for task 4 and upload it to Drive, Generate mock code to see visually what the end output will look like.</t>
   </si>
 </sst>
 </file>
@@ -765,6 +774,7 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -776,7 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,7 +1218,7 @@
   <dimension ref="A1:F296"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1223,12 +1232,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1262,7 +1271,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1284,7 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1297,7 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1317,7 +1326,7 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1339,7 @@
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1343,7 +1352,7 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="37">
         <v>45940</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1357,7 +1366,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1369,7 +1378,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +1390,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1393,7 +1402,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1405,7 +1414,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
@@ -1431,7 +1440,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1443,7 +1452,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1455,7 +1464,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1467,7 +1476,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
@@ -1493,7 +1502,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
@@ -1505,7 +1514,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +1526,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
@@ -1529,7 +1538,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1541,7 +1550,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+      <c r="A27" s="37">
         <v>45945</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1556,7 +1565,7 @@
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="9" t="s">
         <v>37</v>
       </c>
@@ -1569,7 +1578,7 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="7" t="s">
         <v>38</v>
       </c>
@@ -1582,7 +1591,7 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +1604,7 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="15" t="s">
         <v>40</v>
       </c>
@@ -1608,7 +1617,7 @@
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="9" t="s">
         <v>41</v>
       </c>
@@ -1622,7 +1631,7 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="17" t="s">
         <v>43</v>
       </c>
@@ -1635,7 +1644,7 @@
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
@@ -1662,7 +1671,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -1674,7 +1683,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="17" t="s">
         <v>46</v>
       </c>
@@ -1686,7 +1695,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="9" t="s">
         <v>47</v>
       </c>
@@ -1698,7 +1707,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
@@ -1710,7 +1719,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
+      <c r="A40" s="37">
         <v>45947</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1724,7 +1733,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
@@ -1736,7 +1745,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="9" t="s">
         <v>51</v>
       </c>
@@ -1762,7 +1771,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="9" t="s">
         <v>52</v>
       </c>
@@ -1774,7 +1783,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="25" t="s">
         <v>53</v>
       </c>
@@ -1786,7 +1795,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="9" t="s">
         <v>56</v>
       </c>
@@ -1812,7 +1821,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="26" t="s">
         <v>55</v>
       </c>
@@ -1824,7 +1833,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="7" t="s">
         <v>57</v>
       </c>
@@ -1836,7 +1845,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="9" t="s">
         <v>58</v>
       </c>
@@ -1848,7 +1857,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="7" t="s">
         <v>59</v>
       </c>
@@ -1860,22 +1869,42 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="31">
+        <v>45953</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="14">
+        <v>45959</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="14">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="14">
+        <v>45959</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
@@ -1884,31 +1913,31 @@
       <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
@@ -1920,37 +1949,37 @@
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="39"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="39"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="15"/>
       <c r="C65" s="16"/>
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="39"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="15"/>
       <c r="C67" s="16"/>
       <c r="D67" s="14"/>
@@ -1962,13 +1991,13 @@
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="15"/>
       <c r="C69" s="16"/>
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
@@ -1980,7 +2009,7 @@
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
+      <c r="A72" s="33"/>
       <c r="B72" s="9"/>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
@@ -1992,7 +2021,7 @@
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
@@ -2004,19 +2033,19 @@
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="39"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="15"/>
       <c r="C77" s="16"/>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
+      <c r="A78" s="33"/>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
@@ -2028,19 +2057,19 @@
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="15"/>
       <c r="C81" s="16"/>
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
@@ -2052,13 +2081,13 @@
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="11"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="15"/>
       <c r="C85" s="16"/>
       <c r="D85" s="14"/>
@@ -2070,13 +2099,13 @@
       <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="15"/>
       <c r="C87" s="16"/>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
+      <c r="A88" s="33"/>
       <c r="B88" s="9"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
@@ -2094,7 +2123,7 @@
       <c r="D90" s="11"/>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="15"/>
       <c r="C91" s="16"/>
       <c r="D91" s="14"/>
@@ -2106,13 +2135,13 @@
       <c r="D92" s="11"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="15"/>
       <c r="C93" s="16"/>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
+      <c r="A94" s="33"/>
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="11"/>
@@ -2130,19 +2159,19 @@
       <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="39"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="15"/>
       <c r="C97" s="16"/>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="39"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="9"/>
       <c r="C98" s="10"/>
       <c r="D98" s="11"/>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
+      <c r="A99" s="33"/>
       <c r="B99" s="15"/>
       <c r="C99" s="16"/>
       <c r="D99" s="14"/>
@@ -2154,37 +2183,37 @@
       <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="39"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="15"/>
       <c r="C101" s="16"/>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="39"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="39"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="15"/>
       <c r="C103" s="16"/>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="39"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="39"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="15"/>
       <c r="C105" s="16"/>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
+      <c r="A106" s="33"/>
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
@@ -2196,19 +2225,19 @@
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="39"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="11"/>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="39"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="15"/>
       <c r="C109" s="16"/>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
+      <c r="A110" s="33"/>
       <c r="B110" s="9"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
@@ -2220,13 +2249,13 @@
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="39"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
+      <c r="A113" s="33"/>
       <c r="B113" s="15"/>
       <c r="C113" s="16"/>
       <c r="D113" s="14"/>
@@ -2238,13 +2267,13 @@
       <c r="D114" s="11"/>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="39"/>
+      <c r="A115" s="32"/>
       <c r="B115" s="15"/>
       <c r="C115" s="16"/>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="32"/>
+      <c r="A116" s="33"/>
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="11"/>
@@ -2256,13 +2285,13 @@
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
+      <c r="A118" s="32"/>
       <c r="B118" s="9"/>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="32"/>
+      <c r="A119" s="33"/>
       <c r="B119" s="15"/>
       <c r="C119" s="16"/>
       <c r="D119" s="14"/>
@@ -2274,19 +2303,19 @@
       <c r="D120" s="11"/>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="15"/>
       <c r="C121" s="16"/>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="9"/>
       <c r="C122" s="10"/>
       <c r="D122" s="11"/>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="32"/>
+      <c r="A123" s="33"/>
       <c r="B123" s="15"/>
       <c r="C123" s="16"/>
       <c r="D123" s="14"/>
@@ -2298,13 +2327,13 @@
       <c r="D124" s="11"/>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="15"/>
       <c r="C125" s="16"/>
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="32"/>
+      <c r="A126" s="33"/>
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="11"/>
@@ -2316,19 +2345,19 @@
       <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="39"/>
+      <c r="A128" s="32"/>
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
       <c r="D128" s="11"/>
     </row>
     <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="39"/>
+      <c r="A129" s="32"/>
       <c r="B129" s="15"/>
       <c r="C129" s="16"/>
       <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="32"/>
+      <c r="A130" s="33"/>
       <c r="B130" s="9"/>
       <c r="C130" s="10"/>
       <c r="D130" s="11"/>
@@ -2346,7 +2375,7 @@
       <c r="D132" s="11"/>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="32"/>
+      <c r="A133" s="33"/>
       <c r="B133" s="15"/>
       <c r="C133" s="16"/>
       <c r="D133" s="14"/>
@@ -3331,23 +3360,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A119"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A27:A34"/>
@@ -3364,8 +3376,55 @@
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="35">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3375,7 +3434,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C9 C11">
+    <cfRule type="iconSet" priority="319">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3385,7 +3454,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C12:C17">
     <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3395,7 +3464,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="C18:C22">
     <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3405,17 +3474,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C11">
-    <cfRule type="iconSet" priority="316">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C23">
     <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3425,7 +3484,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C17">
+  <conditionalFormatting sqref="C24:C26">
     <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3435,7 +3494,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C22">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3445,7 +3504,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C28">
     <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3455,7 +3514,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C26">
+  <conditionalFormatting sqref="C29">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3465,7 +3524,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C30">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3475,7 +3534,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C31">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3485,7 +3544,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="C32">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3495,7 +3554,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C33">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3505,7 +3564,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C34">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3515,7 +3574,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C35">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3525,7 +3584,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C36">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3535,7 +3594,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C37">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3545,7 +3604,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C38">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3555,7 +3614,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C39:C41">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3565,7 +3624,2377 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C55">
+    <cfRule type="iconSet" priority="288">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="iconSet" priority="285">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57">
+    <cfRule type="iconSet" priority="284">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
+    <cfRule type="iconSet" priority="283">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59">
+    <cfRule type="iconSet" priority="280">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="iconSet" priority="279">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="iconSet" priority="278">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="iconSet" priority="277">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="iconSet" priority="276">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="iconSet" priority="275">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="iconSet" priority="274">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="iconSet" priority="273">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="iconSet" priority="272">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="iconSet" priority="42">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="iconSet" priority="269">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="267">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="266">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="265">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="264">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="263">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="259">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="258">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="257">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="256">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="255">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="254">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="iconSet" priority="251">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C90">
+    <cfRule type="iconSet" priority="250">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="248">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C94">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="244">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="243">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="242">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="iconSet" priority="241">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="iconSet" priority="240">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="iconSet" priority="239">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="iconSet" priority="238">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="iconSet" priority="237">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="iconSet" priority="236">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="iconSet" priority="235">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="iconSet" priority="234">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="iconSet" priority="233">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="iconSet" priority="232">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="iconSet" priority="231">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="iconSet" priority="230">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:C113">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:C115">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="223">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="221">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="220">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="iconSet" priority="219">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="iconSet" priority="218">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="iconSet" priority="217">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="iconSet" priority="216">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="iconSet" priority="215">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="iconSet" priority="214">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="iconSet" priority="213">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="iconSet" priority="212">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="iconSet" priority="211">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="iconSet" priority="210">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="iconSet" priority="209">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="iconSet" priority="208">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="iconSet" priority="207">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="iconSet" priority="206">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="iconSet" priority="205">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="iconSet" priority="204">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="iconSet" priority="203">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="iconSet" priority="202">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="iconSet" priority="201">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="iconSet" priority="200">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="iconSet" priority="198">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="iconSet" priority="192">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="iconSet" priority="191">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="iconSet" priority="190">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="iconSet" priority="189">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="iconSet" priority="188">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="iconSet" priority="187">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="iconSet" priority="186">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="iconSet" priority="185">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="iconSet" priority="184">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="iconSet" priority="183">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="iconSet" priority="182">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="iconSet" priority="181">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="iconSet" priority="180">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="iconSet" priority="179">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="iconSet" priority="178">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="iconSet" priority="177">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="iconSet" priority="176">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="iconSet" priority="175">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="iconSet" priority="174">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="iconSet" priority="173">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="iconSet" priority="172">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="iconSet" priority="171">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="iconSet" priority="170">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="iconSet" priority="169">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="iconSet" priority="168">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="iconSet" priority="167">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="iconSet" priority="166">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="iconSet" priority="165">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="iconSet" priority="164">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="iconSet" priority="163">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="iconSet" priority="162">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="iconSet" priority="161">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="iconSet" priority="160">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="iconSet" priority="159">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="iconSet" priority="158">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="iconSet" priority="157">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="iconSet" priority="156">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184">
+    <cfRule type="iconSet" priority="155">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185">
+    <cfRule type="iconSet" priority="154">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186">
+    <cfRule type="iconSet" priority="153">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="iconSet" priority="152">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="iconSet" priority="151">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="iconSet" priority="150">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="iconSet" priority="148">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="iconSet" priority="147">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193">
+    <cfRule type="iconSet" priority="146">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="iconSet" priority="144">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="iconSet" priority="143">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="iconSet" priority="142">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C198">
+    <cfRule type="iconSet" priority="141">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C199">
+    <cfRule type="iconSet" priority="140">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C200">
+    <cfRule type="iconSet" priority="139">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="iconSet" priority="137">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="iconSet" priority="136">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="iconSet" priority="135">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="iconSet" priority="134">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="iconSet" priority="133">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C207">
+    <cfRule type="iconSet" priority="132">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C208">
+    <cfRule type="iconSet" priority="131">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="iconSet" priority="130">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="iconSet" priority="129">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="iconSet" priority="128">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C213">
+    <cfRule type="iconSet" priority="126">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214">
+    <cfRule type="iconSet" priority="125">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215">
+    <cfRule type="iconSet" priority="124">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="iconSet" priority="123">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="iconSet" priority="122">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219">
+    <cfRule type="iconSet" priority="120">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C220">
+    <cfRule type="iconSet" priority="119">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="iconSet" priority="118">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="iconSet" priority="117">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="iconSet" priority="115">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="iconSet" priority="114">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="iconSet" priority="113">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="iconSet" priority="111">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="iconSet" priority="110">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="iconSet" priority="109">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231">
+    <cfRule type="iconSet" priority="108">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232">
+    <cfRule type="iconSet" priority="107">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233">
+    <cfRule type="iconSet" priority="106">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C234">
+    <cfRule type="iconSet" priority="105">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="iconSet" priority="104">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="iconSet" priority="103">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="iconSet" priority="102">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="iconSet" priority="101">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239">
+    <cfRule type="iconSet" priority="100">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="iconSet" priority="99">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C241">
+    <cfRule type="iconSet" priority="98">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="iconSet" priority="97">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C243">
+    <cfRule type="iconSet" priority="96">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="iconSet" priority="95">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="iconSet" priority="94">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="iconSet" priority="93">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C247">
+    <cfRule type="iconSet" priority="92">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248">
+    <cfRule type="iconSet" priority="91">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C249">
+    <cfRule type="iconSet" priority="90">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C250">
+    <cfRule type="iconSet" priority="89">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251">
+    <cfRule type="iconSet" priority="88">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="iconSet" priority="86">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="iconSet" priority="85">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="iconSet" priority="84">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256">
+    <cfRule type="iconSet" priority="83">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="iconSet" priority="81">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="iconSet" priority="78">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="iconSet" priority="74">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C267">
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C268">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C269">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C273">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C274">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C276">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C278">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C280">
+    <cfRule type="iconSet" priority="59">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="iconSet" priority="58">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C282">
+    <cfRule type="iconSet" priority="57">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C290">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="iconSet" priority="48">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C295">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3575,7 +6004,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C43">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3585,7 +6014,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C41">
+  <conditionalFormatting sqref="C44">
     <cfRule type="iconSet" priority="11">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3595,2467 +6024,77 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="iconSet" priority="284">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53:C54">
-    <cfRule type="iconSet" priority="283">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="iconSet" priority="285">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="iconSet" priority="282">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="iconSet" priority="281">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="iconSet" priority="280">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="iconSet" priority="277">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60">
-    <cfRule type="iconSet" priority="276">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="iconSet" priority="275">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="iconSet" priority="274">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="iconSet" priority="273">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="iconSet" priority="272">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="iconSet" priority="271">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="iconSet" priority="270">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="iconSet" priority="269">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="iconSet" priority="38">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="266">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="264">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="263">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="262">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="261">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="259">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="258">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="257">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="256">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="255">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="254">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="253">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="252">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="251">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="35">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="248">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89:C90">
-    <cfRule type="iconSet" priority="247">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="iconSet" priority="245">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C94">
-    <cfRule type="iconSet" priority="33">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="iconSet" priority="241">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="iconSet" priority="240">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="iconSet" priority="239">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="iconSet" priority="238">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="iconSet" priority="237">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="iconSet" priority="236">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="iconSet" priority="235">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="iconSet" priority="234">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="iconSet" priority="233">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="iconSet" priority="232">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="iconSet" priority="231">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="iconSet" priority="230">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="iconSet" priority="229">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="iconSet" priority="228">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="iconSet" priority="227">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="iconSet" priority="226">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:C113">
-    <cfRule type="iconSet" priority="225">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C115">
-    <cfRule type="iconSet" priority="222">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="iconSet" priority="220">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="iconSet" priority="219">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="iconSet" priority="218">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="iconSet" priority="217">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="216">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="iconSet" priority="215">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="iconSet" priority="214">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="iconSet" priority="213">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="iconSet" priority="212">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="iconSet" priority="211">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="iconSet" priority="210">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="iconSet" priority="209">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="iconSet" priority="208">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="iconSet" priority="207">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="iconSet" priority="206">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="iconSet" priority="205">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="iconSet" priority="204">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="iconSet" priority="203">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="iconSet" priority="202">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="iconSet" priority="201">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="iconSet" priority="200">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="iconSet" priority="199">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="iconSet" priority="198">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="iconSet" priority="197">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="iconSet" priority="196">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="iconSet" priority="195">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="iconSet" priority="194">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="iconSet" priority="193">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="iconSet" priority="192">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="iconSet" priority="191">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="iconSet" priority="190">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="iconSet" priority="189">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="iconSet" priority="188">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="iconSet" priority="187">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="iconSet" priority="186">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="iconSet" priority="185">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="iconSet" priority="184">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="iconSet" priority="183">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="iconSet" priority="182">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="iconSet" priority="181">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="iconSet" priority="180">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="iconSet" priority="179">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="iconSet" priority="178">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="iconSet" priority="177">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="iconSet" priority="176">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="iconSet" priority="175">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="iconSet" priority="174">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="iconSet" priority="173">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="iconSet" priority="172">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="iconSet" priority="171">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="iconSet" priority="170">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="iconSet" priority="169">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="iconSet" priority="168">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
-    <cfRule type="iconSet" priority="167">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
-    <cfRule type="iconSet" priority="166">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
-    <cfRule type="iconSet" priority="165">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="iconSet" priority="164">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="iconSet" priority="163">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="iconSet" priority="162">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="iconSet" priority="161">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="iconSet" priority="160">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="iconSet" priority="159">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="iconSet" priority="158">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="iconSet" priority="157">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="iconSet" priority="156">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="iconSet" priority="155">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
-    <cfRule type="iconSet" priority="154">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="iconSet" priority="153">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
-    <cfRule type="iconSet" priority="152">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
-    <cfRule type="iconSet" priority="151">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
-    <cfRule type="iconSet" priority="150">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
-    <cfRule type="iconSet" priority="149">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="iconSet" priority="148">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
-    <cfRule type="iconSet" priority="147">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
-    <cfRule type="iconSet" priority="146">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="iconSet" priority="145">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="iconSet" priority="144">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
-    <cfRule type="iconSet" priority="143">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
-    <cfRule type="iconSet" priority="142">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
-    <cfRule type="iconSet" priority="141">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
-    <cfRule type="iconSet" priority="140">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
-    <cfRule type="iconSet" priority="139">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="iconSet" priority="138">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
-    <cfRule type="iconSet" priority="137">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
-    <cfRule type="iconSet" priority="136">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
-    <cfRule type="iconSet" priority="135">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="iconSet" priority="134">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
-    <cfRule type="iconSet" priority="133">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
-    <cfRule type="iconSet" priority="132">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
-    <cfRule type="iconSet" priority="131">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
-    <cfRule type="iconSet" priority="130">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
-    <cfRule type="iconSet" priority="129">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
-    <cfRule type="iconSet" priority="128">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
-    <cfRule type="iconSet" priority="127">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
-    <cfRule type="iconSet" priority="126">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
-    <cfRule type="iconSet" priority="125">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
-    <cfRule type="iconSet" priority="124">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
-    <cfRule type="iconSet" priority="123">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
-    <cfRule type="iconSet" priority="122">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
-    <cfRule type="iconSet" priority="121">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
-    <cfRule type="iconSet" priority="120">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
-    <cfRule type="iconSet" priority="119">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
-    <cfRule type="iconSet" priority="118">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
-    <cfRule type="iconSet" priority="117">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
-    <cfRule type="iconSet" priority="116">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
-    <cfRule type="iconSet" priority="115">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
-    <cfRule type="iconSet" priority="114">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
-    <cfRule type="iconSet" priority="113">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
-    <cfRule type="iconSet" priority="112">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
-    <cfRule type="iconSet" priority="111">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
-    <cfRule type="iconSet" priority="110">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="iconSet" priority="109">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="iconSet" priority="108">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="iconSet" priority="107">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
-    <cfRule type="iconSet" priority="106">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
-    <cfRule type="iconSet" priority="105">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
-    <cfRule type="iconSet" priority="104">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
-    <cfRule type="iconSet" priority="103">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
-    <cfRule type="iconSet" priority="102">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="iconSet" priority="101">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="iconSet" priority="100">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="iconSet" priority="99">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
-    <cfRule type="iconSet" priority="98">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
-    <cfRule type="iconSet" priority="97">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="iconSet" priority="96">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="iconSet" priority="95">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
-    <cfRule type="iconSet" priority="94">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
-    <cfRule type="iconSet" priority="93">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="iconSet" priority="92">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="iconSet" priority="91">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
-    <cfRule type="iconSet" priority="90">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
-    <cfRule type="iconSet" priority="89">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="iconSet" priority="88">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
-    <cfRule type="iconSet" priority="87">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
-    <cfRule type="iconSet" priority="86">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
-    <cfRule type="iconSet" priority="85">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="iconSet" priority="84">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="iconSet" priority="83">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
-    <cfRule type="iconSet" priority="82">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="iconSet" priority="81">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
-    <cfRule type="iconSet" priority="80">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="iconSet" priority="79">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
-    <cfRule type="iconSet" priority="78">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
-    <cfRule type="iconSet" priority="77">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
-    <cfRule type="iconSet" priority="76">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="iconSet" priority="75">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
-    <cfRule type="iconSet" priority="74">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
-    <cfRule type="iconSet" priority="73">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
-    <cfRule type="iconSet" priority="72">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
-    <cfRule type="iconSet" priority="71">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
-    <cfRule type="iconSet" priority="70">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
-    <cfRule type="iconSet" priority="68">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
-    <cfRule type="iconSet" priority="67">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
-    <cfRule type="iconSet" priority="61">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
-    <cfRule type="iconSet" priority="60">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
-    <cfRule type="iconSet" priority="59">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
-    <cfRule type="iconSet" priority="58">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="iconSet" priority="57">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
-    <cfRule type="iconSet" priority="55">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
-    <cfRule type="iconSet" priority="54">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
-    <cfRule type="iconSet" priority="52">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
-    <cfRule type="iconSet" priority="50">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
-    <cfRule type="iconSet" priority="49">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
-    <cfRule type="iconSet" priority="48">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="iconSet" priority="47">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="iconSet" priority="43">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -6065,7 +6104,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C53">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -6075,7 +6114,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="C54">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>

--- a/Docs/Daily Tasks.xlsx
+++ b/Docs/Daily Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\PycharmProjects\VisionAI-Audio\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A852E-DB13-42F5-80C9-EF0375857CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4880536C-43B3-4F75-835F-5A9CC189FF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>DAILY TASKS</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>Create folders for task 4 and upload it to Drive, Generate mock code to see visually what the end output will look like.</t>
+  </si>
+  <si>
+    <t>Solve the errors when shifting the project to remote desktop</t>
+  </si>
+  <si>
+    <t>Create the new virtual env and install all the packages</t>
+  </si>
+  <si>
+    <t>Debugg the compatibility issues</t>
+  </si>
+  <si>
+    <t>Clone the project to be used in server</t>
+  </si>
+  <si>
+    <t>Run test to see all the drivers, packages etc are installed.</t>
+  </si>
+  <si>
+    <t>Run 1 test audio transcription using H100</t>
   </si>
 </sst>
 </file>
@@ -774,7 +792,6 @@
     <xf numFmtId="15" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,6 +803,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1217,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:F296"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1232,12 +1250,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="62.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1271,7 +1289,7 @@
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1284,7 +1302,7 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1315,7 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1326,7 +1344,7 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1357,7 @@
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1352,7 +1370,7 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="36">
         <v>45940</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1366,7 +1384,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
@@ -1378,7 +1396,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
@@ -1390,7 +1408,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1402,7 +1420,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1414,7 +1432,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
@@ -1440,7 +1458,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1452,7 +1470,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
@@ -1464,7 +1482,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="7" t="s">
         <v>30</v>
       </c>
@@ -1476,7 +1494,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
@@ -1502,7 +1520,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
@@ -1514,7 +1532,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="7" t="s">
         <v>34</v>
       </c>
@@ -1526,7 +1544,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="9" t="s">
         <v>35</v>
       </c>
@@ -1538,7 +1556,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
@@ -1550,7 +1568,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+      <c r="A27" s="36">
         <v>45945</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -1565,7 +1583,7 @@
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="9" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +1596,7 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="7" t="s">
         <v>38</v>
       </c>
@@ -1591,7 +1609,7 @@
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="9" t="s">
         <v>39</v>
       </c>
@@ -1604,7 +1622,7 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="15" t="s">
         <v>40</v>
       </c>
@@ -1617,7 +1635,7 @@
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="9" t="s">
         <v>41</v>
       </c>
@@ -1631,7 +1649,7 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="17" t="s">
         <v>43</v>
       </c>
@@ -1644,7 +1662,7 @@
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
@@ -1671,7 +1689,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="9" t="s">
         <v>45</v>
       </c>
@@ -1683,7 +1701,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="17" t="s">
         <v>46</v>
       </c>
@@ -1695,7 +1713,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="9" t="s">
         <v>47</v>
       </c>
@@ -1707,7 +1725,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
@@ -1719,7 +1737,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
+      <c r="A40" s="36">
         <v>45947</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1733,7 +1751,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="7" t="s">
         <v>50</v>
       </c>
@@ -1745,7 +1763,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="9" t="s">
         <v>51</v>
       </c>
@@ -1771,7 +1789,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="9" t="s">
         <v>52</v>
       </c>
@@ -1783,7 +1801,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="25" t="s">
         <v>53</v>
       </c>
@@ -1795,7 +1813,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="9" t="s">
         <v>56</v>
       </c>
@@ -1821,7 +1839,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="26" t="s">
         <v>55</v>
       </c>
@@ -1833,7 +1851,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="7" t="s">
         <v>57</v>
       </c>
@@ -1845,7 +1863,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="9" t="s">
         <v>58</v>
       </c>
@@ -1857,7 +1875,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="7" t="s">
         <v>59</v>
       </c>
@@ -1883,7 +1901,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="27" t="s">
         <v>61</v>
       </c>
@@ -1895,7 +1913,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="9" t="s">
         <v>62</v>
       </c>
@@ -1907,40 +1925,78 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="14"/>
+      <c r="A55" s="31">
+        <v>45954</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="14">
+        <v>45959</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="14">
+        <v>45959</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="14"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="14">
+        <v>45959</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="14">
+        <v>45959</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="14"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="14">
+        <v>45959</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="14">
+        <v>45959</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
@@ -1949,37 +2005,37 @@
       <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="15"/>
       <c r="C63" s="16"/>
       <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="15"/>
       <c r="C65" s="16"/>
       <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="15"/>
       <c r="C67" s="16"/>
       <c r="D67" s="14"/>
@@ -1991,13 +2047,13 @@
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="15"/>
       <c r="C69" s="16"/>
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
@@ -2009,7 +2065,7 @@
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="9"/>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
@@ -2021,7 +2077,7 @@
       <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
@@ -2033,19 +2089,19 @@
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
+      <c r="A77" s="39"/>
       <c r="B77" s="15"/>
       <c r="C77" s="16"/>
       <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
@@ -2057,19 +2113,19 @@
       <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="15"/>
       <c r="C81" s="16"/>
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
@@ -2081,13 +2137,13 @@
       <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="11"/>
     </row>
     <row r="85" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="15"/>
       <c r="C85" s="16"/>
       <c r="D85" s="14"/>
@@ -2099,13 +2155,13 @@
       <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="15"/>
       <c r="C87" s="16"/>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="9"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
@@ -2123,7 +2179,7 @@
       <c r="D90" s="11"/>
     </row>
     <row r="91" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="15"/>
       <c r="C91" s="16"/>
       <c r="D91" s="14"/>
@@ -2135,13 +2191,13 @@
       <c r="D92" s="11"/>
     </row>
     <row r="93" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="15"/>
       <c r="C93" s="16"/>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="11"/>
@@ -2159,19 +2215,19 @@
       <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="15"/>
       <c r="C97" s="16"/>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="32"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="9"/>
       <c r="C98" s="10"/>
       <c r="D98" s="11"/>
     </row>
     <row r="99" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="33"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="15"/>
       <c r="C99" s="16"/>
       <c r="D99" s="14"/>
@@ -2183,37 +2239,37 @@
       <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="32"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="15"/>
       <c r="C101" s="16"/>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="32"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
     </row>
     <row r="103" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="32"/>
+      <c r="A103" s="39"/>
       <c r="B103" s="15"/>
       <c r="C103" s="16"/>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="32"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
     </row>
     <row r="105" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="32"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="15"/>
       <c r="C105" s="16"/>
       <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
@@ -2225,19 +2281,19 @@
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="32"/>
+      <c r="A108" s="39"/>
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="11"/>
     </row>
     <row r="109" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="32"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="15"/>
       <c r="C109" s="16"/>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="33"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="9"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
@@ -2249,13 +2305,13 @@
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="32"/>
+      <c r="A112" s="39"/>
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
     </row>
     <row r="113" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="33"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="15"/>
       <c r="C113" s="16"/>
       <c r="D113" s="14"/>
@@ -2267,13 +2323,13 @@
       <c r="D114" s="11"/>
     </row>
     <row r="115" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="32"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="15"/>
       <c r="C115" s="16"/>
       <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
+      <c r="A116" s="32"/>
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="11"/>
@@ -2285,13 +2341,13 @@
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="32"/>
+      <c r="A118" s="39"/>
       <c r="B118" s="9"/>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
     </row>
     <row r="119" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="15"/>
       <c r="C119" s="16"/>
       <c r="D119" s="14"/>
@@ -2303,19 +2359,19 @@
       <c r="D120" s="11"/>
     </row>
     <row r="121" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="32"/>
+      <c r="A121" s="39"/>
       <c r="B121" s="15"/>
       <c r="C121" s="16"/>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="32"/>
+      <c r="A122" s="39"/>
       <c r="B122" s="9"/>
       <c r="C122" s="10"/>
       <c r="D122" s="11"/>
     </row>
     <row r="123" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="33"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="15"/>
       <c r="C123" s="16"/>
       <c r="D123" s="14"/>
@@ -2327,13 +2383,13 @@
       <c r="D124" s="11"/>
     </row>
     <row r="125" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
+      <c r="A125" s="39"/>
       <c r="B125" s="15"/>
       <c r="C125" s="16"/>
       <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="11"/>
@@ -2345,19 +2401,19 @@
       <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="32"/>
+      <c r="A128" s="39"/>
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
       <c r="D128" s="11"/>
     </row>
     <row r="129" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="32"/>
+      <c r="A129" s="39"/>
       <c r="B129" s="15"/>
       <c r="C129" s="16"/>
       <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
+      <c r="A130" s="32"/>
       <c r="B130" s="9"/>
       <c r="C130" s="10"/>
       <c r="D130" s="11"/>
@@ -2375,7 +2431,7 @@
       <c r="D132" s="11"/>
     </row>
     <row r="133" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
+      <c r="A133" s="32"/>
       <c r="B133" s="15"/>
       <c r="C133" s="16"/>
       <c r="D133" s="14"/>
@@ -3360,6 +3416,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="A117:A119"/>
     <mergeCell ref="A132:A133"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A27:A34"/>
@@ -3376,25 +3449,78 @@
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A68:A70"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
+    <cfRule type="iconSet" priority="41">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="iconSet" priority="40">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="iconSet" priority="39">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 C11">
+    <cfRule type="iconSet" priority="325">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C17">
+    <cfRule type="iconSet" priority="36">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C22">
     <cfRule type="iconSet" priority="35">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3404,7 +3530,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
+  <conditionalFormatting sqref="C23">
     <cfRule type="iconSet" priority="34">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3414,7 +3540,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C24:C26">
     <cfRule type="iconSet" priority="33">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3424,7 +3550,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C8">
+  <conditionalFormatting sqref="C27">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3434,17 +3560,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9 C11">
-    <cfRule type="iconSet" priority="319">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C28">
     <cfRule type="iconSet" priority="31">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3454,7 +3570,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C17">
+  <conditionalFormatting sqref="C29">
     <cfRule type="iconSet" priority="30">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3464,7 +3580,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C22">
+  <conditionalFormatting sqref="C30">
     <cfRule type="iconSet" priority="29">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3474,7 +3590,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
+  <conditionalFormatting sqref="C31">
     <cfRule type="iconSet" priority="28">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3484,7 +3600,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C26">
+  <conditionalFormatting sqref="C32">
     <cfRule type="iconSet" priority="27">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3494,7 +3610,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
+  <conditionalFormatting sqref="C33">
     <cfRule type="iconSet" priority="26">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3504,7 +3620,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C34">
     <cfRule type="iconSet" priority="25">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3514,7 +3630,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="C35">
     <cfRule type="iconSet" priority="24">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3524,7 +3640,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
+  <conditionalFormatting sqref="C36">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3534,7 +3650,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
+  <conditionalFormatting sqref="C37">
     <cfRule type="iconSet" priority="22">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3544,7 +3660,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C38">
     <cfRule type="iconSet" priority="21">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3554,7 +3670,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
+  <conditionalFormatting sqref="C39:C41">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3564,7 +3680,2317 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C61">
+    <cfRule type="iconSet" priority="284">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="iconSet" priority="283">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="iconSet" priority="282">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="iconSet" priority="281">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="iconSet" priority="280">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66">
+    <cfRule type="iconSet" priority="279">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67">
+    <cfRule type="iconSet" priority="278">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C68">
+    <cfRule type="iconSet" priority="47">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C69">
+    <cfRule type="iconSet" priority="48">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="iconSet" priority="275">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="iconSet" priority="46">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="iconSet" priority="273">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C73">
+    <cfRule type="iconSet" priority="272">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74">
+    <cfRule type="iconSet" priority="271">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75">
+    <cfRule type="iconSet" priority="270">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C76">
+    <cfRule type="iconSet" priority="269">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="iconSet" priority="268">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="iconSet" priority="267">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="iconSet" priority="266">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="iconSet" priority="265">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="iconSet" priority="264">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="iconSet" priority="263">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="iconSet" priority="262">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="iconSet" priority="261">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="iconSet" priority="260">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86">
+    <cfRule type="iconSet" priority="45">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="iconSet" priority="257">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89:C90">
+    <cfRule type="iconSet" priority="256">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="iconSet" priority="254">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C93:C94">
+    <cfRule type="iconSet" priority="42">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="iconSet" priority="250">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="iconSet" priority="249">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="iconSet" priority="248">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="iconSet" priority="247">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="iconSet" priority="246">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="iconSet" priority="245">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="iconSet" priority="244">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="iconSet" priority="243">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="iconSet" priority="242">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="iconSet" priority="241">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="iconSet" priority="240">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="iconSet" priority="239">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="iconSet" priority="238">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="iconSet" priority="237">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="iconSet" priority="236">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="iconSet" priority="235">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111:C113">
+    <cfRule type="iconSet" priority="234">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:C115">
+    <cfRule type="iconSet" priority="231">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="iconSet" priority="229">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="iconSet" priority="228">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="iconSet" priority="227">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="iconSet" priority="226">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="iconSet" priority="225">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="iconSet" priority="224">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="iconSet" priority="223">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="iconSet" priority="222">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="iconSet" priority="221">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="iconSet" priority="220">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="iconSet" priority="219">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="iconSet" priority="218">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="iconSet" priority="217">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="iconSet" priority="216">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="iconSet" priority="215">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="iconSet" priority="214">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="iconSet" priority="213">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="iconSet" priority="212">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="iconSet" priority="211">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="iconSet" priority="210">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="iconSet" priority="209">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="iconSet" priority="208">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="iconSet" priority="207">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="iconSet" priority="206">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="iconSet" priority="205">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="iconSet" priority="204">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="iconSet" priority="203">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="iconSet" priority="202">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="iconSet" priority="201">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="iconSet" priority="200">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="iconSet" priority="199">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="iconSet" priority="198">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="iconSet" priority="197">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="iconSet" priority="196">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="iconSet" priority="195">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="iconSet" priority="194">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="iconSet" priority="193">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="iconSet" priority="192">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="iconSet" priority="191">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="iconSet" priority="190">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="iconSet" priority="189">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="iconSet" priority="188">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="iconSet" priority="187">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="iconSet" priority="186">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="iconSet" priority="185">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="iconSet" priority="184">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="iconSet" priority="183">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="iconSet" priority="182">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="iconSet" priority="181">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="iconSet" priority="180">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="iconSet" priority="179">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="iconSet" priority="178">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="iconSet" priority="177">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="iconSet" priority="176">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="iconSet" priority="175">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="iconSet" priority="174">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="iconSet" priority="173">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="iconSet" priority="172">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="iconSet" priority="171">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="iconSet" priority="170">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="iconSet" priority="169">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="iconSet" priority="168">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="iconSet" priority="167">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="iconSet" priority="166">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="iconSet" priority="165">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="iconSet" priority="164">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C182">
+    <cfRule type="iconSet" priority="163">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="iconSet" priority="162">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C184">
+    <cfRule type="iconSet" priority="161">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C185">
+    <cfRule type="iconSet" priority="160">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C186">
+    <cfRule type="iconSet" priority="159">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C187">
+    <cfRule type="iconSet" priority="158">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C188">
+    <cfRule type="iconSet" priority="157">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C189">
+    <cfRule type="iconSet" priority="156">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C190">
+    <cfRule type="iconSet" priority="155">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191">
+    <cfRule type="iconSet" priority="154">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C192">
+    <cfRule type="iconSet" priority="153">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C193">
+    <cfRule type="iconSet" priority="152">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C194">
+    <cfRule type="iconSet" priority="151">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="iconSet" priority="150">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="iconSet" priority="148">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C198">
+    <cfRule type="iconSet" priority="147">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C199">
+    <cfRule type="iconSet" priority="146">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C200">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C201">
+    <cfRule type="iconSet" priority="144">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="iconSet" priority="143">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="iconSet" priority="142">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="iconSet" priority="141">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C205">
+    <cfRule type="iconSet" priority="140">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C206">
+    <cfRule type="iconSet" priority="139">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C207">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C208">
+    <cfRule type="iconSet" priority="137">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="iconSet" priority="136">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="iconSet" priority="135">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="iconSet" priority="134">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C212">
+    <cfRule type="iconSet" priority="133">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C213">
+    <cfRule type="iconSet" priority="132">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C214">
+    <cfRule type="iconSet" priority="131">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C215">
+    <cfRule type="iconSet" priority="130">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C216">
+    <cfRule type="iconSet" priority="129">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="iconSet" priority="128">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C218">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C219">
+    <cfRule type="iconSet" priority="126">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C220">
+    <cfRule type="iconSet" priority="125">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="iconSet" priority="124">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="iconSet" priority="123">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="iconSet" priority="122">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="iconSet" priority="120">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="iconSet" priority="119">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="iconSet" priority="118">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="iconSet" priority="117">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="iconSet" priority="116">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C230">
+    <cfRule type="iconSet" priority="115">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C231">
+    <cfRule type="iconSet" priority="114">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C232">
+    <cfRule type="iconSet" priority="113">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C233">
+    <cfRule type="iconSet" priority="112">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C234">
+    <cfRule type="iconSet" priority="111">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="iconSet" priority="110">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="iconSet" priority="109">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="iconSet" priority="108">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238">
+    <cfRule type="iconSet" priority="107">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C239">
+    <cfRule type="iconSet" priority="106">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C240">
+    <cfRule type="iconSet" priority="105">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C241">
+    <cfRule type="iconSet" priority="104">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C242">
+    <cfRule type="iconSet" priority="103">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C243">
+    <cfRule type="iconSet" priority="102">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="iconSet" priority="101">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="iconSet" priority="100">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C246">
+    <cfRule type="iconSet" priority="99">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C247">
+    <cfRule type="iconSet" priority="98">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C248">
+    <cfRule type="iconSet" priority="97">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C249">
+    <cfRule type="iconSet" priority="96">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C250">
+    <cfRule type="iconSet" priority="95">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C251">
+    <cfRule type="iconSet" priority="94">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="iconSet" priority="93">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253">
+    <cfRule type="iconSet" priority="92">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C254">
+    <cfRule type="iconSet" priority="91">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C255">
+    <cfRule type="iconSet" priority="90">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C256">
+    <cfRule type="iconSet" priority="89">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C257">
+    <cfRule type="iconSet" priority="88">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C258">
+    <cfRule type="iconSet" priority="87">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C259">
+    <cfRule type="iconSet" priority="86">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C260">
+    <cfRule type="iconSet" priority="85">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C261">
+    <cfRule type="iconSet" priority="84">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C262">
+    <cfRule type="iconSet" priority="83">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263">
+    <cfRule type="iconSet" priority="82">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264">
+    <cfRule type="iconSet" priority="81">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C265">
+    <cfRule type="iconSet" priority="80">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C266">
+    <cfRule type="iconSet" priority="79">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C267">
+    <cfRule type="iconSet" priority="78">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C268">
+    <cfRule type="iconSet" priority="77">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C269">
+    <cfRule type="iconSet" priority="76">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C270">
+    <cfRule type="iconSet" priority="75">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C271">
+    <cfRule type="iconSet" priority="74">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272">
+    <cfRule type="iconSet" priority="73">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C273">
+    <cfRule type="iconSet" priority="72">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C274">
+    <cfRule type="iconSet" priority="71">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C275">
+    <cfRule type="iconSet" priority="70">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C276">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C277">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C278">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="iconSet" priority="66">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C280">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C281">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C282">
+    <cfRule type="iconSet" priority="63">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C283">
+    <cfRule type="iconSet" priority="62">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C284">
+    <cfRule type="iconSet" priority="61">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="iconSet" priority="60">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C286">
+    <cfRule type="iconSet" priority="59">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C287">
+    <cfRule type="iconSet" priority="58">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C288">
+    <cfRule type="iconSet" priority="57">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="iconSet" priority="56">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C290">
+    <cfRule type="iconSet" priority="55">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="iconSet" priority="54">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="iconSet" priority="53">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="iconSet" priority="52">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="iconSet" priority="51">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C295">
+    <cfRule type="iconSet" priority="50">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="iconSet" priority="49">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3574,7 +6000,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C43">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3584,7 +6010,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C44">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3594,7 +6020,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C45">
     <cfRule type="iconSet" priority="16">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3604,7 +6030,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C46">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3614,7 +6040,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:C41">
+  <conditionalFormatting sqref="C47">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -3624,8 +6050,78 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="iconSet" priority="288">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3635,7 +6131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56">
-    <cfRule type="iconSet" priority="285">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3645,7 +6141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="iconSet" priority="284">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3655,7 +6151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58">
-    <cfRule type="iconSet" priority="283">
+    <cfRule type="iconSet" priority="3">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3665,7 +6161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59">
-    <cfRule type="iconSet" priority="280">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -3675,2446 +6171,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="iconSet" priority="279">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="iconSet" priority="278">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="iconSet" priority="277">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="iconSet" priority="276">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="iconSet" priority="275">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="iconSet" priority="274">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66">
-    <cfRule type="iconSet" priority="273">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C67">
-    <cfRule type="iconSet" priority="272">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="iconSet" priority="41">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="iconSet" priority="42">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="iconSet" priority="269">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="iconSet" priority="267">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73">
-    <cfRule type="iconSet" priority="266">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="iconSet" priority="265">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="iconSet" priority="264">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="iconSet" priority="263">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="iconSet" priority="262">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78">
-    <cfRule type="iconSet" priority="261">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="iconSet" priority="260">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="iconSet" priority="259">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="iconSet" priority="258">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="iconSet" priority="257">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="iconSet" priority="256">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="iconSet" priority="255">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="iconSet" priority="254">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="iconSet" priority="39">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="iconSet" priority="38">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="iconSet" priority="251">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89:C90">
-    <cfRule type="iconSet" priority="250">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="iconSet" priority="248">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93:C94">
-    <cfRule type="iconSet" priority="36">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="iconSet" priority="244">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="iconSet" priority="243">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="iconSet" priority="242">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="iconSet" priority="241">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
-    <cfRule type="iconSet" priority="240">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="iconSet" priority="239">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C101">
-    <cfRule type="iconSet" priority="238">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="iconSet" priority="237">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="iconSet" priority="236">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="iconSet" priority="235">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="iconSet" priority="234">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="iconSet" priority="233">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="iconSet" priority="232">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="iconSet" priority="231">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="iconSet" priority="230">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="iconSet" priority="229">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111:C113">
-    <cfRule type="iconSet" priority="228">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C115">
-    <cfRule type="iconSet" priority="225">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="iconSet" priority="223">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="iconSet" priority="222">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="iconSet" priority="221">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="iconSet" priority="220">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="iconSet" priority="219">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="iconSet" priority="218">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="iconSet" priority="217">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="iconSet" priority="216">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="iconSet" priority="215">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="iconSet" priority="214">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="iconSet" priority="213">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="iconSet" priority="212">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="iconSet" priority="211">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="iconSet" priority="210">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="iconSet" priority="209">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="iconSet" priority="208">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="iconSet" priority="207">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="iconSet" priority="206">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="iconSet" priority="205">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="iconSet" priority="204">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="iconSet" priority="203">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="iconSet" priority="202">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="iconSet" priority="201">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="iconSet" priority="200">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="iconSet" priority="199">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="iconSet" priority="198">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="iconSet" priority="197">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="iconSet" priority="196">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="iconSet" priority="195">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="iconSet" priority="194">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="iconSet" priority="193">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="iconSet" priority="192">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="iconSet" priority="191">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="iconSet" priority="190">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="iconSet" priority="189">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="iconSet" priority="188">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="iconSet" priority="187">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="iconSet" priority="186">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="iconSet" priority="185">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="iconSet" priority="184">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="iconSet" priority="183">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="iconSet" priority="182">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="iconSet" priority="181">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="iconSet" priority="180">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="iconSet" priority="179">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="iconSet" priority="178">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="iconSet" priority="177">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="iconSet" priority="176">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="iconSet" priority="175">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="iconSet" priority="174">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="iconSet" priority="173">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="iconSet" priority="172">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C168">
-    <cfRule type="iconSet" priority="171">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C169">
-    <cfRule type="iconSet" priority="170">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C170">
-    <cfRule type="iconSet" priority="169">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C171">
-    <cfRule type="iconSet" priority="168">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="iconSet" priority="167">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C173">
-    <cfRule type="iconSet" priority="166">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C174">
-    <cfRule type="iconSet" priority="165">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C175">
-    <cfRule type="iconSet" priority="164">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="iconSet" priority="163">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="iconSet" priority="162">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="iconSet" priority="161">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="iconSet" priority="160">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="iconSet" priority="159">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="iconSet" priority="158">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C182">
-    <cfRule type="iconSet" priority="157">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="iconSet" priority="156">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C184">
-    <cfRule type="iconSet" priority="155">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C185">
-    <cfRule type="iconSet" priority="154">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C186">
-    <cfRule type="iconSet" priority="153">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C187">
-    <cfRule type="iconSet" priority="152">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C188">
-    <cfRule type="iconSet" priority="151">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C189">
-    <cfRule type="iconSet" priority="150">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C190">
-    <cfRule type="iconSet" priority="149">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191">
-    <cfRule type="iconSet" priority="148">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C192">
-    <cfRule type="iconSet" priority="147">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C193">
-    <cfRule type="iconSet" priority="146">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C194">
-    <cfRule type="iconSet" priority="145">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C195">
-    <cfRule type="iconSet" priority="144">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
-    <cfRule type="iconSet" priority="143">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C197">
-    <cfRule type="iconSet" priority="142">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C198">
-    <cfRule type="iconSet" priority="141">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C199">
-    <cfRule type="iconSet" priority="140">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C200">
-    <cfRule type="iconSet" priority="139">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C201">
-    <cfRule type="iconSet" priority="138">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="iconSet" priority="137">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C203">
-    <cfRule type="iconSet" priority="136">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
-    <cfRule type="iconSet" priority="135">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C205">
-    <cfRule type="iconSet" priority="134">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C206">
-    <cfRule type="iconSet" priority="133">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C207">
-    <cfRule type="iconSet" priority="132">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C208">
-    <cfRule type="iconSet" priority="131">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C209">
-    <cfRule type="iconSet" priority="130">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C210">
-    <cfRule type="iconSet" priority="129">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C211">
-    <cfRule type="iconSet" priority="128">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C212">
-    <cfRule type="iconSet" priority="127">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C213">
-    <cfRule type="iconSet" priority="126">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
-    <cfRule type="iconSet" priority="125">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C215">
-    <cfRule type="iconSet" priority="124">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C216">
-    <cfRule type="iconSet" priority="123">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C217">
-    <cfRule type="iconSet" priority="122">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C218">
-    <cfRule type="iconSet" priority="121">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C219">
-    <cfRule type="iconSet" priority="120">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C220">
-    <cfRule type="iconSet" priority="119">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C221">
-    <cfRule type="iconSet" priority="118">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C222">
-    <cfRule type="iconSet" priority="117">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C223">
-    <cfRule type="iconSet" priority="116">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C224">
-    <cfRule type="iconSet" priority="115">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C225">
-    <cfRule type="iconSet" priority="114">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C226">
-    <cfRule type="iconSet" priority="113">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="iconSet" priority="112">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="iconSet" priority="111">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="iconSet" priority="110">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C230">
-    <cfRule type="iconSet" priority="109">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C231">
-    <cfRule type="iconSet" priority="108">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C232">
-    <cfRule type="iconSet" priority="107">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C233">
-    <cfRule type="iconSet" priority="106">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C234">
-    <cfRule type="iconSet" priority="105">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="iconSet" priority="104">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="iconSet" priority="103">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="iconSet" priority="102">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238">
-    <cfRule type="iconSet" priority="101">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C239">
-    <cfRule type="iconSet" priority="100">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C240">
-    <cfRule type="iconSet" priority="99">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C241">
-    <cfRule type="iconSet" priority="98">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C242">
-    <cfRule type="iconSet" priority="97">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C243">
-    <cfRule type="iconSet" priority="96">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="iconSet" priority="95">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="iconSet" priority="94">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C246">
-    <cfRule type="iconSet" priority="93">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C247">
-    <cfRule type="iconSet" priority="92">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C248">
-    <cfRule type="iconSet" priority="91">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C249">
-    <cfRule type="iconSet" priority="90">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C250">
-    <cfRule type="iconSet" priority="89">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C251">
-    <cfRule type="iconSet" priority="88">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="iconSet" priority="87">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253">
-    <cfRule type="iconSet" priority="86">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C254">
-    <cfRule type="iconSet" priority="85">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C255">
-    <cfRule type="iconSet" priority="84">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C256">
-    <cfRule type="iconSet" priority="83">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C257">
-    <cfRule type="iconSet" priority="82">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C258">
-    <cfRule type="iconSet" priority="81">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C259">
-    <cfRule type="iconSet" priority="80">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C260">
-    <cfRule type="iconSet" priority="79">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C261">
-    <cfRule type="iconSet" priority="78">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C262">
-    <cfRule type="iconSet" priority="77">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C263">
-    <cfRule type="iconSet" priority="76">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264">
-    <cfRule type="iconSet" priority="75">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C265">
-    <cfRule type="iconSet" priority="74">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C266">
-    <cfRule type="iconSet" priority="73">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C267">
-    <cfRule type="iconSet" priority="72">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C268">
-    <cfRule type="iconSet" priority="71">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C269">
-    <cfRule type="iconSet" priority="70">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C270">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C271">
-    <cfRule type="iconSet" priority="68">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C272">
-    <cfRule type="iconSet" priority="67">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C273">
-    <cfRule type="iconSet" priority="66">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C274">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C275">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C276">
-    <cfRule type="iconSet" priority="63">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C277">
-    <cfRule type="iconSet" priority="62">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C278">
-    <cfRule type="iconSet" priority="61">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="iconSet" priority="60">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C280">
-    <cfRule type="iconSet" priority="59">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C281">
-    <cfRule type="iconSet" priority="58">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C282">
-    <cfRule type="iconSet" priority="57">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C283">
-    <cfRule type="iconSet" priority="56">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C284">
-    <cfRule type="iconSet" priority="55">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
-    <cfRule type="iconSet" priority="54">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C286">
-    <cfRule type="iconSet" priority="53">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C287">
-    <cfRule type="iconSet" priority="52">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C288">
-    <cfRule type="iconSet" priority="51">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="iconSet" priority="50">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C290">
-    <cfRule type="iconSet" priority="49">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="iconSet" priority="48">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="iconSet" priority="47">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="iconSet" priority="46">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="iconSet" priority="45">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C295">
-    <cfRule type="iconSet" priority="44">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="iconSet" priority="43">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="iconSet" priority="13">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="iconSet" priority="11">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="iconSet" priority="10">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="iconSet" priority="3">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="iconSet" priority="2">
-      <iconSet iconSet="4TrafficLights">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
